--- a/cal_profit/origin.xlsx
+++ b/cal_profit/origin.xlsx
@@ -49301,10 +49301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P341"/>
+  <dimension ref="A1:P409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269:XFD341"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="J415" sqref="J415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -70352,7 +70352,7 @@
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
-        <f t="shared" ref="A320:A341" si="112">"人民币"</f>
+        <f t="shared" ref="A320:A383" si="112">"人民币"</f>
         <v>人民币</v>
       </c>
       <c r="B320" t="str">
@@ -71130,7 +71130,7 @@
         <v>0.15</v>
       </c>
       <c r="N331" t="str">
-        <f t="shared" ref="N331:N341" si="116">"0.00"</f>
+        <f t="shared" ref="N331:N387" si="116">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="O331" t="str">
@@ -71800,6 +71800,4494 @@
       <c r="P341" t="str">
         <f t="shared" si="117"/>
         <v>0153613480</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B342" t="str">
+        <f>"人民网"</f>
+        <v>人民网</v>
+      </c>
+      <c r="C342" t="str">
+        <f>"20190909"</f>
+        <v>20190909</v>
+      </c>
+      <c r="D342" t="str">
+        <f>"23.720"</f>
+        <v>23.720</v>
+      </c>
+      <c r="E342" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F342" t="str">
+        <f>"-11872.10"</f>
+        <v>-11872.10</v>
+      </c>
+      <c r="G342" t="str">
+        <f>"158202.65"</f>
+        <v>158202.65</v>
+      </c>
+      <c r="H342" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I342" t="str">
+        <f>"372"</f>
+        <v>372</v>
+      </c>
+      <c r="J342" t="str">
+        <f>"证券买入(人民网)"</f>
+        <v>证券买入(人民网)</v>
+      </c>
+      <c r="K342" t="str">
+        <f>"11.86"</f>
+        <v>11.86</v>
+      </c>
+      <c r="L342" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M342" t="str">
+        <f>"0.24"</f>
+        <v>0.24</v>
+      </c>
+      <c r="N342" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O342" t="str">
+        <f>"603000"</f>
+        <v>603000</v>
+      </c>
+      <c r="P342" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B343" t="str">
+        <f>"华脉科技"</f>
+        <v>华脉科技</v>
+      </c>
+      <c r="C343" t="str">
+        <f>"20190909"</f>
+        <v>20190909</v>
+      </c>
+      <c r="D343" t="str">
+        <f>"16.150"</f>
+        <v>16.150</v>
+      </c>
+      <c r="E343" t="str">
+        <f>"-900.00"</f>
+        <v>-900.00</v>
+      </c>
+      <c r="F343" t="str">
+        <f>"14505.63"</f>
+        <v>14505.63</v>
+      </c>
+      <c r="G343" t="str">
+        <f>"172708.28"</f>
+        <v>172708.28</v>
+      </c>
+      <c r="H343" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I343" t="str">
+        <f>"375"</f>
+        <v>375</v>
+      </c>
+      <c r="J343" t="str">
+        <f>"证券卖出(华脉科技)"</f>
+        <v>证券卖出(华脉科技)</v>
+      </c>
+      <c r="K343" t="str">
+        <f>"14.54"</f>
+        <v>14.54</v>
+      </c>
+      <c r="L343" t="str">
+        <f>"14.54"</f>
+        <v>14.54</v>
+      </c>
+      <c r="M343" t="str">
+        <f>"0.29"</f>
+        <v>0.29</v>
+      </c>
+      <c r="N343" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O343" t="str">
+        <f>"603042"</f>
+        <v>603042</v>
+      </c>
+      <c r="P343" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B344" t="str">
+        <f>"华脉科技"</f>
+        <v>华脉科技</v>
+      </c>
+      <c r="C344" t="str">
+        <f>"20190909"</f>
+        <v>20190909</v>
+      </c>
+      <c r="D344" t="str">
+        <f>"16.230"</f>
+        <v>16.230</v>
+      </c>
+      <c r="E344" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F344" t="str">
+        <f>"12957.78"</f>
+        <v>12957.78</v>
+      </c>
+      <c r="G344" t="str">
+        <f>"185666.06"</f>
+        <v>185666.06</v>
+      </c>
+      <c r="H344" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I344" t="str">
+        <f>"379"</f>
+        <v>379</v>
+      </c>
+      <c r="J344" t="str">
+        <f>"证券卖出(华脉科技)"</f>
+        <v>证券卖出(华脉科技)</v>
+      </c>
+      <c r="K344" t="str">
+        <f>"12.98"</f>
+        <v>12.98</v>
+      </c>
+      <c r="L344" t="str">
+        <f>"12.99"</f>
+        <v>12.99</v>
+      </c>
+      <c r="M344" t="str">
+        <f>"0.25"</f>
+        <v>0.25</v>
+      </c>
+      <c r="N344" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O344" t="str">
+        <f>"603042"</f>
+        <v>603042</v>
+      </c>
+      <c r="P344" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B345" t="str">
+        <f>"梅安森"</f>
+        <v>梅安森</v>
+      </c>
+      <c r="C345" t="str">
+        <f>"20190909"</f>
+        <v>20190909</v>
+      </c>
+      <c r="D345" t="str">
+        <f>"10.170"</f>
+        <v>10.170</v>
+      </c>
+      <c r="E345" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="F345" t="str">
+        <f>"-30540.51"</f>
+        <v>-30540.51</v>
+      </c>
+      <c r="G345" t="str">
+        <f>"155125.55"</f>
+        <v>155125.55</v>
+      </c>
+      <c r="H345" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I345" t="str">
+        <f>"386"</f>
+        <v>386</v>
+      </c>
+      <c r="J345" t="str">
+        <f>"证券买入(梅安森)"</f>
+        <v>证券买入(梅安森)</v>
+      </c>
+      <c r="K345" t="str">
+        <f>"30.51"</f>
+        <v>30.51</v>
+      </c>
+      <c r="L345" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M345" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N345" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O345" t="str">
+        <f>"300275"</f>
+        <v>300275</v>
+      </c>
+      <c r="P345" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B346" t="str">
+        <f>"长城证券"</f>
+        <v>长城证券</v>
+      </c>
+      <c r="C346" t="str">
+        <f>"20190909"</f>
+        <v>20190909</v>
+      </c>
+      <c r="D346" t="str">
+        <f>"16.500"</f>
+        <v>16.500</v>
+      </c>
+      <c r="E346" t="str">
+        <f>"-1200.00"</f>
+        <v>-1200.00</v>
+      </c>
+      <c r="F346" t="str">
+        <f>"19760.40"</f>
+        <v>19760.40</v>
+      </c>
+      <c r="G346" t="str">
+        <f>"174885.95"</f>
+        <v>174885.95</v>
+      </c>
+      <c r="H346" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I346" t="str">
+        <f>"383"</f>
+        <v>383</v>
+      </c>
+      <c r="J346" t="str">
+        <f>"证券卖出(长城证券)"</f>
+        <v>证券卖出(长城证券)</v>
+      </c>
+      <c r="K346" t="str">
+        <f>"19.80"</f>
+        <v>19.80</v>
+      </c>
+      <c r="L346" t="str">
+        <f>"19.80"</f>
+        <v>19.80</v>
+      </c>
+      <c r="M346" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N346" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O346" t="str">
+        <f>"002939"</f>
+        <v>002939</v>
+      </c>
+      <c r="P346" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B347" t="str">
+        <f>"人民网"</f>
+        <v>人民网</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" ref="C347:C354" si="119">"20190910"</f>
+        <v>20190910</v>
+      </c>
+      <c r="D347" t="str">
+        <f>"23.220"</f>
+        <v>23.220</v>
+      </c>
+      <c r="E347" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F347" t="str">
+        <f>"-11621.84"</f>
+        <v>-11621.84</v>
+      </c>
+      <c r="G347" t="str">
+        <f>"163264.11"</f>
+        <v>163264.11</v>
+      </c>
+      <c r="H347" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I347" t="str">
+        <f>"18"</f>
+        <v>18</v>
+      </c>
+      <c r="J347" t="str">
+        <f>"证券买入(人民网)"</f>
+        <v>证券买入(人民网)</v>
+      </c>
+      <c r="K347" t="str">
+        <f>"11.61"</f>
+        <v>11.61</v>
+      </c>
+      <c r="L347" t="str">
+        <f t="shared" ref="L347:L354" si="120">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M347" t="str">
+        <f>"0.23"</f>
+        <v>0.23</v>
+      </c>
+      <c r="N347" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O347" t="str">
+        <f>"603000"</f>
+        <v>603000</v>
+      </c>
+      <c r="P347" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B348" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="119"/>
+        <v>20190910</v>
+      </c>
+      <c r="D348" t="str">
+        <f>"21.950"</f>
+        <v>21.950</v>
+      </c>
+      <c r="E348" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F348" t="str">
+        <f>"-10986.20"</f>
+        <v>-10986.20</v>
+      </c>
+      <c r="G348" t="str">
+        <f>"152277.91"</f>
+        <v>152277.91</v>
+      </c>
+      <c r="H348" t="str">
+        <f>"2900.00"</f>
+        <v>2900.00</v>
+      </c>
+      <c r="I348" t="str">
+        <f>"21"</f>
+        <v>21</v>
+      </c>
+      <c r="J348" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K348" t="str">
+        <f>"10.98"</f>
+        <v>10.98</v>
+      </c>
+      <c r="L348" t="str">
+        <f t="shared" si="120"/>
+        <v>0.00</v>
+      </c>
+      <c r="M348" t="str">
+        <f>"0.22"</f>
+        <v>0.22</v>
+      </c>
+      <c r="N348" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O348" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P348" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B349" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="119"/>
+        <v>20190910</v>
+      </c>
+      <c r="D349" t="str">
+        <f>"21.770"</f>
+        <v>21.770</v>
+      </c>
+      <c r="E349" t="str">
+        <f>"100.00"</f>
+        <v>100.00</v>
+      </c>
+      <c r="F349" t="str">
+        <f>"-2182.04"</f>
+        <v>-2182.04</v>
+      </c>
+      <c r="G349" t="str">
+        <f>"150095.87"</f>
+        <v>150095.87</v>
+      </c>
+      <c r="H349" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I349" t="str">
+        <f>"24"</f>
+        <v>24</v>
+      </c>
+      <c r="J349" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K349" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L349" t="str">
+        <f t="shared" si="120"/>
+        <v>0.00</v>
+      </c>
+      <c r="M349" t="str">
+        <f>"0.04"</f>
+        <v>0.04</v>
+      </c>
+      <c r="N349" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O349" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P349" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B350" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="119"/>
+        <v>20190910</v>
+      </c>
+      <c r="D350" t="str">
+        <f>"21.500"</f>
+        <v>21.500</v>
+      </c>
+      <c r="E350" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F350" t="str">
+        <f>"-6456.58"</f>
+        <v>-6456.58</v>
+      </c>
+      <c r="G350" t="str">
+        <f>"143639.29"</f>
+        <v>143639.29</v>
+      </c>
+      <c r="H350" t="str">
+        <f>"3300.00"</f>
+        <v>3300.00</v>
+      </c>
+      <c r="I350" t="str">
+        <f>"31"</f>
+        <v>31</v>
+      </c>
+      <c r="J350" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K350" t="str">
+        <f>"6.45"</f>
+        <v>6.45</v>
+      </c>
+      <c r="L350" t="str">
+        <f t="shared" si="120"/>
+        <v>0.00</v>
+      </c>
+      <c r="M350" t="str">
+        <f>"0.13"</f>
+        <v>0.13</v>
+      </c>
+      <c r="N350" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O350" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P350" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B351" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="119"/>
+        <v>20190910</v>
+      </c>
+      <c r="D351" t="str">
+        <f>"21.280"</f>
+        <v>21.280</v>
+      </c>
+      <c r="E351" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F351" t="str">
+        <f>"-8520.68"</f>
+        <v>-8520.68</v>
+      </c>
+      <c r="G351" t="str">
+        <f>"135118.61"</f>
+        <v>135118.61</v>
+      </c>
+      <c r="H351" t="str">
+        <f>"3700.00"</f>
+        <v>3700.00</v>
+      </c>
+      <c r="I351" t="str">
+        <f>"35"</f>
+        <v>35</v>
+      </c>
+      <c r="J351" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K351" t="str">
+        <f>"8.51"</f>
+        <v>8.51</v>
+      </c>
+      <c r="L351" t="str">
+        <f t="shared" si="120"/>
+        <v>0.00</v>
+      </c>
+      <c r="M351" t="str">
+        <f>"0.17"</f>
+        <v>0.17</v>
+      </c>
+      <c r="N351" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O351" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P351" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B352" t="str">
+        <f>"梅安森"</f>
+        <v>梅安森</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="119"/>
+        <v>20190910</v>
+      </c>
+      <c r="D352" t="str">
+        <f>"10.290"</f>
+        <v>10.290</v>
+      </c>
+      <c r="E352" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="F352" t="str">
+        <f>"-30900.87"</f>
+        <v>-30900.87</v>
+      </c>
+      <c r="G352" t="str">
+        <f>"104217.74"</f>
+        <v>104217.74</v>
+      </c>
+      <c r="H352" t="str">
+        <f>"6000.00"</f>
+        <v>6000.00</v>
+      </c>
+      <c r="I352" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="J352" t="str">
+        <f>"证券买入(梅安森)"</f>
+        <v>证券买入(梅安森)</v>
+      </c>
+      <c r="K352" t="str">
+        <f>"30.87"</f>
+        <v>30.87</v>
+      </c>
+      <c r="L352" t="str">
+        <f t="shared" si="120"/>
+        <v>0.00</v>
+      </c>
+      <c r="M352" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N352" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O352" t="str">
+        <f>"300275"</f>
+        <v>300275</v>
+      </c>
+      <c r="P352" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B353" t="str">
+        <f>"诚志股份"</f>
+        <v>诚志股份</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="119"/>
+        <v>20190910</v>
+      </c>
+      <c r="D353" t="str">
+        <f>"16.490"</f>
+        <v>16.490</v>
+      </c>
+      <c r="E353" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F353" t="str">
+        <f>"-33012.98"</f>
+        <v>-33012.98</v>
+      </c>
+      <c r="G353" t="str">
+        <f>"71204.76"</f>
+        <v>71204.76</v>
+      </c>
+      <c r="H353" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I353" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="J353" t="str">
+        <f>"证券买入(诚志股份)"</f>
+        <v>证券买入(诚志股份)</v>
+      </c>
+      <c r="K353" t="str">
+        <f>"32.98"</f>
+        <v>32.98</v>
+      </c>
+      <c r="L353" t="str">
+        <f t="shared" si="120"/>
+        <v>0.00</v>
+      </c>
+      <c r="M353" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N353" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O353" t="str">
+        <f>"000990"</f>
+        <v>000990</v>
+      </c>
+      <c r="P353" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B354" t="str">
+        <f>"宇瞳光学"</f>
+        <v>宇瞳光学</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="119"/>
+        <v>20190910</v>
+      </c>
+      <c r="D354" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E354" t="str">
+        <f>"17.00"</f>
+        <v>17.00</v>
+      </c>
+      <c r="F354" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G354" t="str">
+        <f>"71204.76"</f>
+        <v>71204.76</v>
+      </c>
+      <c r="H354" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I354" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="J354" t="str">
+        <f>"申购配号(宇瞳光学)"</f>
+        <v>申购配号(宇瞳光学)</v>
+      </c>
+      <c r="K354" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L354" t="str">
+        <f t="shared" si="120"/>
+        <v>0.00</v>
+      </c>
+      <c r="M354" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N354" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O354" t="str">
+        <f>"300790"</f>
+        <v>300790</v>
+      </c>
+      <c r="P354" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B355" t="str">
+        <f>"人民网"</f>
+        <v>人民网</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" ref="C355:C360" si="121">"20190911"</f>
+        <v>20190911</v>
+      </c>
+      <c r="D355" t="str">
+        <f>"24.410"</f>
+        <v>24.410</v>
+      </c>
+      <c r="E355" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F355" t="str">
+        <f>"12180.34"</f>
+        <v>12180.34</v>
+      </c>
+      <c r="G355" t="str">
+        <f>"83385.10"</f>
+        <v>83385.10</v>
+      </c>
+      <c r="H355" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I355" t="str">
+        <f>"69"</f>
+        <v>69</v>
+      </c>
+      <c r="J355" t="str">
+        <f>"证券卖出(人民网)"</f>
+        <v>证券卖出(人民网)</v>
+      </c>
+      <c r="K355" t="str">
+        <f>"12.21"</f>
+        <v>12.21</v>
+      </c>
+      <c r="L355" t="str">
+        <f>"12.21"</f>
+        <v>12.21</v>
+      </c>
+      <c r="M355" t="str">
+        <f>"0.24"</f>
+        <v>0.24</v>
+      </c>
+      <c r="N355" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O355" t="str">
+        <f>"603000"</f>
+        <v>603000</v>
+      </c>
+      <c r="P355" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B356" t="str">
+        <f>"人民网"</f>
+        <v>人民网</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="121"/>
+        <v>20190911</v>
+      </c>
+      <c r="D356" t="str">
+        <f>"24.600"</f>
+        <v>24.600</v>
+      </c>
+      <c r="E356" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F356" t="str">
+        <f>"12275.15"</f>
+        <v>12275.15</v>
+      </c>
+      <c r="G356" t="str">
+        <f>"95660.25"</f>
+        <v>95660.25</v>
+      </c>
+      <c r="H356" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I356" t="str">
+        <f>"72"</f>
+        <v>72</v>
+      </c>
+      <c r="J356" t="str">
+        <f>"证券卖出(人民网)"</f>
+        <v>证券卖出(人民网)</v>
+      </c>
+      <c r="K356" t="str">
+        <f>"12.30"</f>
+        <v>12.30</v>
+      </c>
+      <c r="L356" t="str">
+        <f>"12.30"</f>
+        <v>12.30</v>
+      </c>
+      <c r="M356" t="str">
+        <f>"0.25"</f>
+        <v>0.25</v>
+      </c>
+      <c r="N356" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O356" t="str">
+        <f>"603000"</f>
+        <v>603000</v>
+      </c>
+      <c r="P356" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B357" t="str">
+        <f>"南京证券"</f>
+        <v>南京证券</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="121"/>
+        <v>20190911</v>
+      </c>
+      <c r="D357" t="str">
+        <f>"9.320"</f>
+        <v>9.320</v>
+      </c>
+      <c r="E357" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F357" t="str">
+        <f>"-18659.01"</f>
+        <v>-18659.01</v>
+      </c>
+      <c r="G357" t="str">
+        <f>"77001.24"</f>
+        <v>77001.24</v>
+      </c>
+      <c r="H357" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I357" t="str">
+        <f>"84"</f>
+        <v>84</v>
+      </c>
+      <c r="J357" t="str">
+        <f>"证券买入(南京证券)"</f>
+        <v>证券买入(南京证券)</v>
+      </c>
+      <c r="K357" t="str">
+        <f>"18.64"</f>
+        <v>18.64</v>
+      </c>
+      <c r="L357" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M357" t="str">
+        <f>"0.37"</f>
+        <v>0.37</v>
+      </c>
+      <c r="N357" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O357" t="str">
+        <f>"601990"</f>
+        <v>601990</v>
+      </c>
+      <c r="P357" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B358" t="str">
+        <f>"诚志股份"</f>
+        <v>诚志股份</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="121"/>
+        <v>20190911</v>
+      </c>
+      <c r="D358" t="str">
+        <f>"17.510"</f>
+        <v>17.510</v>
+      </c>
+      <c r="E358" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F358" t="str">
+        <f>"34949.96"</f>
+        <v>34949.96</v>
+      </c>
+      <c r="G358" t="str">
+        <f>"111951.20"</f>
+        <v>111951.20</v>
+      </c>
+      <c r="H358" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I358" t="str">
+        <f>"59"</f>
+        <v>59</v>
+      </c>
+      <c r="J358" t="str">
+        <f>"证券卖出(诚志股份)"</f>
+        <v>证券卖出(诚志股份)</v>
+      </c>
+      <c r="K358" t="str">
+        <f>"35.02"</f>
+        <v>35.02</v>
+      </c>
+      <c r="L358" t="str">
+        <f>"35.02"</f>
+        <v>35.02</v>
+      </c>
+      <c r="M358" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N358" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O358" t="str">
+        <f>"000990"</f>
+        <v>000990</v>
+      </c>
+      <c r="P358" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B359" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="121"/>
+        <v>20190911</v>
+      </c>
+      <c r="D359" t="str">
+        <f>"8.450"</f>
+        <v>8.450</v>
+      </c>
+      <c r="E359" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F359" t="str">
+        <f>"-16916.90"</f>
+        <v>-16916.90</v>
+      </c>
+      <c r="G359" t="str">
+        <f>"95034.30"</f>
+        <v>95034.30</v>
+      </c>
+      <c r="H359" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I359" t="str">
+        <f>"78"</f>
+        <v>78</v>
+      </c>
+      <c r="J359" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K359" t="str">
+        <f>"16.90"</f>
+        <v>16.90</v>
+      </c>
+      <c r="L359" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M359" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N359" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O359" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P359" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B360" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="121"/>
+        <v>20190911</v>
+      </c>
+      <c r="D360" t="str">
+        <f>"8.300"</f>
+        <v>8.300</v>
+      </c>
+      <c r="E360" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F360" t="str">
+        <f>"-8308.30"</f>
+        <v>-8308.30</v>
+      </c>
+      <c r="G360" t="str">
+        <f>"86726.00"</f>
+        <v>86726.00</v>
+      </c>
+      <c r="H360" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I360" t="str">
+        <f>"87"</f>
+        <v>87</v>
+      </c>
+      <c r="J360" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K360" t="str">
+        <f>"8.30"</f>
+        <v>8.30</v>
+      </c>
+      <c r="L360" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M360" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N360" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O360" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P360" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B361" t="str">
+        <f>"南京证券"</f>
+        <v>南京证券</v>
+      </c>
+      <c r="C361" t="str">
+        <f>"20190912"</f>
+        <v>20190912</v>
+      </c>
+      <c r="D361" t="str">
+        <f>"9.430"</f>
+        <v>9.430</v>
+      </c>
+      <c r="E361" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F361" t="str">
+        <f>"18821.89"</f>
+        <v>18821.89</v>
+      </c>
+      <c r="G361" t="str">
+        <f>"105547.89"</f>
+        <v>105547.89</v>
+      </c>
+      <c r="H361" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I361" t="str">
+        <f>"104"</f>
+        <v>104</v>
+      </c>
+      <c r="J361" t="str">
+        <f>"证券卖出(南京证券)"</f>
+        <v>证券卖出(南京证券)</v>
+      </c>
+      <c r="K361" t="str">
+        <f>"18.86"</f>
+        <v>18.86</v>
+      </c>
+      <c r="L361" t="str">
+        <f>"18.86"</f>
+        <v>18.86</v>
+      </c>
+      <c r="M361" t="str">
+        <f>"0.39"</f>
+        <v>0.39</v>
+      </c>
+      <c r="N361" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O361" t="str">
+        <f>"601990"</f>
+        <v>601990</v>
+      </c>
+      <c r="P361" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B362" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C362" t="str">
+        <f>"20190912"</f>
+        <v>20190912</v>
+      </c>
+      <c r="D362" t="str">
+        <f>"7.930"</f>
+        <v>7.930</v>
+      </c>
+      <c r="E362" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F362" t="str">
+        <f>"-15875.86"</f>
+        <v>-15875.86</v>
+      </c>
+      <c r="G362" t="str">
+        <f>"89672.03"</f>
+        <v>89672.03</v>
+      </c>
+      <c r="H362" t="str">
+        <f>"5000.00"</f>
+        <v>5000.00</v>
+      </c>
+      <c r="I362" t="str">
+        <f>"96"</f>
+        <v>96</v>
+      </c>
+      <c r="J362" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K362" t="str">
+        <f>"15.86"</f>
+        <v>15.86</v>
+      </c>
+      <c r="L362" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M362" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N362" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O362" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P362" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B363" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C363" t="str">
+        <f>"20190912"</f>
+        <v>20190912</v>
+      </c>
+      <c r="D363" t="str">
+        <f>"8.260"</f>
+        <v>8.260</v>
+      </c>
+      <c r="E363" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F363" t="str">
+        <f>"16486.96"</f>
+        <v>16486.96</v>
+      </c>
+      <c r="G363" t="str">
+        <f>"106158.99"</f>
+        <v>106158.99</v>
+      </c>
+      <c r="H363" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I363" t="str">
+        <f>"101"</f>
+        <v>101</v>
+      </c>
+      <c r="J363" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K363" t="str">
+        <f>"16.52"</f>
+        <v>16.52</v>
+      </c>
+      <c r="L363" t="str">
+        <f>"16.52"</f>
+        <v>16.52</v>
+      </c>
+      <c r="M363" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N363" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O363" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P363" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B364" t="str">
+        <f>"仙乐健康"</f>
+        <v>仙乐健康</v>
+      </c>
+      <c r="C364" t="str">
+        <f>"20190912"</f>
+        <v>20190912</v>
+      </c>
+      <c r="D364" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E364" t="str">
+        <f>"17.00"</f>
+        <v>17.00</v>
+      </c>
+      <c r="F364" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G364" t="str">
+        <f>"106158.99"</f>
+        <v>106158.99</v>
+      </c>
+      <c r="H364" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I364" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="J364" t="str">
+        <f>"申购配号(仙乐健康)"</f>
+        <v>申购配号(仙乐健康)</v>
+      </c>
+      <c r="K364" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L364" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M364" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N364" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O364" t="str">
+        <f>"300791"</f>
+        <v>300791</v>
+      </c>
+      <c r="P364" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B365" t="str">
+        <f>"三安光电"</f>
+        <v>三安光电</v>
+      </c>
+      <c r="C365" t="str">
+        <f>"20190916"</f>
+        <v>20190916</v>
+      </c>
+      <c r="D365" t="str">
+        <f>"13.530"</f>
+        <v>13.530</v>
+      </c>
+      <c r="E365" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F365" t="str">
+        <f>"-27087.60"</f>
+        <v>-27087.60</v>
+      </c>
+      <c r="G365" t="str">
+        <f>"79071.39"</f>
+        <v>79071.39</v>
+      </c>
+      <c r="H365" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I365" t="str">
+        <f>"116"</f>
+        <v>116</v>
+      </c>
+      <c r="J365" t="str">
+        <f>"证券买入(三安光电)"</f>
+        <v>证券买入(三安光电)</v>
+      </c>
+      <c r="K365" t="str">
+        <f>"27.06"</f>
+        <v>27.06</v>
+      </c>
+      <c r="L365" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M365" t="str">
+        <f>"0.54"</f>
+        <v>0.54</v>
+      </c>
+      <c r="N365" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O365" t="str">
+        <f>"600703"</f>
+        <v>600703</v>
+      </c>
+      <c r="P365" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B366" t="str">
+        <f>"梅安森"</f>
+        <v>梅安森</v>
+      </c>
+      <c r="C366" t="str">
+        <f>"20190916"</f>
+        <v>20190916</v>
+      </c>
+      <c r="D366" t="str">
+        <f>"11.110"</f>
+        <v>11.110</v>
+      </c>
+      <c r="E366" t="str">
+        <f>"-3000.00"</f>
+        <v>-3000.00</v>
+      </c>
+      <c r="F366" t="str">
+        <f>"33263.34"</f>
+        <v>33263.34</v>
+      </c>
+      <c r="G366" t="str">
+        <f>"112334.73"</f>
+        <v>112334.73</v>
+      </c>
+      <c r="H366" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I366" t="str">
+        <f>"129"</f>
+        <v>129</v>
+      </c>
+      <c r="J366" t="str">
+        <f>"证券卖出(梅安森)"</f>
+        <v>证券卖出(梅安森)</v>
+      </c>
+      <c r="K366" t="str">
+        <f>"33.33"</f>
+        <v>33.33</v>
+      </c>
+      <c r="L366" t="str">
+        <f>"33.33"</f>
+        <v>33.33</v>
+      </c>
+      <c r="M366" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N366" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O366" t="str">
+        <f>"300275"</f>
+        <v>300275</v>
+      </c>
+      <c r="P366" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B367" t="str">
+        <f>"梅安森"</f>
+        <v>梅安森</v>
+      </c>
+      <c r="C367" t="str">
+        <f>"20190916"</f>
+        <v>20190916</v>
+      </c>
+      <c r="D367" t="str">
+        <f>"10.910"</f>
+        <v>10.910</v>
+      </c>
+      <c r="E367" t="str">
+        <f>"-3000.00"</f>
+        <v>-3000.00</v>
+      </c>
+      <c r="F367" t="str">
+        <f>"32664.54"</f>
+        <v>32664.54</v>
+      </c>
+      <c r="G367" t="str">
+        <f>"144999.27"</f>
+        <v>144999.27</v>
+      </c>
+      <c r="H367" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I367" t="str">
+        <f>"141"</f>
+        <v>141</v>
+      </c>
+      <c r="J367" t="str">
+        <f>"证券卖出(梅安森)"</f>
+        <v>证券卖出(梅安森)</v>
+      </c>
+      <c r="K367" t="str">
+        <f>"32.73"</f>
+        <v>32.73</v>
+      </c>
+      <c r="L367" t="str">
+        <f>"32.73"</f>
+        <v>32.73</v>
+      </c>
+      <c r="M367" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N367" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O367" t="str">
+        <f>"300275"</f>
+        <v>300275</v>
+      </c>
+      <c r="P367" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B368" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C368" t="str">
+        <f>"20190916"</f>
+        <v>20190916</v>
+      </c>
+      <c r="D368" t="str">
+        <f>"8.240"</f>
+        <v>8.240</v>
+      </c>
+      <c r="E368" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F368" t="str">
+        <f>"-16496.48"</f>
+        <v>-16496.48</v>
+      </c>
+      <c r="G368" t="str">
+        <f>"128502.79"</f>
+        <v>128502.79</v>
+      </c>
+      <c r="H368" t="str">
+        <f>"5000.00"</f>
+        <v>5000.00</v>
+      </c>
+      <c r="I368" t="str">
+        <f>"112"</f>
+        <v>112</v>
+      </c>
+      <c r="J368" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K368" t="str">
+        <f>"16.48"</f>
+        <v>16.48</v>
+      </c>
+      <c r="L368" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M368" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N368" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O368" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P368" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B369" t="str">
+        <f>"三安光电"</f>
+        <v>三安光电</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" ref="C369:C376" si="122">"20190917"</f>
+        <v>20190917</v>
+      </c>
+      <c r="D369" t="str">
+        <f>"14.280"</f>
+        <v>14.280</v>
+      </c>
+      <c r="E369" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F369" t="str">
+        <f>"28502.30"</f>
+        <v>28502.30</v>
+      </c>
+      <c r="G369" t="str">
+        <f>"157005.09"</f>
+        <v>157005.09</v>
+      </c>
+      <c r="H369" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I369" t="str">
+        <f>"151"</f>
+        <v>151</v>
+      </c>
+      <c r="J369" t="str">
+        <f>"证券卖出(三安光电)"</f>
+        <v>证券卖出(三安光电)</v>
+      </c>
+      <c r="K369" t="str">
+        <f>"28.56"</f>
+        <v>28.56</v>
+      </c>
+      <c r="L369" t="str">
+        <f>"28.57"</f>
+        <v>28.57</v>
+      </c>
+      <c r="M369" t="str">
+        <f>"0.57"</f>
+        <v>0.57</v>
+      </c>
+      <c r="N369" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O369" t="str">
+        <f>"600703"</f>
+        <v>600703</v>
+      </c>
+      <c r="P369" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B370" t="str">
+        <f>"德宏股份"</f>
+        <v>德宏股份</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="122"/>
+        <v>20190917</v>
+      </c>
+      <c r="D370" t="str">
+        <f>"14.600"</f>
+        <v>14.600</v>
+      </c>
+      <c r="E370" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F370" t="str">
+        <f>"-14614.89"</f>
+        <v>-14614.89</v>
+      </c>
+      <c r="G370" t="str">
+        <f>"142390.20"</f>
+        <v>142390.20</v>
+      </c>
+      <c r="H370" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I370" t="str">
+        <f>"155"</f>
+        <v>155</v>
+      </c>
+      <c r="J370" t="str">
+        <f>"证券买入(德宏股份)"</f>
+        <v>证券买入(德宏股份)</v>
+      </c>
+      <c r="K370" t="str">
+        <f>"14.60"</f>
+        <v>14.60</v>
+      </c>
+      <c r="L370" t="str">
+        <f t="shared" ref="L370:L377" si="123">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M370" t="str">
+        <f>"0.29"</f>
+        <v>0.29</v>
+      </c>
+      <c r="N370" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O370" t="str">
+        <f>"603701"</f>
+        <v>603701</v>
+      </c>
+      <c r="P370" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B371" t="str">
+        <f>"德宏股份"</f>
+        <v>德宏股份</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="122"/>
+        <v>20190917</v>
+      </c>
+      <c r="D371" t="str">
+        <f>"14.570"</f>
+        <v>14.570</v>
+      </c>
+      <c r="E371" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F371" t="str">
+        <f>"-14584.86"</f>
+        <v>-14584.86</v>
+      </c>
+      <c r="G371" t="str">
+        <f>"127805.34"</f>
+        <v>127805.34</v>
+      </c>
+      <c r="H371" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I371" t="str">
+        <f>"163"</f>
+        <v>163</v>
+      </c>
+      <c r="J371" t="str">
+        <f>"证券买入(德宏股份)"</f>
+        <v>证券买入(德宏股份)</v>
+      </c>
+      <c r="K371" t="str">
+        <f>"14.57"</f>
+        <v>14.57</v>
+      </c>
+      <c r="L371" t="str">
+        <f t="shared" si="123"/>
+        <v>0.00</v>
+      </c>
+      <c r="M371" t="str">
+        <f>"0.29"</f>
+        <v>0.29</v>
+      </c>
+      <c r="N371" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O371" t="str">
+        <f>"603701"</f>
+        <v>603701</v>
+      </c>
+      <c r="P371" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B372" t="str">
+        <f>"德宏股份"</f>
+        <v>德宏股份</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="122"/>
+        <v>20190917</v>
+      </c>
+      <c r="D372" t="str">
+        <f>"14.290"</f>
+        <v>14.290</v>
+      </c>
+      <c r="E372" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F372" t="str">
+        <f>"-14304.58"</f>
+        <v>-14304.58</v>
+      </c>
+      <c r="G372" t="str">
+        <f>"113500.76"</f>
+        <v>113500.76</v>
+      </c>
+      <c r="H372" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I372" t="str">
+        <f>"170"</f>
+        <v>170</v>
+      </c>
+      <c r="J372" t="str">
+        <f>"证券买入(德宏股份)"</f>
+        <v>证券买入(德宏股份)</v>
+      </c>
+      <c r="K372" t="str">
+        <f>"14.29"</f>
+        <v>14.29</v>
+      </c>
+      <c r="L372" t="str">
+        <f t="shared" si="123"/>
+        <v>0.00</v>
+      </c>
+      <c r="M372" t="str">
+        <f>"0.29"</f>
+        <v>0.29</v>
+      </c>
+      <c r="N372" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O372" t="str">
+        <f>"603701"</f>
+        <v>603701</v>
+      </c>
+      <c r="P372" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B373" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="122"/>
+        <v>20190917</v>
+      </c>
+      <c r="D373" t="str">
+        <f>"10.930"</f>
+        <v>10.930</v>
+      </c>
+      <c r="E373" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F373" t="str">
+        <f>"-8752.74"</f>
+        <v>-8752.74</v>
+      </c>
+      <c r="G373" t="str">
+        <f>"104748.02"</f>
+        <v>104748.02</v>
+      </c>
+      <c r="H373" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I373" t="str">
+        <f>"148"</f>
+        <v>148</v>
+      </c>
+      <c r="J373" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K373" t="str">
+        <f>"8.74"</f>
+        <v>8.74</v>
+      </c>
+      <c r="L373" t="str">
+        <f t="shared" si="123"/>
+        <v>0.00</v>
+      </c>
+      <c r="M373" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N373" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O373" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P373" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B374" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="122"/>
+        <v>20190917</v>
+      </c>
+      <c r="D374" t="str">
+        <f>"10.800"</f>
+        <v>10.800</v>
+      </c>
+      <c r="E374" t="str">
+        <f>"1200.00"</f>
+        <v>1200.00</v>
+      </c>
+      <c r="F374" t="str">
+        <f>"-12972.96"</f>
+        <v>-12972.96</v>
+      </c>
+      <c r="G374" t="str">
+        <f>"91775.06"</f>
+        <v>91775.06</v>
+      </c>
+      <c r="H374" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I374" t="str">
+        <f>"159"</f>
+        <v>159</v>
+      </c>
+      <c r="J374" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K374" t="str">
+        <f>"12.96"</f>
+        <v>12.96</v>
+      </c>
+      <c r="L374" t="str">
+        <f t="shared" si="123"/>
+        <v>0.00</v>
+      </c>
+      <c r="M374" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N374" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O374" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P374" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B375" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="122"/>
+        <v>20190917</v>
+      </c>
+      <c r="D375" t="str">
+        <f>"10.650"</f>
+        <v>10.650</v>
+      </c>
+      <c r="E375" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F375" t="str">
+        <f>"-10660.65"</f>
+        <v>-10660.65</v>
+      </c>
+      <c r="G375" t="str">
+        <f>"81114.41"</f>
+        <v>81114.41</v>
+      </c>
+      <c r="H375" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I375" t="str">
+        <f>"167"</f>
+        <v>167</v>
+      </c>
+      <c r="J375" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K375" t="str">
+        <f>"10.65"</f>
+        <v>10.65</v>
+      </c>
+      <c r="L375" t="str">
+        <f t="shared" si="123"/>
+        <v>0.00</v>
+      </c>
+      <c r="M375" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N375" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O375" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P375" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B376" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="122"/>
+        <v>20190917</v>
+      </c>
+      <c r="D376" t="str">
+        <f>"7.950"</f>
+        <v>7.950</v>
+      </c>
+      <c r="E376" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F376" t="str">
+        <f>"-15915.90"</f>
+        <v>-15915.90</v>
+      </c>
+      <c r="G376" t="str">
+        <f>"65198.51"</f>
+        <v>65198.51</v>
+      </c>
+      <c r="H376" t="str">
+        <f>"7000.00"</f>
+        <v>7000.00</v>
+      </c>
+      <c r="I376" t="str">
+        <f>"174"</f>
+        <v>174</v>
+      </c>
+      <c r="J376" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K376" t="str">
+        <f>"15.90"</f>
+        <v>15.90</v>
+      </c>
+      <c r="L376" t="str">
+        <f t="shared" si="123"/>
+        <v>0.00</v>
+      </c>
+      <c r="M376" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N376" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O376" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P376" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B377" t="str">
+        <f>"德宏股份"</f>
+        <v>德宏股份</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" ref="C377:C382" si="124">"20190918"</f>
+        <v>20190918</v>
+      </c>
+      <c r="D377" t="str">
+        <f>"14.050"</f>
+        <v>14.050</v>
+      </c>
+      <c r="E377" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="F377" t="str">
+        <f>"-21081.74"</f>
+        <v>-21081.74</v>
+      </c>
+      <c r="G377" t="str">
+        <f>"44116.77"</f>
+        <v>44116.77</v>
+      </c>
+      <c r="H377" t="str">
+        <f>"4500.00"</f>
+        <v>4500.00</v>
+      </c>
+      <c r="I377" t="str">
+        <f>"185"</f>
+        <v>185</v>
+      </c>
+      <c r="J377" t="str">
+        <f>"证券买入(德宏股份)"</f>
+        <v>证券买入(德宏股份)</v>
+      </c>
+      <c r="K377" t="str">
+        <f>"6.32"</f>
+        <v>6.32</v>
+      </c>
+      <c r="L377" t="str">
+        <f t="shared" si="123"/>
+        <v>0.00</v>
+      </c>
+      <c r="M377" t="str">
+        <f>"0.42"</f>
+        <v>0.42</v>
+      </c>
+      <c r="N377" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O377" t="str">
+        <f>"603701"</f>
+        <v>603701</v>
+      </c>
+      <c r="P377" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B378" t="str">
+        <f>"德宏股份"</f>
+        <v>德宏股份</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="124"/>
+        <v>20190918</v>
+      </c>
+      <c r="D378" t="str">
+        <f>"14.528"</f>
+        <v>14.528</v>
+      </c>
+      <c r="E378" t="str">
+        <f>"-1500.00"</f>
+        <v>-1500.00</v>
+      </c>
+      <c r="F378" t="str">
+        <f>"21763.23"</f>
+        <v>21763.23</v>
+      </c>
+      <c r="G378" t="str">
+        <f>"65880.00"</f>
+        <v>65880.00</v>
+      </c>
+      <c r="H378" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I378" t="str">
+        <f>"206"</f>
+        <v>206</v>
+      </c>
+      <c r="J378" t="str">
+        <f>"证券卖出(德宏股份)"</f>
+        <v>证券卖出(德宏股份)</v>
+      </c>
+      <c r="K378" t="str">
+        <f>"6.54"</f>
+        <v>6.54</v>
+      </c>
+      <c r="L378" t="str">
+        <f>"21.79"</f>
+        <v>21.79</v>
+      </c>
+      <c r="M378" t="str">
+        <f>"0.44"</f>
+        <v>0.44</v>
+      </c>
+      <c r="N378" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O378" t="str">
+        <f>"603701"</f>
+        <v>603701</v>
+      </c>
+      <c r="P378" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B379" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="124"/>
+        <v>20190918</v>
+      </c>
+      <c r="D379" t="str">
+        <f>"8.000"</f>
+        <v>8.000</v>
+      </c>
+      <c r="E379" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F379" t="str">
+        <f>"15979.00"</f>
+        <v>15979.00</v>
+      </c>
+      <c r="G379" t="str">
+        <f>"81859.00"</f>
+        <v>81859.00</v>
+      </c>
+      <c r="H379" t="str">
+        <f>"5000.00"</f>
+        <v>5000.00</v>
+      </c>
+      <c r="I379" t="str">
+        <f>"203"</f>
+        <v>203</v>
+      </c>
+      <c r="J379" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K379" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L379" t="str">
+        <f>"16.00"</f>
+        <v>16.00</v>
+      </c>
+      <c r="M379" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N379" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O379" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P379" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B380" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="124"/>
+        <v>20190918</v>
+      </c>
+      <c r="D380" t="str">
+        <f>"10.120"</f>
+        <v>10.120</v>
+      </c>
+      <c r="E380" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F380" t="str">
+        <f>"-10125.00"</f>
+        <v>-10125.00</v>
+      </c>
+      <c r="G380" t="str">
+        <f>"71734.00"</f>
+        <v>71734.00</v>
+      </c>
+      <c r="H380" t="str">
+        <f>"4000.00"</f>
+        <v>4000.00</v>
+      </c>
+      <c r="I380" t="str">
+        <f>"193"</f>
+        <v>193</v>
+      </c>
+      <c r="J380" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K380" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L380" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M380" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N380" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O380" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P380" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B381" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="124"/>
+        <v>20190918</v>
+      </c>
+      <c r="D381" t="str">
+        <f>"10.000"</f>
+        <v>10.000</v>
+      </c>
+      <c r="E381" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F381" t="str">
+        <f>"-10005.00"</f>
+        <v>-10005.00</v>
+      </c>
+      <c r="G381" t="str">
+        <f>"61729.00"</f>
+        <v>61729.00</v>
+      </c>
+      <c r="H381" t="str">
+        <f>"5000.00"</f>
+        <v>5000.00</v>
+      </c>
+      <c r="I381" t="str">
+        <f>"199"</f>
+        <v>199</v>
+      </c>
+      <c r="J381" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K381" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L381" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M381" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N381" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O381" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P381" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B382" t="str">
+        <f>"壹网壹创"</f>
+        <v>壹网壹创</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="124"/>
+        <v>20190918</v>
+      </c>
+      <c r="D382" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E382" t="str">
+        <f>"17.00"</f>
+        <v>17.00</v>
+      </c>
+      <c r="F382" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G382" t="str">
+        <f>"61729.00"</f>
+        <v>61729.00</v>
+      </c>
+      <c r="H382" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I382" t="str">
+        <f>"197"</f>
+        <v>197</v>
+      </c>
+      <c r="J382" t="str">
+        <f>"申购配号(壹网壹创)"</f>
+        <v>申购配号(壹网壹创)</v>
+      </c>
+      <c r="K382" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L382" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M382" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N382" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O382" t="str">
+        <f>"300792"</f>
+        <v>300792</v>
+      </c>
+      <c r="P382" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f t="shared" si="112"/>
+        <v>人民币</v>
+      </c>
+      <c r="B383" t="str">
+        <f>"德宏股份"</f>
+        <v>德宏股份</v>
+      </c>
+      <c r="C383" t="str">
+        <f>"20190919"</f>
+        <v>20190919</v>
+      </c>
+      <c r="D383" t="str">
+        <f>"15.130"</f>
+        <v>15.130</v>
+      </c>
+      <c r="E383" t="str">
+        <f>"-3000.00"</f>
+        <v>-3000.00</v>
+      </c>
+      <c r="F383" t="str">
+        <f>"45330.08"</f>
+        <v>45330.08</v>
+      </c>
+      <c r="G383" t="str">
+        <f>"107059.08"</f>
+        <v>107059.08</v>
+      </c>
+      <c r="H383" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I383" t="str">
+        <f>"218"</f>
+        <v>218</v>
+      </c>
+      <c r="J383" t="str">
+        <f>"证券卖出(德宏股份)"</f>
+        <v>证券卖出(德宏股份)</v>
+      </c>
+      <c r="K383" t="str">
+        <f>"13.62"</f>
+        <v>13.62</v>
+      </c>
+      <c r="L383" t="str">
+        <f>"45.39"</f>
+        <v>45.39</v>
+      </c>
+      <c r="M383" t="str">
+        <f>"0.91"</f>
+        <v>0.91</v>
+      </c>
+      <c r="N383" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O383" t="str">
+        <f>"603701"</f>
+        <v>603701</v>
+      </c>
+      <c r="P383" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f t="shared" ref="A384:A409" si="125">"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B384" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C384" t="str">
+        <f>"20190919"</f>
+        <v>20190919</v>
+      </c>
+      <c r="D384" t="str">
+        <f>"25.300"</f>
+        <v>25.300</v>
+      </c>
+      <c r="E384" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F384" t="str">
+        <f>"-20246.47"</f>
+        <v>-20246.47</v>
+      </c>
+      <c r="G384" t="str">
+        <f>"86812.61"</f>
+        <v>86812.61</v>
+      </c>
+      <c r="H384" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I384" t="str">
+        <f>"224"</f>
+        <v>224</v>
+      </c>
+      <c r="J384" t="str">
+        <f>"证券买入(赛腾股份)"</f>
+        <v>证券买入(赛腾股份)</v>
+      </c>
+      <c r="K384" t="str">
+        <f>"6.07"</f>
+        <v>6.07</v>
+      </c>
+      <c r="L384" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M384" t="str">
+        <f>"0.40"</f>
+        <v>0.40</v>
+      </c>
+      <c r="N384" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O384" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P384" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B385" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C385" t="str">
+        <f>"20190919"</f>
+        <v>20190919</v>
+      </c>
+      <c r="D385" t="str">
+        <f>"25.080"</f>
+        <v>25.080</v>
+      </c>
+      <c r="E385" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F385" t="str">
+        <f>"-10037.20"</f>
+        <v>-10037.20</v>
+      </c>
+      <c r="G385" t="str">
+        <f>"76775.41"</f>
+        <v>76775.41</v>
+      </c>
+      <c r="H385" t="str">
+        <f>"1200.00"</f>
+        <v>1200.00</v>
+      </c>
+      <c r="I385" t="str">
+        <f>"231"</f>
+        <v>231</v>
+      </c>
+      <c r="J385" t="str">
+        <f>"证券买入(赛腾股份)"</f>
+        <v>证券买入(赛腾股份)</v>
+      </c>
+      <c r="K385" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L385" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M385" t="str">
+        <f>"0.20"</f>
+        <v>0.20</v>
+      </c>
+      <c r="N385" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O385" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P385" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B386" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C386" t="str">
+        <f>"20190919"</f>
+        <v>20190919</v>
+      </c>
+      <c r="D386" t="str">
+        <f>"9.870"</f>
+        <v>9.870</v>
+      </c>
+      <c r="E386" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F386" t="str">
+        <f>"-19745.92"</f>
+        <v>-19745.92</v>
+      </c>
+      <c r="G386" t="str">
+        <f>"57029.49"</f>
+        <v>57029.49</v>
+      </c>
+      <c r="H386" t="str">
+        <f>"7000.00"</f>
+        <v>7000.00</v>
+      </c>
+      <c r="I386" t="str">
+        <f>"215"</f>
+        <v>215</v>
+      </c>
+      <c r="J386" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K386" t="str">
+        <f>"5.92"</f>
+        <v>5.92</v>
+      </c>
+      <c r="L386" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M386" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N386" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O386" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P386" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B387" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C387" t="str">
+        <f>"20190919"</f>
+        <v>20190919</v>
+      </c>
+      <c r="D387" t="str">
+        <f>"7.780"</f>
+        <v>7.780</v>
+      </c>
+      <c r="E387" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="F387" t="str">
+        <f>"-19455.84"</f>
+        <v>-19455.84</v>
+      </c>
+      <c r="G387" t="str">
+        <f>"37573.65"</f>
+        <v>37573.65</v>
+      </c>
+      <c r="H387" t="str">
+        <f>"7500.00"</f>
+        <v>7500.00</v>
+      </c>
+      <c r="I387" t="str">
+        <f>"227"</f>
+        <v>227</v>
+      </c>
+      <c r="J387" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K387" t="str">
+        <f>"5.84"</f>
+        <v>5.84</v>
+      </c>
+      <c r="L387" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M387" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N387" t="str">
+        <f t="shared" si="116"/>
+        <v>0.00</v>
+      </c>
+      <c r="O387" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P387" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B388" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C388" t="str">
+        <f>"20190923"</f>
+        <v>20190923</v>
+      </c>
+      <c r="D388" t="str">
+        <f>"24.350"</f>
+        <v>24.350</v>
+      </c>
+      <c r="E388" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F388" t="str">
+        <f>"-7310.15"</f>
+        <v>-7310.15</v>
+      </c>
+      <c r="G388" t="str">
+        <f>"30282.98"</f>
+        <v>30282.98</v>
+      </c>
+      <c r="H388" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I388" t="str">
+        <f>"240"</f>
+        <v>240</v>
+      </c>
+      <c r="J388" t="str">
+        <f>"证券买入(赛腾股份)"</f>
+        <v>证券买入(赛腾股份)</v>
+      </c>
+      <c r="K388" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L388" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M388" t="str">
+        <f>"0.15"</f>
+        <v>0.15</v>
+      </c>
+      <c r="N388" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O388" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P388" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B389" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C389" t="str">
+        <f>"20190923"</f>
+        <v>20190923</v>
+      </c>
+      <c r="D389" t="str">
+        <f>"10.230"</f>
+        <v>10.230</v>
+      </c>
+      <c r="E389" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F389" t="str">
+        <f>"20433.40"</f>
+        <v>20433.40</v>
+      </c>
+      <c r="G389" t="str">
+        <f>"50716.38"</f>
+        <v>50716.38</v>
+      </c>
+      <c r="H389" t="str">
+        <f>"5000.00"</f>
+        <v>5000.00</v>
+      </c>
+      <c r="I389" t="str">
+        <f>"250"</f>
+        <v>250</v>
+      </c>
+      <c r="J389" t="str">
+        <f>"证券卖出(中海达)"</f>
+        <v>证券卖出(中海达)</v>
+      </c>
+      <c r="K389" t="str">
+        <f>"6.14"</f>
+        <v>6.14</v>
+      </c>
+      <c r="L389" t="str">
+        <f>"20.46"</f>
+        <v>20.46</v>
+      </c>
+      <c r="M389" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N389" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O389" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P389" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B390" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C390" t="str">
+        <f>"20190923"</f>
+        <v>20190923</v>
+      </c>
+      <c r="D390" t="str">
+        <f>"10.090"</f>
+        <v>10.090</v>
+      </c>
+      <c r="E390" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F390" t="str">
+        <f>"-20186.06"</f>
+        <v>-20186.06</v>
+      </c>
+      <c r="G390" t="str">
+        <f>"30530.32"</f>
+        <v>30530.32</v>
+      </c>
+      <c r="H390" t="str">
+        <f>"7000.00"</f>
+        <v>7000.00</v>
+      </c>
+      <c r="I390" t="str">
+        <f>"253"</f>
+        <v>253</v>
+      </c>
+      <c r="J390" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K390" t="str">
+        <f>"6.06"</f>
+        <v>6.06</v>
+      </c>
+      <c r="L390" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M390" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N390" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O390" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P390" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B391" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C391" t="str">
+        <f>"20190924"</f>
+        <v>20190924</v>
+      </c>
+      <c r="D391" t="str">
+        <f>"22.180"</f>
+        <v>22.180</v>
+      </c>
+      <c r="E391" t="str">
+        <f>"-400.00"</f>
+        <v>-400.00</v>
+      </c>
+      <c r="F391" t="str">
+        <f>"8857.95"</f>
+        <v>8857.95</v>
+      </c>
+      <c r="G391" t="str">
+        <f>"39388.27"</f>
+        <v>39388.27</v>
+      </c>
+      <c r="H391" t="str">
+        <f>"3300.00"</f>
+        <v>3300.00</v>
+      </c>
+      <c r="I391" t="str">
+        <f>"261"</f>
+        <v>261</v>
+      </c>
+      <c r="J391" t="str">
+        <f>"证券卖出(中通国脉)"</f>
+        <v>证券卖出(中通国脉)</v>
+      </c>
+      <c r="K391" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L391" t="str">
+        <f>"8.87"</f>
+        <v>8.87</v>
+      </c>
+      <c r="M391" t="str">
+        <f>"0.18"</f>
+        <v>0.18</v>
+      </c>
+      <c r="N391" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O391" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P391" t="str">
+        <f t="shared" ref="P391:P395" si="126">"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B392" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C392" t="str">
+        <f>"20190924"</f>
+        <v>20190924</v>
+      </c>
+      <c r="D392" t="str">
+        <f>"25.060"</f>
+        <v>25.060</v>
+      </c>
+      <c r="E392" t="str">
+        <f>"-300.00"</f>
+        <v>-300.00</v>
+      </c>
+      <c r="F392" t="str">
+        <f>"7505.33"</f>
+        <v>7505.33</v>
+      </c>
+      <c r="G392" t="str">
+        <f>"46893.60"</f>
+        <v>46893.60</v>
+      </c>
+      <c r="H392" t="str">
+        <f>"1200.00"</f>
+        <v>1200.00</v>
+      </c>
+      <c r="I392" t="str">
+        <f>"264"</f>
+        <v>264</v>
+      </c>
+      <c r="J392" t="str">
+        <f>"证券卖出(赛腾股份)"</f>
+        <v>证券卖出(赛腾股份)</v>
+      </c>
+      <c r="K392" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L392" t="str">
+        <f>"7.52"</f>
+        <v>7.52</v>
+      </c>
+      <c r="M392" t="str">
+        <f>"0.15"</f>
+        <v>0.15</v>
+      </c>
+      <c r="N392" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O392" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P392" t="str">
+        <f t="shared" si="126"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B393" t="str">
+        <f>"科博配号"</f>
+        <v>科博配号</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" ref="C393:C396" si="127">"20190925"</f>
+        <v>20190925</v>
+      </c>
+      <c r="D393" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E393" t="str">
+        <f>"10.00"</f>
+        <v>10.00</v>
+      </c>
+      <c r="F393" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G393" t="str">
+        <f>"46892.72"</f>
+        <v>46892.72</v>
+      </c>
+      <c r="H393" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I393" t="str">
+        <f>"272"</f>
+        <v>272</v>
+      </c>
+      <c r="J393" t="str">
+        <f>"申购配号(科博配号)"</f>
+        <v>申购配号(科博配号)</v>
+      </c>
+      <c r="K393" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L393" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M393" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N393" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O393" t="str">
+        <f>"736786"</f>
+        <v>736786</v>
+      </c>
+      <c r="P393" t="str">
+        <f t="shared" si="126"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B394" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="127"/>
+        <v>20190925</v>
+      </c>
+      <c r="D394" t="str">
+        <f>"19.000"</f>
+        <v>19.000</v>
+      </c>
+      <c r="E394" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F394" t="str">
+        <f>"-19006.08"</f>
+        <v>-19006.08</v>
+      </c>
+      <c r="G394" t="str">
+        <f>"27886.64"</f>
+        <v>27886.64</v>
+      </c>
+      <c r="H394" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I394" t="str">
+        <f>"274"</f>
+        <v>274</v>
+      </c>
+      <c r="J394" t="str">
+        <f>"证券买入(威派格)"</f>
+        <v>证券买入(威派格)</v>
+      </c>
+      <c r="K394" t="str">
+        <f>"5.70"</f>
+        <v>5.70</v>
+      </c>
+      <c r="L394" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M394" t="str">
+        <f>"0.38"</f>
+        <v>0.38</v>
+      </c>
+      <c r="N394" t="str">
+        <f t="shared" ref="N394:N403" si="128">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O394" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P394" t="str">
+        <f t="shared" si="126"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B395" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="127"/>
+        <v>20190925</v>
+      </c>
+      <c r="D395" t="str">
+        <f>"21.220"</f>
+        <v>21.220</v>
+      </c>
+      <c r="E395" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F395" t="str">
+        <f>"-6371.13"</f>
+        <v>-6371.13</v>
+      </c>
+      <c r="G395" t="str">
+        <f>"21515.51"</f>
+        <v>21515.51</v>
+      </c>
+      <c r="H395" t="str">
+        <f>"3600.00"</f>
+        <v>3600.00</v>
+      </c>
+      <c r="I395" t="str">
+        <f>"278"</f>
+        <v>278</v>
+      </c>
+      <c r="J395" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K395" t="str">
+        <f t="shared" ref="K395:K401" si="129">"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L395" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M395" t="str">
+        <f>"0.13"</f>
+        <v>0.13</v>
+      </c>
+      <c r="N395" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O395" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P395" t="str">
+        <f t="shared" si="126"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B396" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="127"/>
+        <v>20190925</v>
+      </c>
+      <c r="D396" t="str">
+        <f>"7.110"</f>
+        <v>7.110</v>
+      </c>
+      <c r="E396" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="F396" t="str">
+        <f>"-10670.00"</f>
+        <v>-10670.00</v>
+      </c>
+      <c r="G396" t="str">
+        <f>"10845.51"</f>
+        <v>10845.51</v>
+      </c>
+      <c r="H396" t="str">
+        <f>"9000.00"</f>
+        <v>9000.00</v>
+      </c>
+      <c r="I396" t="str">
+        <f>"281"</f>
+        <v>281</v>
+      </c>
+      <c r="J396" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K396" t="str">
+        <f t="shared" si="129"/>
+        <v>5.00</v>
+      </c>
+      <c r="L396" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M396" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N396" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O396" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P396" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B397" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" ref="C397:C402" si="130">"20190926"</f>
+        <v>20190926</v>
+      </c>
+      <c r="D397" t="str">
+        <f>"21.860"</f>
+        <v>21.860</v>
+      </c>
+      <c r="E397" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F397" t="str">
+        <f>"10913.85"</f>
+        <v>10913.85</v>
+      </c>
+      <c r="G397" t="str">
+        <f>"21759.36"</f>
+        <v>21759.36</v>
+      </c>
+      <c r="H397" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I397" t="str">
+        <f>"291"</f>
+        <v>291</v>
+      </c>
+      <c r="J397" t="str">
+        <f>"证券卖出(威派格)"</f>
+        <v>证券卖出(威派格)</v>
+      </c>
+      <c r="K397" t="str">
+        <f t="shared" si="129"/>
+        <v>5.00</v>
+      </c>
+      <c r="L397" t="str">
+        <f>"10.93"</f>
+        <v>10.93</v>
+      </c>
+      <c r="M397" t="str">
+        <f>"0.22"</f>
+        <v>0.22</v>
+      </c>
+      <c r="N397" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O397" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P397" t="str">
+        <f t="shared" ref="P397:P403" si="131">"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B398" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="130"/>
+        <v>20190926</v>
+      </c>
+      <c r="D398" t="str">
+        <f>"21.800"</f>
+        <v>21.800</v>
+      </c>
+      <c r="E398" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F398" t="str">
+        <f>"10883.88"</f>
+        <v>10883.88</v>
+      </c>
+      <c r="G398" t="str">
+        <f>"32643.24"</f>
+        <v>32643.24</v>
+      </c>
+      <c r="H398" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I398" t="str">
+        <f>"295"</f>
+        <v>295</v>
+      </c>
+      <c r="J398" t="str">
+        <f>"证券卖出(威派格)"</f>
+        <v>证券卖出(威派格)</v>
+      </c>
+      <c r="K398" t="str">
+        <f t="shared" si="129"/>
+        <v>5.00</v>
+      </c>
+      <c r="L398" t="str">
+        <f>"10.90"</f>
+        <v>10.90</v>
+      </c>
+      <c r="M398" t="str">
+        <f>"0.22"</f>
+        <v>0.22</v>
+      </c>
+      <c r="N398" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O398" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P398" t="str">
+        <f t="shared" si="131"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B399" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="130"/>
+        <v>20190926</v>
+      </c>
+      <c r="D399" t="str">
+        <f>"23.980"</f>
+        <v>23.980</v>
+      </c>
+      <c r="E399" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F399" t="str">
+        <f>"-9597.19"</f>
+        <v>-9597.19</v>
+      </c>
+      <c r="G399" t="str">
+        <f>"23046.05"</f>
+        <v>23046.05</v>
+      </c>
+      <c r="H399" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I399" t="str">
+        <f>"298"</f>
+        <v>298</v>
+      </c>
+      <c r="J399" t="str">
+        <f>"证券买入(赛腾股份)"</f>
+        <v>证券买入(赛腾股份)</v>
+      </c>
+      <c r="K399" t="str">
+        <f t="shared" si="129"/>
+        <v>5.00</v>
+      </c>
+      <c r="L399" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M399" t="str">
+        <f>"0.19"</f>
+        <v>0.19</v>
+      </c>
+      <c r="N399" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O399" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P399" t="str">
+        <f t="shared" si="131"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B400" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="130"/>
+        <v>20190926</v>
+      </c>
+      <c r="D400" t="str">
+        <f>"23.100"</f>
+        <v>23.100</v>
+      </c>
+      <c r="E400" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F400" t="str">
+        <f>"-11555.23"</f>
+        <v>-11555.23</v>
+      </c>
+      <c r="G400" t="str">
+        <f>"11490.82"</f>
+        <v>11490.82</v>
+      </c>
+      <c r="H400" t="str">
+        <f>"2100.00"</f>
+        <v>2100.00</v>
+      </c>
+      <c r="I400" t="str">
+        <f>"301"</f>
+        <v>301</v>
+      </c>
+      <c r="J400" t="str">
+        <f>"证券买入(赛腾股份)"</f>
+        <v>证券买入(赛腾股份)</v>
+      </c>
+      <c r="K400" t="str">
+        <f t="shared" si="129"/>
+        <v>5.00</v>
+      </c>
+      <c r="L400" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M400" t="str">
+        <f>"0.23"</f>
+        <v>0.23</v>
+      </c>
+      <c r="N400" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O400" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P400" t="str">
+        <f t="shared" si="131"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B401" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="130"/>
+        <v>20190926</v>
+      </c>
+      <c r="D401" t="str">
+        <f>"20.180"</f>
+        <v>20.180</v>
+      </c>
+      <c r="E401" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F401" t="str">
+        <f>"-10095.20"</f>
+        <v>-10095.20</v>
+      </c>
+      <c r="G401" t="str">
+        <f>"1395.62"</f>
+        <v>1395.62</v>
+      </c>
+      <c r="H401" t="str">
+        <f>"4100.00"</f>
+        <v>4100.00</v>
+      </c>
+      <c r="I401" t="str">
+        <f>"304"</f>
+        <v>304</v>
+      </c>
+      <c r="J401" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K401" t="str">
+        <f t="shared" si="129"/>
+        <v>5.00</v>
+      </c>
+      <c r="L401" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M401" t="str">
+        <f>"0.20"</f>
+        <v>0.20</v>
+      </c>
+      <c r="N401" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O401" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P401" t="str">
+        <f t="shared" si="131"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B402" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="130"/>
+        <v>20190926</v>
+      </c>
+      <c r="D402" t="str">
+        <f>"25.890"</f>
+        <v>25.890</v>
+      </c>
+      <c r="E402" t="str">
+        <f>"-1200.00"</f>
+        <v>-1200.00</v>
+      </c>
+      <c r="F402" t="str">
+        <f>"31026.99"</f>
+        <v>31026.99</v>
+      </c>
+      <c r="G402" t="str">
+        <f>"32422.61"</f>
+        <v>32422.61</v>
+      </c>
+      <c r="H402" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="I402" t="str">
+        <f>"311"</f>
+        <v>311</v>
+      </c>
+      <c r="J402" t="str">
+        <f>"证券卖出(赛腾股份)"</f>
+        <v>证券卖出(赛腾股份)</v>
+      </c>
+      <c r="K402" t="str">
+        <f>"9.32"</f>
+        <v>9.32</v>
+      </c>
+      <c r="L402" t="str">
+        <f>"31.07"</f>
+        <v>31.07</v>
+      </c>
+      <c r="M402" t="str">
+        <f>"0.62"</f>
+        <v>0.62</v>
+      </c>
+      <c r="N402" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O402" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P402" t="str">
+        <f t="shared" si="131"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B403" t="str">
+        <f>"赛腾股份"</f>
+        <v>赛腾股份</v>
+      </c>
+      <c r="C403" t="str">
+        <f>"20190927"</f>
+        <v>20190927</v>
+      </c>
+      <c r="D403" t="str">
+        <f>"29.360"</f>
+        <v>29.360</v>
+      </c>
+      <c r="E403" t="str">
+        <f>"-900.00"</f>
+        <v>-900.00</v>
+      </c>
+      <c r="F403" t="str">
+        <f>"26389.12"</f>
+        <v>26389.12</v>
+      </c>
+      <c r="G403" t="str">
+        <f>"58811.73"</f>
+        <v>58811.73</v>
+      </c>
+      <c r="H403" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I403" t="str">
+        <f>"320"</f>
+        <v>320</v>
+      </c>
+      <c r="J403" t="str">
+        <f>"证券卖出(赛腾股份)"</f>
+        <v>证券卖出(赛腾股份)</v>
+      </c>
+      <c r="K403" t="str">
+        <f>"7.93"</f>
+        <v>7.93</v>
+      </c>
+      <c r="L403" t="str">
+        <f>"26.42"</f>
+        <v>26.42</v>
+      </c>
+      <c r="M403" t="str">
+        <f>"0.53"</f>
+        <v>0.53</v>
+      </c>
+      <c r="N403" t="str">
+        <f t="shared" si="128"/>
+        <v>0.00</v>
+      </c>
+      <c r="O403" t="str">
+        <f>"603283"</f>
+        <v>603283</v>
+      </c>
+      <c r="P403" t="str">
+        <f t="shared" si="131"/>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B404" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C404" t="str">
+        <f>"20190930"</f>
+        <v>20190930</v>
+      </c>
+      <c r="D404" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E404" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F404" t="str">
+        <f>"-30000.00"</f>
+        <v>-30000.00</v>
+      </c>
+      <c r="G404" t="str">
+        <f>"28811.73"</f>
+        <v>28811.73</v>
+      </c>
+      <c r="H404" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I404" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J404" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K404" t="str">
+        <f t="shared" ref="K404:P404" si="132">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L404" t="str">
+        <f t="shared" si="132"/>
+        <v>---</v>
+      </c>
+      <c r="M404" t="str">
+        <f t="shared" si="132"/>
+        <v>---</v>
+      </c>
+      <c r="N404" t="str">
+        <f t="shared" si="132"/>
+        <v>---</v>
+      </c>
+      <c r="O404" t="str">
+        <f t="shared" si="132"/>
+        <v>---</v>
+      </c>
+      <c r="P404" t="str">
+        <f t="shared" si="132"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B405" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C405" t="str">
+        <f>"20190930"</f>
+        <v>20190930</v>
+      </c>
+      <c r="D405" t="str">
+        <f>"20.150"</f>
+        <v>20.150</v>
+      </c>
+      <c r="E405" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F405" t="str">
+        <f>"-10080.20"</f>
+        <v>-10080.20</v>
+      </c>
+      <c r="G405" t="str">
+        <f>"18731.53"</f>
+        <v>18731.53</v>
+      </c>
+      <c r="H405" t="str">
+        <f>"4600.00"</f>
+        <v>4600.00</v>
+      </c>
+      <c r="I405" t="str">
+        <f>"328"</f>
+        <v>328</v>
+      </c>
+      <c r="J405" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K405" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L405" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M405" t="str">
+        <f>"0.20"</f>
+        <v>0.20</v>
+      </c>
+      <c r="N405" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O405" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P405" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B406" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C406" t="str">
+        <f>"20191008"</f>
+        <v>20191008</v>
+      </c>
+      <c r="D406" t="str">
+        <f>"20.210"</f>
+        <v>20.210</v>
+      </c>
+      <c r="E406" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F406" t="str">
+        <f>"20183.32"</f>
+        <v>20183.32</v>
+      </c>
+      <c r="G406" t="str">
+        <f>"38914.85"</f>
+        <v>38914.85</v>
+      </c>
+      <c r="H406" t="str">
+        <f>"3600.00"</f>
+        <v>3600.00</v>
+      </c>
+      <c r="I406" t="str">
+        <f>"332"</f>
+        <v>332</v>
+      </c>
+      <c r="J406" t="str">
+        <f>"证券卖出(中通国脉)"</f>
+        <v>证券卖出(中通国脉)</v>
+      </c>
+      <c r="K406" t="str">
+        <f>"6.07"</f>
+        <v>6.07</v>
+      </c>
+      <c r="L406" t="str">
+        <f>"20.21"</f>
+        <v>20.21</v>
+      </c>
+      <c r="M406" t="str">
+        <f>"0.40"</f>
+        <v>0.40</v>
+      </c>
+      <c r="N406" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O406" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P406" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B407" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C407" t="str">
+        <f>"20191008"</f>
+        <v>20191008</v>
+      </c>
+      <c r="D407" t="str">
+        <f>"7.000"</f>
+        <v>7.000</v>
+      </c>
+      <c r="E407" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="F407" t="str">
+        <f>"-21006.30"</f>
+        <v>-21006.30</v>
+      </c>
+      <c r="G407" t="str">
+        <f>"17908.55"</f>
+        <v>17908.55</v>
+      </c>
+      <c r="H407" t="str">
+        <f>"12000.00"</f>
+        <v>12000.00</v>
+      </c>
+      <c r="I407" t="str">
+        <f>"337"</f>
+        <v>337</v>
+      </c>
+      <c r="J407" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K407" t="str">
+        <f>"6.30"</f>
+        <v>6.30</v>
+      </c>
+      <c r="L407" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M407" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N407" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O407" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P407" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B408" t="str">
+        <f>"佳禾智能"</f>
+        <v>佳禾智能</v>
+      </c>
+      <c r="C408" t="str">
+        <f>"20191008"</f>
+        <v>20191008</v>
+      </c>
+      <c r="D408" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E408" t="str">
+        <f>"20.00"</f>
+        <v>20.00</v>
+      </c>
+      <c r="F408" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G408" t="str">
+        <f>"17908.55"</f>
+        <v>17908.55</v>
+      </c>
+      <c r="H408" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I408" t="str">
+        <f>"335"</f>
+        <v>335</v>
+      </c>
+      <c r="J408" t="str">
+        <f>"申购配号(佳禾智能)"</f>
+        <v>申购配号(佳禾智能)</v>
+      </c>
+      <c r="K408" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L408" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M408" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N408" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O408" t="str">
+        <f>"300793"</f>
+        <v>300793</v>
+      </c>
+      <c r="P408" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B409" t="str">
+        <f>"交建配号"</f>
+        <v>交建配号</v>
+      </c>
+      <c r="C409" t="str">
+        <f>"20191009"</f>
+        <v>20191009</v>
+      </c>
+      <c r="D409" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E409" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F409" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G409" t="str">
+        <f>"17906.57"</f>
+        <v>17906.57</v>
+      </c>
+      <c r="H409" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I409" t="str">
+        <f>"348"</f>
+        <v>348</v>
+      </c>
+      <c r="J409" t="str">
+        <f>"申购配号(交建配号)"</f>
+        <v>申购配号(交建配号)</v>
+      </c>
+      <c r="K409" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L409" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M409" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N409" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O409" t="str">
+        <f>"736815"</f>
+        <v>736815</v>
+      </c>
+      <c r="P409" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/origin.xlsx
+++ b/cal_profit/origin.xlsx
@@ -49301,10 +49301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P409"/>
+  <dimension ref="A1:P427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="J415" sqref="J415"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="J432" sqref="J432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -74576,7 +74576,7 @@
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
-        <f t="shared" ref="A384:A409" si="125">"人民币"</f>
+        <f t="shared" ref="A384:A427" si="125">"人民币"</f>
         <v>人民币</v>
       </c>
       <c r="B384" t="str">
@@ -74892,7 +74892,7 @@
         <v>0.15</v>
       </c>
       <c r="N388" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="N388:N393" si="126">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="O388" t="str">
@@ -74958,7 +74958,7 @@
         <v>0.00</v>
       </c>
       <c r="N389" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="126"/>
         <v>0.00</v>
       </c>
       <c r="O389" t="str">
@@ -75024,7 +75024,7 @@
         <v>0.00</v>
       </c>
       <c r="N390" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="126"/>
         <v>0.00</v>
       </c>
       <c r="O390" t="str">
@@ -75090,7 +75090,7 @@
         <v>0.18</v>
       </c>
       <c r="N391" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="126"/>
         <v>0.00</v>
       </c>
       <c r="O391" t="str">
@@ -75098,7 +75098,7 @@
         <v>603559</v>
       </c>
       <c r="P391" t="str">
-        <f t="shared" ref="P391:P395" si="126">"A400948245"</f>
+        <f t="shared" ref="P391:P395" si="127">"A400948245"</f>
         <v>A400948245</v>
       </c>
     </row>
@@ -75156,7 +75156,7 @@
         <v>0.15</v>
       </c>
       <c r="N392" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="126"/>
         <v>0.00</v>
       </c>
       <c r="O392" t="str">
@@ -75164,7 +75164,7 @@
         <v>603283</v>
       </c>
       <c r="P392" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75178,7 +75178,7 @@
         <v>科博配号</v>
       </c>
       <c r="C393" t="str">
-        <f t="shared" ref="C393:C396" si="127">"20190925"</f>
+        <f t="shared" ref="C393:C396" si="128">"20190925"</f>
         <v>20190925</v>
       </c>
       <c r="D393" t="str">
@@ -75222,7 +75222,7 @@
         <v>0.00</v>
       </c>
       <c r="N393" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="126"/>
         <v>0.00</v>
       </c>
       <c r="O393" t="str">
@@ -75230,7 +75230,7 @@
         <v>736786</v>
       </c>
       <c r="P393" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75244,7 +75244,7 @@
         <v>威派格</v>
       </c>
       <c r="C394" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>20190925</v>
       </c>
       <c r="D394" t="str">
@@ -75288,7 +75288,7 @@
         <v>0.38</v>
       </c>
       <c r="N394" t="str">
-        <f t="shared" ref="N394:N403" si="128">"0.00"</f>
+        <f t="shared" ref="N394:N403" si="129">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="O394" t="str">
@@ -75296,7 +75296,7 @@
         <v>603956</v>
       </c>
       <c r="P394" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75310,7 +75310,7 @@
         <v>中通国脉</v>
       </c>
       <c r="C395" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>20190925</v>
       </c>
       <c r="D395" t="str">
@@ -75342,7 +75342,7 @@
         <v>证券买入(中通国脉)</v>
       </c>
       <c r="K395" t="str">
-        <f t="shared" ref="K395:K401" si="129">"5.00"</f>
+        <f t="shared" ref="K395:K401" si="130">"5.00"</f>
         <v>5.00</v>
       </c>
       <c r="L395" t="str">
@@ -75354,7 +75354,7 @@
         <v>0.13</v>
       </c>
       <c r="N395" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O395" t="str">
@@ -75362,7 +75362,7 @@
         <v>603559</v>
       </c>
       <c r="P395" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75376,7 +75376,7 @@
         <v>顺灏股份</v>
       </c>
       <c r="C396" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>20190925</v>
       </c>
       <c r="D396" t="str">
@@ -75408,19 +75408,19 @@
         <v>证券买入(顺灏股份)</v>
       </c>
       <c r="K396" t="str">
+        <f t="shared" si="130"/>
+        <v>5.00</v>
+      </c>
+      <c r="L396" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M396" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N396" t="str">
         <f t="shared" si="129"/>
-        <v>5.00</v>
-      </c>
-      <c r="L396" t="str">
-        <f>"0.00"</f>
-        <v>0.00</v>
-      </c>
-      <c r="M396" t="str">
-        <f>"0.00"</f>
-        <v>0.00</v>
-      </c>
-      <c r="N396" t="str">
-        <f t="shared" si="128"/>
         <v>0.00</v>
       </c>
       <c r="O396" t="str">
@@ -75442,7 +75442,7 @@
         <v>威派格</v>
       </c>
       <c r="C397" t="str">
-        <f t="shared" ref="C397:C402" si="130">"20190926"</f>
+        <f t="shared" ref="C397:C402" si="131">"20190926"</f>
         <v>20190926</v>
       </c>
       <c r="D397" t="str">
@@ -75474,7 +75474,7 @@
         <v>证券卖出(威派格)</v>
       </c>
       <c r="K397" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5.00</v>
       </c>
       <c r="L397" t="str">
@@ -75486,7 +75486,7 @@
         <v>0.22</v>
       </c>
       <c r="N397" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O397" t="str">
@@ -75494,7 +75494,7 @@
         <v>603956</v>
       </c>
       <c r="P397" t="str">
-        <f t="shared" ref="P397:P403" si="131">"A400948245"</f>
+        <f t="shared" ref="P397:P403" si="132">"A400948245"</f>
         <v>A400948245</v>
       </c>
     </row>
@@ -75508,7 +75508,7 @@
         <v>威派格</v>
       </c>
       <c r="C398" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>20190926</v>
       </c>
       <c r="D398" t="str">
@@ -75540,7 +75540,7 @@
         <v>证券卖出(威派格)</v>
       </c>
       <c r="K398" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5.00</v>
       </c>
       <c r="L398" t="str">
@@ -75552,7 +75552,7 @@
         <v>0.22</v>
       </c>
       <c r="N398" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O398" t="str">
@@ -75560,7 +75560,7 @@
         <v>603956</v>
       </c>
       <c r="P398" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75574,7 +75574,7 @@
         <v>赛腾股份</v>
       </c>
       <c r="C399" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>20190926</v>
       </c>
       <c r="D399" t="str">
@@ -75606,7 +75606,7 @@
         <v>证券买入(赛腾股份)</v>
       </c>
       <c r="K399" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5.00</v>
       </c>
       <c r="L399" t="str">
@@ -75618,7 +75618,7 @@
         <v>0.19</v>
       </c>
       <c r="N399" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O399" t="str">
@@ -75626,7 +75626,7 @@
         <v>603283</v>
       </c>
       <c r="P399" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75640,7 +75640,7 @@
         <v>赛腾股份</v>
       </c>
       <c r="C400" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>20190926</v>
       </c>
       <c r="D400" t="str">
@@ -75672,7 +75672,7 @@
         <v>证券买入(赛腾股份)</v>
       </c>
       <c r="K400" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5.00</v>
       </c>
       <c r="L400" t="str">
@@ -75684,7 +75684,7 @@
         <v>0.23</v>
       </c>
       <c r="N400" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O400" t="str">
@@ -75692,7 +75692,7 @@
         <v>603283</v>
       </c>
       <c r="P400" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75706,7 +75706,7 @@
         <v>中通国脉</v>
       </c>
       <c r="C401" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>20190926</v>
       </c>
       <c r="D401" t="str">
@@ -75738,7 +75738,7 @@
         <v>证券买入(中通国脉)</v>
       </c>
       <c r="K401" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5.00</v>
       </c>
       <c r="L401" t="str">
@@ -75750,7 +75750,7 @@
         <v>0.20</v>
       </c>
       <c r="N401" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O401" t="str">
@@ -75758,7 +75758,7 @@
         <v>603559</v>
       </c>
       <c r="P401" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75772,7 +75772,7 @@
         <v>赛腾股份</v>
       </c>
       <c r="C402" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>20190926</v>
       </c>
       <c r="D402" t="str">
@@ -75816,7 +75816,7 @@
         <v>0.62</v>
       </c>
       <c r="N402" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O402" t="str">
@@ -75824,7 +75824,7 @@
         <v>603283</v>
       </c>
       <c r="P402" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75882,7 +75882,7 @@
         <v>0.53</v>
       </c>
       <c r="N403" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.00</v>
       </c>
       <c r="O403" t="str">
@@ -75890,7 +75890,7 @@
         <v>603283</v>
       </c>
       <c r="P403" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>A400948245</v>
       </c>
     </row>
@@ -75936,27 +75936,27 @@
         <v>银行转取</v>
       </c>
       <c r="K404" t="str">
-        <f t="shared" ref="K404:P404" si="132">"---"</f>
+        <f t="shared" ref="K404:P404" si="133">"---"</f>
         <v>---</v>
       </c>
       <c r="L404" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>---</v>
       </c>
       <c r="M404" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>---</v>
       </c>
       <c r="N404" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>---</v>
       </c>
       <c r="O404" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>---</v>
       </c>
       <c r="P404" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>---</v>
       </c>
     </row>
@@ -76138,11 +76138,11 @@
         <v>6.30</v>
       </c>
       <c r="L407" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="L407:N411" si="134">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="M407" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="134"/>
         <v>0.00</v>
       </c>
       <c r="N407" t="str">
@@ -76204,11 +76204,11 @@
         <v>0.00</v>
       </c>
       <c r="L408" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="134"/>
         <v>0.00</v>
       </c>
       <c r="M408" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="134"/>
         <v>0.00</v>
       </c>
       <c r="N408" t="str">
@@ -76270,11 +76270,11 @@
         <v>0.00</v>
       </c>
       <c r="L409" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="134"/>
         <v>0.00</v>
       </c>
       <c r="M409" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="134"/>
         <v>0.00</v>
       </c>
       <c r="N409" t="str">
@@ -76288,6 +76288,1194 @@
       <c r="P409" t="str">
         <f>"A400948245"</f>
         <v>A400948245</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B410" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C410" t="str">
+        <f>"20191010"</f>
+        <v>20191010</v>
+      </c>
+      <c r="D410" t="str">
+        <f>"8.910"</f>
+        <v>8.910</v>
+      </c>
+      <c r="E410" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F410" t="str">
+        <f>"-17825.35"</f>
+        <v>-17825.35</v>
+      </c>
+      <c r="G410" t="str">
+        <f>"81.22"</f>
+        <v>81.22</v>
+      </c>
+      <c r="H410" t="str">
+        <f>"9000.00"</f>
+        <v>9000.00</v>
+      </c>
+      <c r="I410" t="str">
+        <f>"353"</f>
+        <v>353</v>
+      </c>
+      <c r="J410" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K410" t="str">
+        <f>"5.35"</f>
+        <v>5.35</v>
+      </c>
+      <c r="L410" t="str">
+        <f t="shared" si="134"/>
+        <v>0.00</v>
+      </c>
+      <c r="M410" t="str">
+        <f t="shared" si="134"/>
+        <v>0.00</v>
+      </c>
+      <c r="N410" t="str">
+        <f t="shared" si="134"/>
+        <v>0.00</v>
+      </c>
+      <c r="O410" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P410" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B411" t="str">
+        <f>"米奥兰特"</f>
+        <v>米奥兰特</v>
+      </c>
+      <c r="C411" t="str">
+        <f>"20191010"</f>
+        <v>20191010</v>
+      </c>
+      <c r="D411" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E411" t="str">
+        <f>"20.00"</f>
+        <v>20.00</v>
+      </c>
+      <c r="F411" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G411" t="str">
+        <f>"81.22"</f>
+        <v>81.22</v>
+      </c>
+      <c r="H411" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I411" t="str">
+        <f>"351"</f>
+        <v>351</v>
+      </c>
+      <c r="J411" t="str">
+        <f>"申购配号(米奥兰特)"</f>
+        <v>申购配号(米奥兰特)</v>
+      </c>
+      <c r="K411" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L411" t="str">
+        <f t="shared" si="134"/>
+        <v>0.00</v>
+      </c>
+      <c r="M411" t="str">
+        <f t="shared" si="134"/>
+        <v>0.00</v>
+      </c>
+      <c r="N411" t="str">
+        <f t="shared" si="134"/>
+        <v>0.00</v>
+      </c>
+      <c r="O411" t="str">
+        <f>"300795"</f>
+        <v>300795</v>
+      </c>
+      <c r="P411" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B412" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C412" t="str">
+        <f>"20191014"</f>
+        <v>20191014</v>
+      </c>
+      <c r="D412" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E412" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F412" t="str">
+        <f>"40000.00"</f>
+        <v>40000.00</v>
+      </c>
+      <c r="G412" t="str">
+        <f>"40081.22"</f>
+        <v>40081.22</v>
+      </c>
+      <c r="H412" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I412" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J412" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K412" t="str">
+        <f t="shared" ref="K412:P412" si="135">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L412" t="str">
+        <f t="shared" si="135"/>
+        <v>---</v>
+      </c>
+      <c r="M412" t="str">
+        <f t="shared" si="135"/>
+        <v>---</v>
+      </c>
+      <c r="N412" t="str">
+        <f t="shared" si="135"/>
+        <v>---</v>
+      </c>
+      <c r="O412" t="str">
+        <f t="shared" si="135"/>
+        <v>---</v>
+      </c>
+      <c r="P412" t="str">
+        <f t="shared" si="135"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B413" t="str">
+        <f>"华菱精工"</f>
+        <v>华菱精工</v>
+      </c>
+      <c r="C413" t="str">
+        <f>"20191014"</f>
+        <v>20191014</v>
+      </c>
+      <c r="D413" t="str">
+        <f>"12.984"</f>
+        <v>12.984</v>
+      </c>
+      <c r="E413" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F413" t="str">
+        <f>"-25975.31"</f>
+        <v>-25975.31</v>
+      </c>
+      <c r="G413" t="str">
+        <f>"14105.91"</f>
+        <v>14105.91</v>
+      </c>
+      <c r="H413" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I413" t="str">
+        <f>"361"</f>
+        <v>361</v>
+      </c>
+      <c r="J413" t="str">
+        <f>"证券买入(华菱精工)"</f>
+        <v>证券买入(华菱精工)</v>
+      </c>
+      <c r="K413" t="str">
+        <f>"7.79"</f>
+        <v>7.79</v>
+      </c>
+      <c r="L413" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M413" t="str">
+        <f>"0.52"</f>
+        <v>0.52</v>
+      </c>
+      <c r="N413" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O413" t="str">
+        <f>"603356"</f>
+        <v>603356</v>
+      </c>
+      <c r="P413" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B414" t="str">
+        <f>"渝农配号"</f>
+        <v>渝农配号</v>
+      </c>
+      <c r="C414" t="str">
+        <f>"20191014"</f>
+        <v>20191014</v>
+      </c>
+      <c r="D414" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E414" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F414" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G414" t="str">
+        <f>"14105.91"</f>
+        <v>14105.91</v>
+      </c>
+      <c r="H414" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I414" t="str">
+        <f>"368"</f>
+        <v>368</v>
+      </c>
+      <c r="J414" t="str">
+        <f>"申购配号(渝农配号)"</f>
+        <v>申购配号(渝农配号)</v>
+      </c>
+      <c r="K414" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L414" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M414" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N414" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O414" t="str">
+        <f>"791077"</f>
+        <v>791077</v>
+      </c>
+      <c r="P414" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B415" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C415" t="str">
+        <f>"20191014"</f>
+        <v>20191014</v>
+      </c>
+      <c r="D415" t="str">
+        <f>"9.090"</f>
+        <v>9.090</v>
+      </c>
+      <c r="E415" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="F415" t="str">
+        <f>"-13640.00"</f>
+        <v>-13640.00</v>
+      </c>
+      <c r="G415" t="str">
+        <f>"465.91"</f>
+        <v>465.91</v>
+      </c>
+      <c r="H415" t="str">
+        <f>"10500.00"</f>
+        <v>10500.00</v>
+      </c>
+      <c r="I415" t="str">
+        <f>"365"</f>
+        <v>365</v>
+      </c>
+      <c r="J415" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K415" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L415" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M415" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N415" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O415" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P415" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B416" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C416" t="str">
+        <f>"20191014"</f>
+        <v>20191014</v>
+      </c>
+      <c r="D416" t="str">
+        <f>"9.080"</f>
+        <v>9.080</v>
+      </c>
+      <c r="E416" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F416" t="str">
+        <f>"18136.39"</f>
+        <v>18136.39</v>
+      </c>
+      <c r="G416" t="str">
+        <f>"18602.30"</f>
+        <v>18602.30</v>
+      </c>
+      <c r="H416" t="str">
+        <f>"8500.00"</f>
+        <v>8500.00</v>
+      </c>
+      <c r="I416" t="str">
+        <f>"370"</f>
+        <v>370</v>
+      </c>
+      <c r="J416" t="str">
+        <f>"证券卖出(中海达)"</f>
+        <v>证券卖出(中海达)</v>
+      </c>
+      <c r="K416" t="str">
+        <f>"5.45"</f>
+        <v>5.45</v>
+      </c>
+      <c r="L416" t="str">
+        <f>"18.16"</f>
+        <v>18.16</v>
+      </c>
+      <c r="M416" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N416" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O416" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P416" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B417" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C417" t="str">
+        <f>"20191015"</f>
+        <v>20191015</v>
+      </c>
+      <c r="D417" t="str">
+        <f>"20.420"</f>
+        <v>20.420</v>
+      </c>
+      <c r="E417" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F417" t="str">
+        <f>"-10215.20"</f>
+        <v>-10215.20</v>
+      </c>
+      <c r="G417" t="str">
+        <f>"8387.10"</f>
+        <v>8387.10</v>
+      </c>
+      <c r="H417" t="str">
+        <f>"4100.00"</f>
+        <v>4100.00</v>
+      </c>
+      <c r="I417" t="str">
+        <f>"377"</f>
+        <v>377</v>
+      </c>
+      <c r="J417" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K417" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L417" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M417" t="str">
+        <f>"0.20"</f>
+        <v>0.20</v>
+      </c>
+      <c r="N417" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O417" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P417" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B418" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" ref="C418:C423" si="136">"20191016"</f>
+        <v>20191016</v>
+      </c>
+      <c r="D418" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E418" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F418" t="str">
+        <f>"20000.00"</f>
+        <v>20000.00</v>
+      </c>
+      <c r="G418" t="str">
+        <f>"28387.10"</f>
+        <v>28387.10</v>
+      </c>
+      <c r="H418" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I418" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J418" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K418" t="str">
+        <f t="shared" ref="K418:P418" si="137">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L418" t="str">
+        <f t="shared" si="137"/>
+        <v>---</v>
+      </c>
+      <c r="M418" t="str">
+        <f t="shared" si="137"/>
+        <v>---</v>
+      </c>
+      <c r="N418" t="str">
+        <f t="shared" si="137"/>
+        <v>---</v>
+      </c>
+      <c r="O418" t="str">
+        <f t="shared" si="137"/>
+        <v>---</v>
+      </c>
+      <c r="P418" t="str">
+        <f t="shared" si="137"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B419" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="136"/>
+        <v>20191016</v>
+      </c>
+      <c r="D419" t="str">
+        <f>"20.240"</f>
+        <v>20.240</v>
+      </c>
+      <c r="E419" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F419" t="str">
+        <f>"10104.69"</f>
+        <v>10104.69</v>
+      </c>
+      <c r="G419" t="str">
+        <f>"38491.79"</f>
+        <v>38491.79</v>
+      </c>
+      <c r="H419" t="str">
+        <f>"3600.00"</f>
+        <v>3600.00</v>
+      </c>
+      <c r="I419" t="str">
+        <f>"389"</f>
+        <v>389</v>
+      </c>
+      <c r="J419" t="str">
+        <f>"证券卖出(中通国脉)"</f>
+        <v>证券卖出(中通国脉)</v>
+      </c>
+      <c r="K419" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L419" t="str">
+        <f>"10.11"</f>
+        <v>10.11</v>
+      </c>
+      <c r="M419" t="str">
+        <f>"0.20"</f>
+        <v>0.20</v>
+      </c>
+      <c r="N419" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O419" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P419" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B420" t="str">
+        <f>"华菱精工"</f>
+        <v>华菱精工</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="136"/>
+        <v>20191016</v>
+      </c>
+      <c r="D420" t="str">
+        <f>"12.910"</f>
+        <v>12.910</v>
+      </c>
+      <c r="E420" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F420" t="str">
+        <f>"-25828.27"</f>
+        <v>-25828.27</v>
+      </c>
+      <c r="G420" t="str">
+        <f>"12663.52"</f>
+        <v>12663.52</v>
+      </c>
+      <c r="H420" t="str">
+        <f>"4000.00"</f>
+        <v>4000.00</v>
+      </c>
+      <c r="I420" t="str">
+        <f>"394"</f>
+        <v>394</v>
+      </c>
+      <c r="J420" t="str">
+        <f>"证券买入(华菱精工)"</f>
+        <v>证券买入(华菱精工)</v>
+      </c>
+      <c r="K420" t="str">
+        <f>"7.75"</f>
+        <v>7.75</v>
+      </c>
+      <c r="L420" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M420" t="str">
+        <f>"0.52"</f>
+        <v>0.52</v>
+      </c>
+      <c r="N420" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O420" t="str">
+        <f>"603356"</f>
+        <v>603356</v>
+      </c>
+      <c r="P420" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B421" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="136"/>
+        <v>20191016</v>
+      </c>
+      <c r="D421" t="str">
+        <f>"7.730"</f>
+        <v>7.730</v>
+      </c>
+      <c r="E421" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="F421" t="str">
+        <f>"-11600.00"</f>
+        <v>-11600.00</v>
+      </c>
+      <c r="G421" t="str">
+        <f>"1063.52"</f>
+        <v>1063.52</v>
+      </c>
+      <c r="H421" t="str">
+        <f>"13500.00"</f>
+        <v>13500.00</v>
+      </c>
+      <c r="I421" t="str">
+        <f>"386"</f>
+        <v>386</v>
+      </c>
+      <c r="J421" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K421" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L421" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M421" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N421" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O421" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P421" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B422" t="str">
+        <f>"豪尔赛"</f>
+        <v>豪尔赛</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="136"/>
+        <v>20191016</v>
+      </c>
+      <c r="D422" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E422" t="str">
+        <f>"23.00"</f>
+        <v>23.00</v>
+      </c>
+      <c r="F422" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G422" t="str">
+        <f>"1063.52"</f>
+        <v>1063.52</v>
+      </c>
+      <c r="H422" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I422" t="str">
+        <f>"384"</f>
+        <v>384</v>
+      </c>
+      <c r="J422" t="str">
+        <f>"申购配号(豪尔赛)"</f>
+        <v>申购配号(豪尔赛)</v>
+      </c>
+      <c r="K422" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L422" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M422" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N422" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O422" t="str">
+        <f>"002963"</f>
+        <v>002963</v>
+      </c>
+      <c r="P422" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B423" t="str">
+        <f>"祥鑫科技"</f>
+        <v>祥鑫科技</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="136"/>
+        <v>20191016</v>
+      </c>
+      <c r="D423" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E423" t="str">
+        <f>"23.00"</f>
+        <v>23.00</v>
+      </c>
+      <c r="F423" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G423" t="str">
+        <f>"1063.52"</f>
+        <v>1063.52</v>
+      </c>
+      <c r="H423" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I423" t="str">
+        <f>"382"</f>
+        <v>382</v>
+      </c>
+      <c r="J423" t="str">
+        <f>"申购配号(祥鑫科技)"</f>
+        <v>申购配号(祥鑫科技)</v>
+      </c>
+      <c r="K423" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L423" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M423" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N423" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O423" t="str">
+        <f>"002965"</f>
+        <v>002965</v>
+      </c>
+      <c r="P423" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B424" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C424" t="str">
+        <f>"20191017"</f>
+        <v>20191017</v>
+      </c>
+      <c r="D424" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E424" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F424" t="str">
+        <f>"20000.00"</f>
+        <v>20000.00</v>
+      </c>
+      <c r="G424" t="str">
+        <f>"21063.52"</f>
+        <v>21063.52</v>
+      </c>
+      <c r="H424" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I424" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J424" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K424" t="str">
+        <f t="shared" ref="K424:P424" si="138">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L424" t="str">
+        <f t="shared" si="138"/>
+        <v>---</v>
+      </c>
+      <c r="M424" t="str">
+        <f t="shared" si="138"/>
+        <v>---</v>
+      </c>
+      <c r="N424" t="str">
+        <f t="shared" si="138"/>
+        <v>---</v>
+      </c>
+      <c r="O424" t="str">
+        <f t="shared" si="138"/>
+        <v>---</v>
+      </c>
+      <c r="P424" t="str">
+        <f t="shared" si="138"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B425" t="str">
+        <f>"麒盛配号"</f>
+        <v>麒盛配号</v>
+      </c>
+      <c r="C425" t="str">
+        <f>"20191017"</f>
+        <v>20191017</v>
+      </c>
+      <c r="D425" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E425" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F425" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G425" t="str">
+        <f>"21063.52"</f>
+        <v>21063.52</v>
+      </c>
+      <c r="H425" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I425" t="str">
+        <f>"410"</f>
+        <v>410</v>
+      </c>
+      <c r="J425" t="str">
+        <f>"申购配号(麒盛配号)"</f>
+        <v>申购配号(麒盛配号)</v>
+      </c>
+      <c r="K425" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L425" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M425" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N425" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O425" t="str">
+        <f>"736610"</f>
+        <v>736610</v>
+      </c>
+      <c r="P425" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B426" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C426" t="str">
+        <f>"20191017"</f>
+        <v>20191017</v>
+      </c>
+      <c r="D426" t="str">
+        <f>"7.420"</f>
+        <v>7.420</v>
+      </c>
+      <c r="E426" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="F426" t="str">
+        <f>"-11135.00"</f>
+        <v>-11135.00</v>
+      </c>
+      <c r="G426" t="str">
+        <f>"9928.52"</f>
+        <v>9928.52</v>
+      </c>
+      <c r="H426" t="str">
+        <f>"15000.00"</f>
+        <v>15000.00</v>
+      </c>
+      <c r="I426" t="str">
+        <f>"413"</f>
+        <v>413</v>
+      </c>
+      <c r="J426" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K426" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L426" t="str">
+        <f t="shared" ref="L426:N427" si="139">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M426" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="N426" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="O426" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P426" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B427" t="str">
+        <f>"左江科技"</f>
+        <v>左江科技</v>
+      </c>
+      <c r="C427" t="str">
+        <f>"20191017"</f>
+        <v>20191017</v>
+      </c>
+      <c r="D427" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E427" t="str">
+        <f>"24.00"</f>
+        <v>24.00</v>
+      </c>
+      <c r="F427" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G427" t="str">
+        <f>"9928.52"</f>
+        <v>9928.52</v>
+      </c>
+      <c r="H427" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I427" t="str">
+        <f>"408"</f>
+        <v>408</v>
+      </c>
+      <c r="J427" t="str">
+        <f>"申购配号(左江科技)"</f>
+        <v>申购配号(左江科技)</v>
+      </c>
+      <c r="K427" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L427" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="M427" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="N427" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="O427" t="str">
+        <f>"300799"</f>
+        <v>300799</v>
+      </c>
+      <c r="P427" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/origin.xlsx
+++ b/cal_profit/origin.xlsx
@@ -49301,10 +49301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P427"/>
+  <dimension ref="A1:P459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="J432" sqref="J432"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="J451" sqref="J451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -74576,7 +74576,7 @@
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
-        <f t="shared" ref="A384:A427" si="125">"人民币"</f>
+        <f t="shared" ref="A384:A447" si="125">"人民币"</f>
         <v>人民币</v>
       </c>
       <c r="B384" t="str">
@@ -77392,7 +77392,7 @@
         <v>5.00</v>
       </c>
       <c r="L426" t="str">
-        <f t="shared" ref="L426:N427" si="139">"0.00"</f>
+        <f t="shared" ref="L426:N428" si="139">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="M426" t="str">
@@ -77474,6 +77474,2118 @@
         <v>300799</v>
       </c>
       <c r="P427" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B428" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C428" t="str">
+        <f>"20191021"</f>
+        <v>20191021</v>
+      </c>
+      <c r="D428" t="str">
+        <f>"8.320"</f>
+        <v>8.320</v>
+      </c>
+      <c r="E428" t="str">
+        <f>"1100.00"</f>
+        <v>1100.00</v>
+      </c>
+      <c r="F428" t="str">
+        <f>"-9157.00"</f>
+        <v>-9157.00</v>
+      </c>
+      <c r="G428" t="str">
+        <f>"771.52"</f>
+        <v>771.52</v>
+      </c>
+      <c r="H428" t="str">
+        <f>"9600.00"</f>
+        <v>9600.00</v>
+      </c>
+      <c r="I428" t="str">
+        <f>"422"</f>
+        <v>422</v>
+      </c>
+      <c r="J428" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K428" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L428" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="M428" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="N428" t="str">
+        <f t="shared" si="139"/>
+        <v>0.00</v>
+      </c>
+      <c r="O428" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P428" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B429" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C429" t="str">
+        <f>"20191021"</f>
+        <v>20191021</v>
+      </c>
+      <c r="D429" t="str">
+        <f>"8.400"</f>
+        <v>8.400</v>
+      </c>
+      <c r="E429" t="str">
+        <f>"-1100.00"</f>
+        <v>-1100.00</v>
+      </c>
+      <c r="F429" t="str">
+        <f>"9225.76"</f>
+        <v>9225.76</v>
+      </c>
+      <c r="G429" t="str">
+        <f>"9997.28"</f>
+        <v>9997.28</v>
+      </c>
+      <c r="H429" t="str">
+        <f>"8500.00"</f>
+        <v>8500.00</v>
+      </c>
+      <c r="I429" t="str">
+        <f>"425"</f>
+        <v>425</v>
+      </c>
+      <c r="J429" t="str">
+        <f>"证券卖出(中海达)"</f>
+        <v>证券卖出(中海达)</v>
+      </c>
+      <c r="K429" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L429" t="str">
+        <f>"9.24"</f>
+        <v>9.24</v>
+      </c>
+      <c r="M429" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N429" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O429" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P429" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B430" t="str">
+        <f>"华菱精工"</f>
+        <v>华菱精工</v>
+      </c>
+      <c r="C430" t="str">
+        <f>"20191022"</f>
+        <v>20191022</v>
+      </c>
+      <c r="D430" t="str">
+        <f>"13.430"</f>
+        <v>13.430</v>
+      </c>
+      <c r="E430" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F430" t="str">
+        <f>"26824.54"</f>
+        <v>26824.54</v>
+      </c>
+      <c r="G430" t="str">
+        <f>"36821.82"</f>
+        <v>36821.82</v>
+      </c>
+      <c r="H430" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I430" t="str">
+        <f>"16"</f>
+        <v>16</v>
+      </c>
+      <c r="J430" t="str">
+        <f>"证券卖出(华菱精工)"</f>
+        <v>证券卖出(华菱精工)</v>
+      </c>
+      <c r="K430" t="str">
+        <f>"8.06"</f>
+        <v>8.06</v>
+      </c>
+      <c r="L430" t="str">
+        <f>"26.86"</f>
+        <v>26.86</v>
+      </c>
+      <c r="M430" t="str">
+        <f>"0.54"</f>
+        <v>0.54</v>
+      </c>
+      <c r="N430" t="str">
+        <f t="shared" ref="N430:N443" si="140">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O430" t="str">
+        <f>"603356"</f>
+        <v>603356</v>
+      </c>
+      <c r="P430" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B431" t="str">
+        <f>"华菱精工"</f>
+        <v>华菱精工</v>
+      </c>
+      <c r="C431" t="str">
+        <f>"20191022"</f>
+        <v>20191022</v>
+      </c>
+      <c r="D431" t="str">
+        <f>"13.440"</f>
+        <v>13.440</v>
+      </c>
+      <c r="E431" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F431" t="str">
+        <f>"26844.52"</f>
+        <v>26844.52</v>
+      </c>
+      <c r="G431" t="str">
+        <f>"63666.34"</f>
+        <v>63666.34</v>
+      </c>
+      <c r="H431" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I431" t="str">
+        <f>"19"</f>
+        <v>19</v>
+      </c>
+      <c r="J431" t="str">
+        <f>"证券卖出(华菱精工)"</f>
+        <v>证券卖出(华菱精工)</v>
+      </c>
+      <c r="K431" t="str">
+        <f>"8.07"</f>
+        <v>8.07</v>
+      </c>
+      <c r="L431" t="str">
+        <f>"26.87"</f>
+        <v>26.87</v>
+      </c>
+      <c r="M431" t="str">
+        <f>"0.54"</f>
+        <v>0.54</v>
+      </c>
+      <c r="N431" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O431" t="str">
+        <f>"603356"</f>
+        <v>603356</v>
+      </c>
+      <c r="P431" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B432" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C432" t="str">
+        <f>"20191022"</f>
+        <v>20191022</v>
+      </c>
+      <c r="D432" t="str">
+        <f>"7.550"</f>
+        <v>7.550</v>
+      </c>
+      <c r="E432" t="str">
+        <f>"-4500.00"</f>
+        <v>-4500.00</v>
+      </c>
+      <c r="F432" t="str">
+        <f>"33930.82"</f>
+        <v>33930.82</v>
+      </c>
+      <c r="G432" t="str">
+        <f>"97597.16"</f>
+        <v>97597.16</v>
+      </c>
+      <c r="H432" t="str">
+        <f>"10500.00"</f>
+        <v>10500.00</v>
+      </c>
+      <c r="I432" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="J432" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K432" t="str">
+        <f>"10.20"</f>
+        <v>10.20</v>
+      </c>
+      <c r="L432" t="str">
+        <f>"33.98"</f>
+        <v>33.98</v>
+      </c>
+      <c r="M432" t="str">
+        <f t="shared" ref="M432:M438" si="141">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N432" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O432" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P432" t="str">
+        <f t="shared" ref="P432:P438" si="142">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B433" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C433" t="str">
+        <f>"20191022"</f>
+        <v>20191022</v>
+      </c>
+      <c r="D433" t="str">
+        <f>"8.400"</f>
+        <v>8.400</v>
+      </c>
+      <c r="E433" t="str">
+        <f>"1100.00"</f>
+        <v>1100.00</v>
+      </c>
+      <c r="F433" t="str">
+        <f>"-9245.00"</f>
+        <v>-9245.00</v>
+      </c>
+      <c r="G433" t="str">
+        <f>"88352.16"</f>
+        <v>88352.16</v>
+      </c>
+      <c r="H433" t="str">
+        <f>"9600.00"</f>
+        <v>9600.00</v>
+      </c>
+      <c r="I433" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="J433" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K433" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L433" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M433" t="str">
+        <f t="shared" si="141"/>
+        <v>0.00</v>
+      </c>
+      <c r="N433" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O433" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P433" t="str">
+        <f t="shared" si="142"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B434" t="str">
+        <f>"钢研纳克"</f>
+        <v>钢研纳克</v>
+      </c>
+      <c r="C434" t="str">
+        <f>"20191022"</f>
+        <v>20191022</v>
+      </c>
+      <c r="D434" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E434" t="str">
+        <f>"27.00"</f>
+        <v>27.00</v>
+      </c>
+      <c r="F434" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G434" t="str">
+        <f>"88352.16"</f>
+        <v>88352.16</v>
+      </c>
+      <c r="H434" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I434" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="J434" t="str">
+        <f>"申购配号(钢研纳克)"</f>
+        <v>申购配号(钢研纳克)</v>
+      </c>
+      <c r="K434" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L434" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M434" t="str">
+        <f t="shared" si="141"/>
+        <v>0.00</v>
+      </c>
+      <c r="N434" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O434" t="str">
+        <f>"300797"</f>
+        <v>300797</v>
+      </c>
+      <c r="P434" t="str">
+        <f t="shared" si="142"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B435" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C435" t="str">
+        <f>"20191023"</f>
+        <v>20191023</v>
+      </c>
+      <c r="D435" t="str">
+        <f>"7.550"</f>
+        <v>7.550</v>
+      </c>
+      <c r="E435" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="F435" t="str">
+        <f>"-18880.66"</f>
+        <v>-18880.66</v>
+      </c>
+      <c r="G435" t="str">
+        <f>"69471.50"</f>
+        <v>69471.50</v>
+      </c>
+      <c r="H435" t="str">
+        <f>"13000.00"</f>
+        <v>13000.00</v>
+      </c>
+      <c r="I435" t="str">
+        <f>"29"</f>
+        <v>29</v>
+      </c>
+      <c r="J435" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K435" t="str">
+        <f>"5.66"</f>
+        <v>5.66</v>
+      </c>
+      <c r="L435" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M435" t="str">
+        <f t="shared" si="141"/>
+        <v>0.00</v>
+      </c>
+      <c r="N435" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O435" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P435" t="str">
+        <f t="shared" si="142"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B436" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C436" t="str">
+        <f>"20191023"</f>
+        <v>20191023</v>
+      </c>
+      <c r="D436" t="str">
+        <f>"7.800"</f>
+        <v>7.800</v>
+      </c>
+      <c r="E436" t="str">
+        <f>"-4000.00"</f>
+        <v>-4000.00</v>
+      </c>
+      <c r="F436" t="str">
+        <f>"31159.44"</f>
+        <v>31159.44</v>
+      </c>
+      <c r="G436" t="str">
+        <f>"100630.94"</f>
+        <v>100630.94</v>
+      </c>
+      <c r="H436" t="str">
+        <f>"9000.00"</f>
+        <v>9000.00</v>
+      </c>
+      <c r="I436" t="str">
+        <f>"35"</f>
+        <v>35</v>
+      </c>
+      <c r="J436" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K436" t="str">
+        <f>"9.36"</f>
+        <v>9.36</v>
+      </c>
+      <c r="L436" t="str">
+        <f>"31.20"</f>
+        <v>31.20</v>
+      </c>
+      <c r="M436" t="str">
+        <f t="shared" si="141"/>
+        <v>0.00</v>
+      </c>
+      <c r="N436" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O436" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P436" t="str">
+        <f t="shared" si="142"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B437" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C437" t="str">
+        <f>"20191023"</f>
+        <v>20191023</v>
+      </c>
+      <c r="D437" t="str">
+        <f>"7.680"</f>
+        <v>7.680</v>
+      </c>
+      <c r="E437" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="F437" t="str">
+        <f>"-23046.91"</f>
+        <v>-23046.91</v>
+      </c>
+      <c r="G437" t="str">
+        <f>"77584.03"</f>
+        <v>77584.03</v>
+      </c>
+      <c r="H437" t="str">
+        <f>"12000.00"</f>
+        <v>12000.00</v>
+      </c>
+      <c r="I437" t="str">
+        <f>"38"</f>
+        <v>38</v>
+      </c>
+      <c r="J437" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K437" t="str">
+        <f>"6.91"</f>
+        <v>6.91</v>
+      </c>
+      <c r="L437" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M437" t="str">
+        <f t="shared" si="141"/>
+        <v>0.00</v>
+      </c>
+      <c r="N437" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O437" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P437" t="str">
+        <f t="shared" si="142"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B438" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C438" t="str">
+        <f>"20191023"</f>
+        <v>20191023</v>
+      </c>
+      <c r="D438" t="str">
+        <f>"8.400"</f>
+        <v>8.400</v>
+      </c>
+      <c r="E438" t="str">
+        <f>"1400.00"</f>
+        <v>1400.00</v>
+      </c>
+      <c r="F438" t="str">
+        <f>"-11765.00"</f>
+        <v>-11765.00</v>
+      </c>
+      <c r="G438" t="str">
+        <f>"65819.03"</f>
+        <v>65819.03</v>
+      </c>
+      <c r="H438" t="str">
+        <f>"11000.00"</f>
+        <v>11000.00</v>
+      </c>
+      <c r="I438" t="str">
+        <f>"43"</f>
+        <v>43</v>
+      </c>
+      <c r="J438" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K438" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L438" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M438" t="str">
+        <f t="shared" si="141"/>
+        <v>0.00</v>
+      </c>
+      <c r="N438" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O438" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P438" t="str">
+        <f t="shared" si="142"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B439" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C439" t="str">
+        <f>"20191024"</f>
+        <v>20191024</v>
+      </c>
+      <c r="D439" t="str">
+        <f>"19.100"</f>
+        <v>19.100</v>
+      </c>
+      <c r="E439" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F439" t="str">
+        <f>"-9555.19"</f>
+        <v>-9555.19</v>
+      </c>
+      <c r="G439" t="str">
+        <f>"56263.84"</f>
+        <v>56263.84</v>
+      </c>
+      <c r="H439" t="str">
+        <f>"4100.00"</f>
+        <v>4100.00</v>
+      </c>
+      <c r="I439" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="J439" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K439" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L439" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M439" t="str">
+        <f>"0.19"</f>
+        <v>0.19</v>
+      </c>
+      <c r="N439" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O439" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P439" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B440" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C440" t="str">
+        <f>"20191024"</f>
+        <v>20191024</v>
+      </c>
+      <c r="D440" t="str">
+        <f>"18.900"</f>
+        <v>18.900</v>
+      </c>
+      <c r="E440" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F440" t="str">
+        <f>"9435.36"</f>
+        <v>9435.36</v>
+      </c>
+      <c r="G440" t="str">
+        <f>"65699.20"</f>
+        <v>65699.20</v>
+      </c>
+      <c r="H440" t="str">
+        <f>"3600.00"</f>
+        <v>3600.00</v>
+      </c>
+      <c r="I440" t="str">
+        <f>"67"</f>
+        <v>67</v>
+      </c>
+      <c r="J440" t="str">
+        <f>"证券卖出(中通国脉)"</f>
+        <v>证券卖出(中通国脉)</v>
+      </c>
+      <c r="K440" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L440" t="str">
+        <f>"9.45"</f>
+        <v>9.45</v>
+      </c>
+      <c r="M440" t="str">
+        <f>"0.19"</f>
+        <v>0.19</v>
+      </c>
+      <c r="N440" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O440" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P440" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B441" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C441" t="str">
+        <f>"20191024"</f>
+        <v>20191024</v>
+      </c>
+      <c r="D441" t="str">
+        <f>"7.530"</f>
+        <v>7.530</v>
+      </c>
+      <c r="E441" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F441" t="str">
+        <f>"-15065.00"</f>
+        <v>-15065.00</v>
+      </c>
+      <c r="G441" t="str">
+        <f>"50634.20"</f>
+        <v>50634.20</v>
+      </c>
+      <c r="H441" t="str">
+        <f>"14000.00"</f>
+        <v>14000.00</v>
+      </c>
+      <c r="I441" t="str">
+        <f>"54"</f>
+        <v>54</v>
+      </c>
+      <c r="J441" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K441" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L441" t="str">
+        <f t="shared" ref="L441:M443" si="143">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M441" t="str">
+        <f t="shared" si="143"/>
+        <v>0.00</v>
+      </c>
+      <c r="N441" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O441" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P441" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B442" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C442" t="str">
+        <f>"20191024"</f>
+        <v>20191024</v>
+      </c>
+      <c r="D442" t="str">
+        <f>"7.380"</f>
+        <v>7.380</v>
+      </c>
+      <c r="E442" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="F442" t="str">
+        <f>"-22146.64"</f>
+        <v>-22146.64</v>
+      </c>
+      <c r="G442" t="str">
+        <f>"28487.56"</f>
+        <v>28487.56</v>
+      </c>
+      <c r="H442" t="str">
+        <f>"17000.00"</f>
+        <v>17000.00</v>
+      </c>
+      <c r="I442" t="str">
+        <f>"62"</f>
+        <v>62</v>
+      </c>
+      <c r="J442" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K442" t="str">
+        <f>"6.64"</f>
+        <v>6.64</v>
+      </c>
+      <c r="L442" t="str">
+        <f t="shared" si="143"/>
+        <v>0.00</v>
+      </c>
+      <c r="M442" t="str">
+        <f t="shared" si="143"/>
+        <v>0.00</v>
+      </c>
+      <c r="N442" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O442" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P442" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B443" t="str">
+        <f>"力合科技"</f>
+        <v>力合科技</v>
+      </c>
+      <c r="C443" t="str">
+        <f>"20191024"</f>
+        <v>20191024</v>
+      </c>
+      <c r="D443" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E443" t="str">
+        <f>"29.00"</f>
+        <v>29.00</v>
+      </c>
+      <c r="F443" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G443" t="str">
+        <f>"28487.56"</f>
+        <v>28487.56</v>
+      </c>
+      <c r="H443" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I443" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="J443" t="str">
+        <f>"申购配号(力合科技)"</f>
+        <v>申购配号(力合科技)</v>
+      </c>
+      <c r="K443" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L443" t="str">
+        <f t="shared" si="143"/>
+        <v>0.00</v>
+      </c>
+      <c r="M443" t="str">
+        <f t="shared" si="143"/>
+        <v>0.00</v>
+      </c>
+      <c r="N443" t="str">
+        <f t="shared" si="140"/>
+        <v>0.00</v>
+      </c>
+      <c r="O443" t="str">
+        <f>"300800"</f>
+        <v>300800</v>
+      </c>
+      <c r="P443" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B444" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C444" t="str">
+        <f>"20191025"</f>
+        <v>20191025</v>
+      </c>
+      <c r="D444" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E444" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F444" t="str">
+        <f>"-10000.00"</f>
+        <v>-10000.00</v>
+      </c>
+      <c r="G444" t="str">
+        <f>"18487.56"</f>
+        <v>18487.56</v>
+      </c>
+      <c r="H444" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I444" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J444" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K444" t="str">
+        <f t="shared" ref="K444:P444" si="144">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L444" t="str">
+        <f t="shared" si="144"/>
+        <v>---</v>
+      </c>
+      <c r="M444" t="str">
+        <f t="shared" si="144"/>
+        <v>---</v>
+      </c>
+      <c r="N444" t="str">
+        <f t="shared" si="144"/>
+        <v>---</v>
+      </c>
+      <c r="O444" t="str">
+        <f t="shared" si="144"/>
+        <v>---</v>
+      </c>
+      <c r="P444" t="str">
+        <f t="shared" si="144"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B445" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C445" t="str">
+        <f>"20191025"</f>
+        <v>20191025</v>
+      </c>
+      <c r="D445" t="str">
+        <f>"7.280"</f>
+        <v>7.280</v>
+      </c>
+      <c r="E445" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F445" t="str">
+        <f>"-14565.00"</f>
+        <v>-14565.00</v>
+      </c>
+      <c r="G445" t="str">
+        <f>"3922.56"</f>
+        <v>3922.56</v>
+      </c>
+      <c r="H445" t="str">
+        <f>"19000.00"</f>
+        <v>19000.00</v>
+      </c>
+      <c r="I445" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="J445" t="str">
+        <f>"证券买入(顺灏股份)"</f>
+        <v>证券买入(顺灏股份)</v>
+      </c>
+      <c r="K445" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L445" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M445" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N445" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O445" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P445" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B446" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C446" t="str">
+        <f>"20191025"</f>
+        <v>20191025</v>
+      </c>
+      <c r="D446" t="str">
+        <f>"7.600"</f>
+        <v>7.600</v>
+      </c>
+      <c r="E446" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F446" t="str">
+        <f>"15179.80"</f>
+        <v>15179.80</v>
+      </c>
+      <c r="G446" t="str">
+        <f>"19102.36"</f>
+        <v>19102.36</v>
+      </c>
+      <c r="H446" t="str">
+        <f>"17000.00"</f>
+        <v>17000.00</v>
+      </c>
+      <c r="I446" t="str">
+        <f>"81"</f>
+        <v>81</v>
+      </c>
+      <c r="J446" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K446" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L446" t="str">
+        <f>"15.20"</f>
+        <v>15.20</v>
+      </c>
+      <c r="M446" t="str">
+        <f t="shared" ref="M446:N459" si="145">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N446" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O446" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P446" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f t="shared" si="125"/>
+        <v>人民币</v>
+      </c>
+      <c r="B447" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C447" t="str">
+        <f>"20191028"</f>
+        <v>20191028</v>
+      </c>
+      <c r="D447" t="str">
+        <f>"7.710"</f>
+        <v>7.710</v>
+      </c>
+      <c r="E447" t="str">
+        <f>"-3000.00"</f>
+        <v>-3000.00</v>
+      </c>
+      <c r="F447" t="str">
+        <f>"23099.93"</f>
+        <v>23099.93</v>
+      </c>
+      <c r="G447" t="str">
+        <f>"42202.29"</f>
+        <v>42202.29</v>
+      </c>
+      <c r="H447" t="str">
+        <f>"14000.00"</f>
+        <v>14000.00</v>
+      </c>
+      <c r="I447" t="str">
+        <f>"86"</f>
+        <v>86</v>
+      </c>
+      <c r="J447" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K447" t="str">
+        <f>"6.94"</f>
+        <v>6.94</v>
+      </c>
+      <c r="L447" t="str">
+        <f>"23.13"</f>
+        <v>23.13</v>
+      </c>
+      <c r="M447" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="N447" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O447" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P447" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f t="shared" ref="A448:A459" si="146">"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B448" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C448" t="str">
+        <f>"20191028"</f>
+        <v>20191028</v>
+      </c>
+      <c r="D448" t="str">
+        <f>"8.580"</f>
+        <v>8.580</v>
+      </c>
+      <c r="E448" t="str">
+        <f>"-2500.00"</f>
+        <v>-2500.00</v>
+      </c>
+      <c r="F448" t="str">
+        <f>"21422.11"</f>
+        <v>21422.11</v>
+      </c>
+      <c r="G448" t="str">
+        <f>"63624.40"</f>
+        <v>63624.40</v>
+      </c>
+      <c r="H448" t="str">
+        <f>"8500.00"</f>
+        <v>8500.00</v>
+      </c>
+      <c r="I448" t="str">
+        <f>"93"</f>
+        <v>93</v>
+      </c>
+      <c r="J448" t="str">
+        <f>"证券卖出(中海达)"</f>
+        <v>证券卖出(中海达)</v>
+      </c>
+      <c r="K448" t="str">
+        <f>"6.44"</f>
+        <v>6.44</v>
+      </c>
+      <c r="L448" t="str">
+        <f>"21.45"</f>
+        <v>21.45</v>
+      </c>
+      <c r="M448" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="N448" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O448" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P448" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B449" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C449" t="str">
+        <f>"20191029"</f>
+        <v>20191029</v>
+      </c>
+      <c r="D449" t="str">
+        <f>"19.840"</f>
+        <v>19.840</v>
+      </c>
+      <c r="E449" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F449" t="str">
+        <f>"-11909.24"</f>
+        <v>-11909.24</v>
+      </c>
+      <c r="G449" t="str">
+        <f>"51715.16"</f>
+        <v>51715.16</v>
+      </c>
+      <c r="H449" t="str">
+        <f>"4200.00"</f>
+        <v>4200.00</v>
+      </c>
+      <c r="I449" t="str">
+        <f>"101"</f>
+        <v>101</v>
+      </c>
+      <c r="J449" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K449" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L449" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M449" t="str">
+        <f>"0.24"</f>
+        <v>0.24</v>
+      </c>
+      <c r="N449" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O449" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P449" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B450" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C450" t="str">
+        <f>"20191029"</f>
+        <v>20191029</v>
+      </c>
+      <c r="D450" t="str">
+        <f>"19.990"</f>
+        <v>19.990</v>
+      </c>
+      <c r="E450" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F450" t="str">
+        <f>"-11999.24"</f>
+        <v>-11999.24</v>
+      </c>
+      <c r="G450" t="str">
+        <f>"39715.92"</f>
+        <v>39715.92</v>
+      </c>
+      <c r="H450" t="str">
+        <f>"4800.00"</f>
+        <v>4800.00</v>
+      </c>
+      <c r="I450" t="str">
+        <f>"115"</f>
+        <v>115</v>
+      </c>
+      <c r="J450" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K450" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L450" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M450" t="str">
+        <f>"0.24"</f>
+        <v>0.24</v>
+      </c>
+      <c r="N450" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O450" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P450" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B451" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C451" t="str">
+        <f>"20191029"</f>
+        <v>20191029</v>
+      </c>
+      <c r="D451" t="str">
+        <f>"8.570"</f>
+        <v>8.570</v>
+      </c>
+      <c r="E451" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F451" t="str">
+        <f>"-17145.14"</f>
+        <v>-17145.14</v>
+      </c>
+      <c r="G451" t="str">
+        <f>"22570.78"</f>
+        <v>22570.78</v>
+      </c>
+      <c r="H451" t="str">
+        <f>"10500.00"</f>
+        <v>10500.00</v>
+      </c>
+      <c r="I451" t="str">
+        <f>"104"</f>
+        <v>104</v>
+      </c>
+      <c r="J451" t="str">
+        <f>"证券买入(中海达)"</f>
+        <v>证券买入(中海达)</v>
+      </c>
+      <c r="K451" t="str">
+        <f>"5.14"</f>
+        <v>5.14</v>
+      </c>
+      <c r="L451" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M451" t="str">
+        <f t="shared" ref="M451:M456" si="147">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N451" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O451" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P451" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B452" t="str">
+        <f>"八方配号"</f>
+        <v>八方配号</v>
+      </c>
+      <c r="C452" t="str">
+        <f>"20191030"</f>
+        <v>20191030</v>
+      </c>
+      <c r="D452" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E452" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F452" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G452" t="str">
+        <f>"22570.78"</f>
+        <v>22570.78</v>
+      </c>
+      <c r="H452" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I452" t="str">
+        <f>"127"</f>
+        <v>127</v>
+      </c>
+      <c r="J452" t="str">
+        <f>"申购配号(八方配号)"</f>
+        <v>申购配号(八方配号)</v>
+      </c>
+      <c r="K452" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L452" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M452" t="str">
+        <f t="shared" si="147"/>
+        <v>0.00</v>
+      </c>
+      <c r="N452" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O452" t="str">
+        <f>"736489"</f>
+        <v>736489</v>
+      </c>
+      <c r="P452" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B453" t="str">
+        <f>"中海达"</f>
+        <v>中海达</v>
+      </c>
+      <c r="C453" t="str">
+        <f>"20191030"</f>
+        <v>20191030</v>
+      </c>
+      <c r="D453" t="str">
+        <f>"8.330"</f>
+        <v>8.330</v>
+      </c>
+      <c r="E453" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F453" t="str">
+        <f>"16638.34"</f>
+        <v>16638.34</v>
+      </c>
+      <c r="G453" t="str">
+        <f>"39209.12"</f>
+        <v>39209.12</v>
+      </c>
+      <c r="H453" t="str">
+        <f>"8500.00"</f>
+        <v>8500.00</v>
+      </c>
+      <c r="I453" t="str">
+        <f>"129"</f>
+        <v>129</v>
+      </c>
+      <c r="J453" t="str">
+        <f>"证券卖出(中海达)"</f>
+        <v>证券卖出(中海达)</v>
+      </c>
+      <c r="K453" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L453" t="str">
+        <f>"16.66"</f>
+        <v>16.66</v>
+      </c>
+      <c r="M453" t="str">
+        <f t="shared" si="147"/>
+        <v>0.00</v>
+      </c>
+      <c r="N453" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O453" t="str">
+        <f>"300177"</f>
+        <v>300177</v>
+      </c>
+      <c r="P453" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B454" t="str">
+        <f>"飞力达"</f>
+        <v>飞力达</v>
+      </c>
+      <c r="C454" t="str">
+        <f>"20191030"</f>
+        <v>20191030</v>
+      </c>
+      <c r="D454" t="str">
+        <f>"7.220"</f>
+        <v>7.220</v>
+      </c>
+      <c r="E454" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F454" t="str">
+        <f>"-14445.00"</f>
+        <v>-14445.00</v>
+      </c>
+      <c r="G454" t="str">
+        <f>"24764.12"</f>
+        <v>24764.12</v>
+      </c>
+      <c r="H454" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I454" t="str">
+        <f>"132"</f>
+        <v>132</v>
+      </c>
+      <c r="J454" t="str">
+        <f>"证券买入(飞力达)"</f>
+        <v>证券买入(飞力达)</v>
+      </c>
+      <c r="K454" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L454" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M454" t="str">
+        <f t="shared" si="147"/>
+        <v>0.00</v>
+      </c>
+      <c r="N454" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O454" t="str">
+        <f>"300240"</f>
+        <v>300240</v>
+      </c>
+      <c r="P454" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B455" t="str">
+        <f>"广电计量"</f>
+        <v>广电计量</v>
+      </c>
+      <c r="C455" t="str">
+        <f>"20191030"</f>
+        <v>20191030</v>
+      </c>
+      <c r="D455" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E455" t="str">
+        <f>"32.00"</f>
+        <v>32.00</v>
+      </c>
+      <c r="F455" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G455" t="str">
+        <f>"24764.12"</f>
+        <v>24764.12</v>
+      </c>
+      <c r="H455" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I455" t="str">
+        <f>"125"</f>
+        <v>125</v>
+      </c>
+      <c r="J455" t="str">
+        <f>"申购配号(广电计量)"</f>
+        <v>申购配号(广电计量)</v>
+      </c>
+      <c r="K455" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L455" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M455" t="str">
+        <f t="shared" si="147"/>
+        <v>0.00</v>
+      </c>
+      <c r="N455" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O455" t="str">
+        <f>"002967"</f>
+        <v>002967</v>
+      </c>
+      <c r="P455" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B456" t="str">
+        <f>"筑博设计"</f>
+        <v>筑博设计</v>
+      </c>
+      <c r="C456" t="str">
+        <f>"20191030"</f>
+        <v>20191030</v>
+      </c>
+      <c r="D456" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E456" t="str">
+        <f>"20.00"</f>
+        <v>20.00</v>
+      </c>
+      <c r="F456" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G456" t="str">
+        <f>"24764.12"</f>
+        <v>24764.12</v>
+      </c>
+      <c r="H456" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I456" t="str">
+        <f>"123"</f>
+        <v>123</v>
+      </c>
+      <c r="J456" t="str">
+        <f>"申购配号(筑博设计)"</f>
+        <v>申购配号(筑博设计)</v>
+      </c>
+      <c r="K456" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L456" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M456" t="str">
+        <f t="shared" si="147"/>
+        <v>0.00</v>
+      </c>
+      <c r="N456" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O456" t="str">
+        <f>"300564"</f>
+        <v>300564</v>
+      </c>
+      <c r="P456" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B457" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C457" t="str">
+        <f>"20191031"</f>
+        <v>20191031</v>
+      </c>
+      <c r="D457" t="str">
+        <f>"20.250"</f>
+        <v>20.250</v>
+      </c>
+      <c r="E457" t="str">
+        <f>"-600.00"</f>
+        <v>-600.00</v>
+      </c>
+      <c r="F457" t="str">
+        <f>"12132.61"</f>
+        <v>12132.61</v>
+      </c>
+      <c r="G457" t="str">
+        <f>"36896.73"</f>
+        <v>36896.73</v>
+      </c>
+      <c r="H457" t="str">
+        <f>"4200.00"</f>
+        <v>4200.00</v>
+      </c>
+      <c r="I457" t="str">
+        <f>"144"</f>
+        <v>144</v>
+      </c>
+      <c r="J457" t="str">
+        <f>"证券卖出(中通国脉)"</f>
+        <v>证券卖出(中通国脉)</v>
+      </c>
+      <c r="K457" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L457" t="str">
+        <f>"12.15"</f>
+        <v>12.15</v>
+      </c>
+      <c r="M457" t="str">
+        <f>"0.24"</f>
+        <v>0.24</v>
+      </c>
+      <c r="N457" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O457" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P457" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B458" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C458" t="str">
+        <f>"20191031"</f>
+        <v>20191031</v>
+      </c>
+      <c r="D458" t="str">
+        <f>"19.970"</f>
+        <v>19.970</v>
+      </c>
+      <c r="E458" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F458" t="str">
+        <f>"-11987.24"</f>
+        <v>-11987.24</v>
+      </c>
+      <c r="G458" t="str">
+        <f>"24909.49"</f>
+        <v>24909.49</v>
+      </c>
+      <c r="H458" t="str">
+        <f>"4800.00"</f>
+        <v>4800.00</v>
+      </c>
+      <c r="I458" t="str">
+        <f>"147"</f>
+        <v>147</v>
+      </c>
+      <c r="J458" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K458" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L458" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M458" t="str">
+        <f>"0.24"</f>
+        <v>0.24</v>
+      </c>
+      <c r="N458" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O458" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P458" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f t="shared" si="146"/>
+        <v>人民币</v>
+      </c>
+      <c r="B459" t="str">
+        <f>"飞力达"</f>
+        <v>飞力达</v>
+      </c>
+      <c r="C459" t="str">
+        <f>"20191031"</f>
+        <v>20191031</v>
+      </c>
+      <c r="D459" t="str">
+        <f>"7.570"</f>
+        <v>7.570</v>
+      </c>
+      <c r="E459" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F459" t="str">
+        <f>"15119.86"</f>
+        <v>15119.86</v>
+      </c>
+      <c r="G459" t="str">
+        <f>"40029.35"</f>
+        <v>40029.35</v>
+      </c>
+      <c r="H459" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I459" t="str">
+        <f>"141"</f>
+        <v>141</v>
+      </c>
+      <c r="J459" t="str">
+        <f>"证券卖出(飞力达)"</f>
+        <v>证券卖出(飞力达)</v>
+      </c>
+      <c r="K459" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L459" t="str">
+        <f>"15.14"</f>
+        <v>15.14</v>
+      </c>
+      <c r="M459" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N459" t="str">
+        <f t="shared" si="145"/>
+        <v>0.00</v>
+      </c>
+      <c r="O459" t="str">
+        <f>"300240"</f>
+        <v>300240</v>
+      </c>
+      <c r="P459" t="str">
         <f>"0153613480"</f>
         <v>0153613480</v>
       </c>

--- a/cal_profit/origin.xlsx
+++ b/cal_profit/origin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="year2017" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
@@ -49028,10 +49028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P491"/>
+  <dimension ref="A1:P537"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H498" sqref="H498"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="C519" sqref="C519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -81446,6 +81446,3042 @@
         <v>A400948245</v>
       </c>
     </row>
+    <row r="492" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B492" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C492" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D492" t="str">
+        <f>"12.890"</f>
+        <v>12.890</v>
+      </c>
+      <c r="E492" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F492" t="str">
+        <f>"-10317.00"</f>
+        <v>-10317.00</v>
+      </c>
+      <c r="G492" t="str">
+        <f>"13933.29"</f>
+        <v>13933.29</v>
+      </c>
+      <c r="H492" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I492" t="str">
+        <f>"321"</f>
+        <v>321</v>
+      </c>
+      <c r="J492" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K492" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L492" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M492" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N492" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O492" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P492" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A493" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B493" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C493" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D493" t="str">
+        <f>"22.500"</f>
+        <v>22.500</v>
+      </c>
+      <c r="E493" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F493" t="str">
+        <f>"-13505.00"</f>
+        <v>-13505.00</v>
+      </c>
+      <c r="G493" t="str">
+        <f>"24250.29"</f>
+        <v>24250.29</v>
+      </c>
+      <c r="H493" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I493" t="str">
+        <f>"315"</f>
+        <v>315</v>
+      </c>
+      <c r="J493" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K493" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L493" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M493" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N493" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O493" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P493" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A494" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B494" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C494" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D494" t="str">
+        <f>"22.530"</f>
+        <v>22.530</v>
+      </c>
+      <c r="E494" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F494" t="str">
+        <f>"-6764.00"</f>
+        <v>-6764.00</v>
+      </c>
+      <c r="G494" t="str">
+        <f>"37755.29"</f>
+        <v>37755.29</v>
+      </c>
+      <c r="H494" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I494" t="str">
+        <f>"310"</f>
+        <v>310</v>
+      </c>
+      <c r="J494" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K494" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L494" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M494" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N494" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O494" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P494" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A495" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B495" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C495" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D495" t="str">
+        <f>"22.620"</f>
+        <v>22.620</v>
+      </c>
+      <c r="E495" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="F495" t="str">
+        <f>"-15839.00"</f>
+        <v>-15839.00</v>
+      </c>
+      <c r="G495" t="str">
+        <f>"44519.29"</f>
+        <v>44519.29</v>
+      </c>
+      <c r="H495" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="I495" t="str">
+        <f>"295"</f>
+        <v>295</v>
+      </c>
+      <c r="J495" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K495" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L495" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M495" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N495" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O495" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P495" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A496" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B496" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C496" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D496" t="str">
+        <f>"17.150"</f>
+        <v>17.150</v>
+      </c>
+      <c r="E496" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="F496" t="str">
+        <f>"-25733.23"</f>
+        <v>-25733.23</v>
+      </c>
+      <c r="G496" t="str">
+        <f>"60358.29"</f>
+        <v>60358.29</v>
+      </c>
+      <c r="H496" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="I496" t="str">
+        <f>"305"</f>
+        <v>305</v>
+      </c>
+      <c r="J496" t="str">
+        <f>"证券买入(威派格)"</f>
+        <v>证券买入(威派格)</v>
+      </c>
+      <c r="K496" t="str">
+        <f>"7.72"</f>
+        <v>7.72</v>
+      </c>
+      <c r="L496" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M496" t="str">
+        <f>"0.51"</f>
+        <v>0.51</v>
+      </c>
+      <c r="N496" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O496" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P496" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A497" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B497" t="str">
+        <f>"电声股份"</f>
+        <v>电声股份</v>
+      </c>
+      <c r="C497" t="str">
+        <f>"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D497" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E497" t="str">
+        <f>"25.00"</f>
+        <v>25.00</v>
+      </c>
+      <c r="F497" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G497" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H497" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I497" t="str">
+        <f>"345"</f>
+        <v>345</v>
+      </c>
+      <c r="J497" t="str">
+        <f>"申购配号(电声股份)"</f>
+        <v>申购配号(电声股份)</v>
+      </c>
+      <c r="K497" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L497" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M497" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N497" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O497" t="str">
+        <f>"300805"</f>
+        <v>300805</v>
+      </c>
+      <c r="P497" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A498" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B498" t="str">
+        <f>"锦鸡股份"</f>
+        <v>锦鸡股份</v>
+      </c>
+      <c r="C498" t="str">
+        <f>"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D498" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E498" t="str">
+        <f>"25.00"</f>
+        <v>25.00</v>
+      </c>
+      <c r="F498" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G498" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H498" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I498" t="str">
+        <f>"347"</f>
+        <v>347</v>
+      </c>
+      <c r="J498" t="str">
+        <f>"申购配号(锦鸡股份)"</f>
+        <v>申购配号(锦鸡股份)</v>
+      </c>
+      <c r="K498" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L498" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M498" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N498" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O498" t="str">
+        <f>"300798"</f>
+        <v>300798</v>
+      </c>
+      <c r="P498" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A499" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B499" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C499" t="str">
+        <f>"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D499" t="str">
+        <f>"22.840"</f>
+        <v>22.840</v>
+      </c>
+      <c r="E499" t="str">
+        <f>"-1200.00"</f>
+        <v>-1200.00</v>
+      </c>
+      <c r="F499" t="str">
+        <f>"27372.36"</f>
+        <v>27372.36</v>
+      </c>
+      <c r="G499" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H499" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I499" t="str">
+        <f>"356"</f>
+        <v>356</v>
+      </c>
+      <c r="J499" t="str">
+        <f>"证券卖出(硕贝德)"</f>
+        <v>证券卖出(硕贝德)</v>
+      </c>
+      <c r="K499" t="str">
+        <f>"8.23"</f>
+        <v>8.23</v>
+      </c>
+      <c r="L499" t="str">
+        <f>"27.41"</f>
+        <v>27.41</v>
+      </c>
+      <c r="M499" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N499" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O499" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P499" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A500" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B500" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C500" t="str">
+        <f>"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D500" t="str">
+        <f>"22.820"</f>
+        <v>22.820</v>
+      </c>
+      <c r="E500" t="str">
+        <f>"-400.00"</f>
+        <v>-400.00</v>
+      </c>
+      <c r="F500" t="str">
+        <f>"9113.87"</f>
+        <v>9113.87</v>
+      </c>
+      <c r="G500" t="str">
+        <f>"30689.11"</f>
+        <v>30689.11</v>
+      </c>
+      <c r="H500" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I500" t="str">
+        <f>"353"</f>
+        <v>353</v>
+      </c>
+      <c r="J500" t="str">
+        <f>"证券卖出(硕贝德)"</f>
+        <v>证券卖出(硕贝德)</v>
+      </c>
+      <c r="K500" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L500" t="str">
+        <f>"9.13"</f>
+        <v>9.13</v>
+      </c>
+      <c r="M500" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N500" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O500" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P500" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A501" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B501" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C501" t="str">
+        <f>"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D501" t="str">
+        <f>"22.170"</f>
+        <v>22.170</v>
+      </c>
+      <c r="E501" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F501" t="str">
+        <f>"-8873.00"</f>
+        <v>-8873.00</v>
+      </c>
+      <c r="G501" t="str">
+        <f>"21575.24"</f>
+        <v>21575.24</v>
+      </c>
+      <c r="H501" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I501" t="str">
+        <f>"341"</f>
+        <v>341</v>
+      </c>
+      <c r="J501" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K501" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L501" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M501" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N501" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O501" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P501" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A502" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B502" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C502" t="str">
+        <f>"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D502" t="str">
+        <f>"17.700"</f>
+        <v>17.700</v>
+      </c>
+      <c r="E502" t="str">
+        <f>"-1500.00"</f>
+        <v>-1500.00</v>
+      </c>
+      <c r="F502" t="str">
+        <f>"26514.95"</f>
+        <v>26514.95</v>
+      </c>
+      <c r="G502" t="str">
+        <f>"30448.24"</f>
+        <v>30448.24</v>
+      </c>
+      <c r="H502" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I502" t="str">
+        <f>"332"</f>
+        <v>332</v>
+      </c>
+      <c r="J502" t="str">
+        <f>"证券卖出(威派格)"</f>
+        <v>证券卖出(威派格)</v>
+      </c>
+      <c r="K502" t="str">
+        <f>"7.97"</f>
+        <v>7.97</v>
+      </c>
+      <c r="L502" t="str">
+        <f>"26.55"</f>
+        <v>26.55</v>
+      </c>
+      <c r="M502" t="str">
+        <f>"0.53"</f>
+        <v>0.53</v>
+      </c>
+      <c r="N502" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O502" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P502" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A503" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B503" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C503" t="str">
+        <f>"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F503" t="str">
+        <f>"-10000.00"</f>
+        <v>-10000.00</v>
+      </c>
+      <c r="G503" t="str">
+        <f>"3933.29"</f>
+        <v>3933.29</v>
+      </c>
+      <c r="H503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J503" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="M503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="N503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="O503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="P503" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A504" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B504" t="str">
+        <f>"斯迪克"</f>
+        <v>斯迪克</v>
+      </c>
+      <c r="C504" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D504" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E504" t="str">
+        <f>"23.00"</f>
+        <v>23.00</v>
+      </c>
+      <c r="F504" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G504" t="str">
+        <f>"42903.78"</f>
+        <v>42903.78</v>
+      </c>
+      <c r="H504" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I504" t="str">
+        <f>"365"</f>
+        <v>365</v>
+      </c>
+      <c r="J504" t="str">
+        <f>"申购配号(斯迪克)"</f>
+        <v>申购配号(斯迪克)</v>
+      </c>
+      <c r="K504" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L504" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M504" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N504" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O504" t="str">
+        <f>"300806"</f>
+        <v>300806</v>
+      </c>
+      <c r="P504" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A505" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B505" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C505" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D505" t="str">
+        <f>"12.090"</f>
+        <v>12.090</v>
+      </c>
+      <c r="E505" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F505" t="str">
+        <f>"-4841.00"</f>
+        <v>-4841.00</v>
+      </c>
+      <c r="G505" t="str">
+        <f>"42903.78"</f>
+        <v>42903.78</v>
+      </c>
+      <c r="H505" t="str">
+        <f>"2400.00"</f>
+        <v>2400.00</v>
+      </c>
+      <c r="I505" t="str">
+        <f>"387"</f>
+        <v>387</v>
+      </c>
+      <c r="J505" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K505" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O505" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P505" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A506" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B506" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C506" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D506" t="str">
+        <f>"12.080"</f>
+        <v>12.080</v>
+      </c>
+      <c r="E506" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F506" t="str">
+        <f>"-4837.00"</f>
+        <v>-4837.00</v>
+      </c>
+      <c r="G506" t="str">
+        <f>"47744.78"</f>
+        <v>47744.78</v>
+      </c>
+      <c r="H506" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I506" t="str">
+        <f>"383"</f>
+        <v>383</v>
+      </c>
+      <c r="J506" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K506" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O506" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P506" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A507" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B507" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C507" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D507" t="str">
+        <f>"12.540"</f>
+        <v>12.540</v>
+      </c>
+      <c r="E507" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F507" t="str">
+        <f>"-10037.00"</f>
+        <v>-10037.00</v>
+      </c>
+      <c r="G507" t="str">
+        <f>"52581.78"</f>
+        <v>52581.78</v>
+      </c>
+      <c r="H507" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I507" t="str">
+        <f>"375"</f>
+        <v>375</v>
+      </c>
+      <c r="J507" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K507" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L507" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M507" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N507" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O507" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P507" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A508" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B508" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C508" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D508" t="str">
+        <f>"23.280"</f>
+        <v>23.280</v>
+      </c>
+      <c r="E508" t="str">
+        <f>"-400.00"</f>
+        <v>-400.00</v>
+      </c>
+      <c r="F508" t="str">
+        <f>"9297.69"</f>
+        <v>9297.69</v>
+      </c>
+      <c r="G508" t="str">
+        <f>"62618.78"</f>
+        <v>62618.78</v>
+      </c>
+      <c r="H508" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I508" t="str">
+        <f>"372"</f>
+        <v>372</v>
+      </c>
+      <c r="J508" t="str">
+        <f>"证券卖出(硕贝德)"</f>
+        <v>证券卖出(硕贝德)</v>
+      </c>
+      <c r="K508" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L508" t="str">
+        <f>"9.31"</f>
+        <v>9.31</v>
+      </c>
+      <c r="M508" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N508" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O508" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P508" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A509" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B509" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C509" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D509" t="str">
+        <f>"17.610"</f>
+        <v>17.610</v>
+      </c>
+      <c r="E509" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F509" t="str">
+        <f>"17586.76"</f>
+        <v>17586.76</v>
+      </c>
+      <c r="G509" t="str">
+        <f>"53321.09"</f>
+        <v>53321.09</v>
+      </c>
+      <c r="H509" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I509" t="str">
+        <f>"390"</f>
+        <v>390</v>
+      </c>
+      <c r="J509" t="str">
+        <f>"证券卖出(威派格)"</f>
+        <v>证券卖出(威派格)</v>
+      </c>
+      <c r="K509" t="str">
+        <f>"5.28"</f>
+        <v>5.28</v>
+      </c>
+      <c r="L509" t="str">
+        <f>"17.61"</f>
+        <v>17.61</v>
+      </c>
+      <c r="M509" t="str">
+        <f>"0.35"</f>
+        <v>0.35</v>
+      </c>
+      <c r="N509" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O509" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P509" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A510" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B510" t="str">
+        <f>"中信建投"</f>
+        <v>中信建投</v>
+      </c>
+      <c r="C510" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D510" t="str">
+        <f>"22.320"</f>
+        <v>22.320</v>
+      </c>
+      <c r="E510" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F510" t="str">
+        <f>"-22327.14"</f>
+        <v>-22327.14</v>
+      </c>
+      <c r="G510" t="str">
+        <f>"35734.33"</f>
+        <v>35734.33</v>
+      </c>
+      <c r="H510" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I510" t="str">
+        <f>"378"</f>
+        <v>378</v>
+      </c>
+      <c r="J510" t="str">
+        <f>"证券买入(中信建投)"</f>
+        <v>证券买入(中信建投)</v>
+      </c>
+      <c r="K510" t="str">
+        <f>"6.70"</f>
+        <v>6.70</v>
+      </c>
+      <c r="L510" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M510" t="str">
+        <f>"0.44"</f>
+        <v>0.44</v>
+      </c>
+      <c r="N510" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O510" t="str">
+        <f>"601066"</f>
+        <v>601066</v>
+      </c>
+      <c r="P510" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A511" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B511" t="str">
+        <f>"通达配号"</f>
+        <v>通达配号</v>
+      </c>
+      <c r="C511" t="str">
+        <f>"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D511" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E511" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F511" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G511" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H511" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I511" t="str">
+        <f>"367"</f>
+        <v>367</v>
+      </c>
+      <c r="J511" t="str">
+        <f>"申购配号(通达配号)"</f>
+        <v>申购配号(通达配号)</v>
+      </c>
+      <c r="K511" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L511" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M511" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N511" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O511" t="str">
+        <f>"736390"</f>
+        <v>736390</v>
+      </c>
+      <c r="P511" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A512" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B512" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C512" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D512" t="str">
+        <f>"10.970"</f>
+        <v>10.970</v>
+      </c>
+      <c r="E512" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F512" t="str">
+        <f>"-21946.58"</f>
+        <v>-21946.58</v>
+      </c>
+      <c r="G512" t="str">
+        <f>"33527.37"</f>
+        <v>33527.37</v>
+      </c>
+      <c r="H512" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I512" t="str">
+        <f>"401"</f>
+        <v>401</v>
+      </c>
+      <c r="J512" t="str">
+        <f>"证券买入(苏奥传感)"</f>
+        <v>证券买入(苏奥传感)</v>
+      </c>
+      <c r="K512" t="str">
+        <f>"6.58"</f>
+        <v>6.58</v>
+      </c>
+      <c r="L512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O512" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P512" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A513" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B513" t="str">
+        <f>"浙银配号"</f>
+        <v>浙银配号</v>
+      </c>
+      <c r="C513" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D513" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E513" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="F513" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G513" t="str">
+        <f>"55473.95"</f>
+        <v>55473.95</v>
+      </c>
+      <c r="H513" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I513" t="str">
+        <f>"407"</f>
+        <v>407</v>
+      </c>
+      <c r="J513" t="str">
+        <f>"申购配号(浙银配号)"</f>
+        <v>申购配号(浙银配号)</v>
+      </c>
+      <c r="K513" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L513" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M513" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N513" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O513" t="str">
+        <f>"791916"</f>
+        <v>791916</v>
+      </c>
+      <c r="P513" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A514" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B514" t="str">
+        <f>"中信建投"</f>
+        <v>中信建投</v>
+      </c>
+      <c r="C514" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D514" t="str">
+        <f>"22.600"</f>
+        <v>22.600</v>
+      </c>
+      <c r="E514" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F514" t="str">
+        <f>"22570.17"</f>
+        <v>22570.17</v>
+      </c>
+      <c r="G514" t="str">
+        <f>"55473.95"</f>
+        <v>55473.95</v>
+      </c>
+      <c r="H514" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I514" t="str">
+        <f>"410"</f>
+        <v>410</v>
+      </c>
+      <c r="J514" t="str">
+        <f>"证券卖出(中信建投)"</f>
+        <v>证券卖出(中信建投)</v>
+      </c>
+      <c r="K514" t="str">
+        <f>"6.78"</f>
+        <v>6.78</v>
+      </c>
+      <c r="L514" t="str">
+        <f>"22.60"</f>
+        <v>22.60</v>
+      </c>
+      <c r="M514" t="str">
+        <f>"0.45"</f>
+        <v>0.45</v>
+      </c>
+      <c r="N514" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O514" t="str">
+        <f>"601066"</f>
+        <v>601066</v>
+      </c>
+      <c r="P514" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A515" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B515" t="str">
+        <f>"浙银配号"</f>
+        <v>浙银配号</v>
+      </c>
+      <c r="C515" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D515" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E515" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F515" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G515" t="str">
+        <f>"32903.78"</f>
+        <v>32903.78</v>
+      </c>
+      <c r="H515" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I515" t="str">
+        <f>"405"</f>
+        <v>405</v>
+      </c>
+      <c r="J515" t="str">
+        <f>"申购配号(浙银配号)"</f>
+        <v>申购配号(浙银配号)</v>
+      </c>
+      <c r="K515" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L515" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M515" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N515" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O515" t="str">
+        <f>"791916"</f>
+        <v>791916</v>
+      </c>
+      <c r="P515" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A516" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B516" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C516" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F516" t="str">
+        <f>"-10000.00"</f>
+        <v>-10000.00</v>
+      </c>
+      <c r="G516" t="str">
+        <f>"32903.78"</f>
+        <v>32903.78</v>
+      </c>
+      <c r="H516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J516" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="M516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="N516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="O516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="P516" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A517" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B517" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C517" t="str">
+        <f>"20191115"</f>
+        <v>20191115</v>
+      </c>
+      <c r="D517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F517" t="str">
+        <f>"-10000.00"</f>
+        <v>-10000.00</v>
+      </c>
+      <c r="G517" t="str">
+        <f>"23527.37"</f>
+        <v>23527.37</v>
+      </c>
+      <c r="H517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J517" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="M517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="N517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="O517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="P517" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A518" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B518" t="str">
+        <f>"泰和科技"</f>
+        <v>泰和科技</v>
+      </c>
+      <c r="C518" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D518" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E518" t="str">
+        <f>"24.00"</f>
+        <v>24.00</v>
+      </c>
+      <c r="F518" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G518" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H518" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I518" t="str">
+        <f>"420"</f>
+        <v>420</v>
+      </c>
+      <c r="J518" t="str">
+        <f>"申购配号(泰和科技)"</f>
+        <v>申购配号(泰和科技)</v>
+      </c>
+      <c r="K518" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L518" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M518" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N518" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O518" t="str">
+        <f>"300801"</f>
+        <v>300801</v>
+      </c>
+      <c r="P518" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A519" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B519" t="str">
+        <f>"久量股份"</f>
+        <v>久量股份</v>
+      </c>
+      <c r="C519" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D519" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E519" t="str">
+        <f>"32.00"</f>
+        <v>32.00</v>
+      </c>
+      <c r="F519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G519" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I519" t="str">
+        <f>"418"</f>
+        <v>418</v>
+      </c>
+      <c r="J519" t="str">
+        <f>"申购配号(久量股份)"</f>
+        <v>申购配号(久量股份)</v>
+      </c>
+      <c r="K519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O519" t="str">
+        <f>"300808"</f>
+        <v>300808</v>
+      </c>
+      <c r="P519" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A520" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B520" t="str">
+        <f>"嘉美包装"</f>
+        <v>嘉美包装</v>
+      </c>
+      <c r="C520" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D520" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E520" t="str">
+        <f>"35.00"</f>
+        <v>35.00</v>
+      </c>
+      <c r="F520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G520" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I520" t="str">
+        <f>"422"</f>
+        <v>422</v>
+      </c>
+      <c r="J520" t="str">
+        <f>"申购配号(嘉美包装)"</f>
+        <v>申购配号(嘉美包装)</v>
+      </c>
+      <c r="K520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O520" t="str">
+        <f>"002969"</f>
+        <v>002969</v>
+      </c>
+      <c r="P520" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A521" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B521" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C521" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D521" t="str">
+        <f>"6.690"</f>
+        <v>6.690</v>
+      </c>
+      <c r="E521" t="str">
+        <f>"-5000.00"</f>
+        <v>-5000.00</v>
+      </c>
+      <c r="F521" t="str">
+        <f>"33406.51"</f>
+        <v>33406.51</v>
+      </c>
+      <c r="G521" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H521" t="str">
+        <f>"14900.00"</f>
+        <v>14900.00</v>
+      </c>
+      <c r="I521" t="str">
+        <f>"427"</f>
+        <v>427</v>
+      </c>
+      <c r="J521" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K521" t="str">
+        <f>"10.04"</f>
+        <v>10.04</v>
+      </c>
+      <c r="L521" t="str">
+        <f>"33.45"</f>
+        <v>33.45</v>
+      </c>
+      <c r="M521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O521" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P521" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A522" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B522" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C522" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D522" t="str">
+        <f>"10.870"</f>
+        <v>10.870</v>
+      </c>
+      <c r="E522" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F522" t="str">
+        <f>"-10875.00"</f>
+        <v>-10875.00</v>
+      </c>
+      <c r="G522" t="str">
+        <f>"12652.37"</f>
+        <v>12652.37</v>
+      </c>
+      <c r="H522" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I522" t="str">
+        <f>"424"</f>
+        <v>424</v>
+      </c>
+      <c r="J522" t="str">
+        <f>"证券买入(苏奥传感)"</f>
+        <v>证券买入(苏奥传感)</v>
+      </c>
+      <c r="K522" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L522" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M522" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N522" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O522" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P522" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A523" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B523" t="str">
+        <f>"新大正"</f>
+        <v>新大正</v>
+      </c>
+      <c r="C523" t="str">
+        <f>"20191120"</f>
+        <v>20191120</v>
+      </c>
+      <c r="D523" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E523" t="str">
+        <f>"35.00"</f>
+        <v>35.00</v>
+      </c>
+      <c r="F523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G523" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I523" t="str">
+        <f>"440"</f>
+        <v>440</v>
+      </c>
+      <c r="J523" t="str">
+        <f>"申购配号(新大正)"</f>
+        <v>申购配号(新大正)</v>
+      </c>
+      <c r="K523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O523" t="str">
+        <f>"002968"</f>
+        <v>002968</v>
+      </c>
+      <c r="P523" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A524" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B524" t="str">
+        <f>"华辰装备"</f>
+        <v>华辰装备</v>
+      </c>
+      <c r="C524" t="str">
+        <f>"20191121"</f>
+        <v>20191121</v>
+      </c>
+      <c r="D524" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E524" t="str">
+        <f>"31.00"</f>
+        <v>31.00</v>
+      </c>
+      <c r="F524" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G524" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H524" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I524" t="str">
+        <f>"445"</f>
+        <v>445</v>
+      </c>
+      <c r="J524" t="str">
+        <f>"申购配号(华辰装备)"</f>
+        <v>申购配号(华辰装备)</v>
+      </c>
+      <c r="K524" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L524" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M524" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N524" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O524" t="str">
+        <f>"300809"</f>
+        <v>300809</v>
+      </c>
+      <c r="P524" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A525" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B525" t="str">
+        <f>"中科海讯"</f>
+        <v>中科海讯</v>
+      </c>
+      <c r="C525" t="str">
+        <f>"20191121"</f>
+        <v>20191121</v>
+      </c>
+      <c r="D525" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E525" t="str">
+        <f>"35.00"</f>
+        <v>35.00</v>
+      </c>
+      <c r="F525" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G525" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H525" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I525" t="str">
+        <f>"443"</f>
+        <v>443</v>
+      </c>
+      <c r="J525" t="str">
+        <f>"申购配号(中科海讯)"</f>
+        <v>申购配号(中科海讯)</v>
+      </c>
+      <c r="K525" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L525" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M525" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N525" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O525" t="str">
+        <f>"300810"</f>
+        <v>300810</v>
+      </c>
+      <c r="P525" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A526" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B526" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C526" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D526" t="str">
+        <f>"11.700"</f>
+        <v>11.700</v>
+      </c>
+      <c r="E526" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F526" t="str">
+        <f>"-7025.00"</f>
+        <v>-7025.00</v>
+      </c>
+      <c r="G526" t="str">
+        <f>"32680.08"</f>
+        <v>32680.08</v>
+      </c>
+      <c r="H526" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I526" t="str">
+        <f>"456"</f>
+        <v>456</v>
+      </c>
+      <c r="J526" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K526" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L526" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M526" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N526" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O526" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P526" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A527" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B527" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C527" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D527" t="str">
+        <f>"11.100"</f>
+        <v>11.100</v>
+      </c>
+      <c r="E527" t="str">
+        <f>"-1500.00"</f>
+        <v>-1500.00</v>
+      </c>
+      <c r="F527" t="str">
+        <f>"16628.35"</f>
+        <v>16628.35</v>
+      </c>
+      <c r="G527" t="str">
+        <f>"39705.08"</f>
+        <v>39705.08</v>
+      </c>
+      <c r="H527" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I527" t="str">
+        <f>"459"</f>
+        <v>459</v>
+      </c>
+      <c r="J527" t="str">
+        <f>"证券卖出(苏奥传感)"</f>
+        <v>证券卖出(苏奥传感)</v>
+      </c>
+      <c r="K527" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L527" t="str">
+        <f>"16.65"</f>
+        <v>16.65</v>
+      </c>
+      <c r="M527" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N527" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O527" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P527" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A528" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B528" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C528" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D528" t="str">
+        <f>"11.360"</f>
+        <v>11.360</v>
+      </c>
+      <c r="E528" t="str">
+        <f>"-1500.00"</f>
+        <v>-1500.00</v>
+      </c>
+      <c r="F528" t="str">
+        <f>"17017.85"</f>
+        <v>17017.85</v>
+      </c>
+      <c r="G528" t="str">
+        <f>"23076.73"</f>
+        <v>23076.73</v>
+      </c>
+      <c r="H528" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I528" t="str">
+        <f>"452"</f>
+        <v>452</v>
+      </c>
+      <c r="J528" t="str">
+        <f>"证券卖出(苏奥传感)"</f>
+        <v>证券卖出(苏奥传感)</v>
+      </c>
+      <c r="K528" t="str">
+        <f>"5.11"</f>
+        <v>5.11</v>
+      </c>
+      <c r="L528" t="str">
+        <f>"17.04"</f>
+        <v>17.04</v>
+      </c>
+      <c r="M528" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N528" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O528" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P528" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A529" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B529" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C529" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F529" t="str">
+        <f>"-40000.00"</f>
+        <v>-40000.00</v>
+      </c>
+      <c r="G529" t="str">
+        <f>"6058.88"</f>
+        <v>6058.88</v>
+      </c>
+      <c r="H529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J529" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="M529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="N529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="O529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="P529" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A530" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B530" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C530" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D530" t="str">
+        <f>"36.640"</f>
+        <v>36.640</v>
+      </c>
+      <c r="E530" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F530" t="str">
+        <f>"-18325.50"</f>
+        <v>-18325.50</v>
+      </c>
+      <c r="G530" t="str">
+        <f>"29828.66"</f>
+        <v>29828.66</v>
+      </c>
+      <c r="H530" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I530" t="str">
+        <f>"487"</f>
+        <v>487</v>
+      </c>
+      <c r="J530" t="str">
+        <f>"证券买入(瀛通通讯)"</f>
+        <v>证券买入(瀛通通讯)</v>
+      </c>
+      <c r="K530" t="str">
+        <f>"5.50"</f>
+        <v>5.50</v>
+      </c>
+      <c r="L530" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M530" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N530" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O530" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P530" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A531" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B531" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C531" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D531" t="str">
+        <f>"36.600"</f>
+        <v>36.600</v>
+      </c>
+      <c r="E531" t="str">
+        <f>"200.00"</f>
+        <v>200.00</v>
+      </c>
+      <c r="F531" t="str">
+        <f>"-7325.00"</f>
+        <v>-7325.00</v>
+      </c>
+      <c r="G531" t="str">
+        <f>"48154.16"</f>
+        <v>48154.16</v>
+      </c>
+      <c r="H531" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I531" t="str">
+        <f>"482"</f>
+        <v>482</v>
+      </c>
+      <c r="J531" t="str">
+        <f>"证券买入(瀛通通讯)"</f>
+        <v>证券买入(瀛通通讯)</v>
+      </c>
+      <c r="K531" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L531" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M531" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N531" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O531" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P531" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A532" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B532" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C532" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D532" t="str">
+        <f>"36.440"</f>
+        <v>36.440</v>
+      </c>
+      <c r="E532" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F532" t="str">
+        <f>"-10937.00"</f>
+        <v>-10937.00</v>
+      </c>
+      <c r="G532" t="str">
+        <f>"55479.16"</f>
+        <v>55479.16</v>
+      </c>
+      <c r="H532" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="I532" t="str">
+        <f>"468"</f>
+        <v>468</v>
+      </c>
+      <c r="J532" t="str">
+        <f>"证券买入(瀛通通讯)"</f>
+        <v>证券买入(瀛通通讯)</v>
+      </c>
+      <c r="K532" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L532" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M532" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N532" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O532" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P532" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A533" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B533" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C533" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D533" t="str">
+        <f>"11.260"</f>
+        <v>11.260</v>
+      </c>
+      <c r="E533" t="str">
+        <f>"-3000.00"</f>
+        <v>-3000.00</v>
+      </c>
+      <c r="F533" t="str">
+        <f>"33736.08"</f>
+        <v>33736.08</v>
+      </c>
+      <c r="G533" t="str">
+        <f>"66416.16"</f>
+        <v>66416.16</v>
+      </c>
+      <c r="H533" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I533" t="str">
+        <f>"475"</f>
+        <v>475</v>
+      </c>
+      <c r="J533" t="str">
+        <f>"证券卖出(东港股份)"</f>
+        <v>证券卖出(东港股份)</v>
+      </c>
+      <c r="K533" t="str">
+        <f>"10.14"</f>
+        <v>10.14</v>
+      </c>
+      <c r="L533" t="str">
+        <f>"33.78"</f>
+        <v>33.78</v>
+      </c>
+      <c r="M533" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N533" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O533" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P533" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A534" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B534" t="str">
+        <f>"凯普生物"</f>
+        <v>凯普生物</v>
+      </c>
+      <c r="C534" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D534" t="str">
+        <f>"26.050"</f>
+        <v>26.050</v>
+      </c>
+      <c r="E534" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F534" t="str">
+        <f>"-52115.64"</f>
+        <v>-52115.64</v>
+      </c>
+      <c r="G534" t="str">
+        <f>"44441.20"</f>
+        <v>44441.20</v>
+      </c>
+      <c r="H534" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I534" t="str">
+        <f>"523"</f>
+        <v>523</v>
+      </c>
+      <c r="J534" t="str">
+        <f>"证券买入(凯普生物)"</f>
+        <v>证券买入(凯普生物)</v>
+      </c>
+      <c r="K534" t="str">
+        <f>"15.64"</f>
+        <v>15.64</v>
+      </c>
+      <c r="L534" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M534" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N534" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O534" t="str">
+        <f>"300639"</f>
+        <v>300639</v>
+      </c>
+      <c r="P534" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A535" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B535" t="str">
+        <f>"惠威科技"</f>
+        <v>惠威科技</v>
+      </c>
+      <c r="C535" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D535" t="str">
+        <f>"21.480"</f>
+        <v>21.480</v>
+      </c>
+      <c r="E535" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F535" t="str">
+        <f>"-17189.16"</f>
+        <v>-17189.16</v>
+      </c>
+      <c r="G535" t="str">
+        <f>"96556.84"</f>
+        <v>96556.84</v>
+      </c>
+      <c r="H535" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I535" t="str">
+        <f>"501"</f>
+        <v>501</v>
+      </c>
+      <c r="J535" t="str">
+        <f>"证券买入(惠威科技)"</f>
+        <v>证券买入(惠威科技)</v>
+      </c>
+      <c r="K535" t="str">
+        <f>"5.16"</f>
+        <v>5.16</v>
+      </c>
+      <c r="L535" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M535" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N535" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O535" t="str">
+        <f>"002888"</f>
+        <v>002888</v>
+      </c>
+      <c r="P535" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A536" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B536" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C536" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D536" t="str">
+        <f>"6.220"</f>
+        <v>6.220</v>
+      </c>
+      <c r="E536" t="str">
+        <f>"-14900.00"</f>
+        <v>-14900.00</v>
+      </c>
+      <c r="F536" t="str">
+        <f>"92557.51"</f>
+        <v>92557.51</v>
+      </c>
+      <c r="G536" t="str">
+        <f>"113746.00"</f>
+        <v>113746.00</v>
+      </c>
+      <c r="H536" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I536" t="str">
+        <f>"512"</f>
+        <v>512</v>
+      </c>
+      <c r="J536" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K536" t="str">
+        <f>"27.81"</f>
+        <v>27.81</v>
+      </c>
+      <c r="L536" t="str">
+        <f>"92.68"</f>
+        <v>92.68</v>
+      </c>
+      <c r="M536" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N536" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O536" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P536" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A537" t="str">
+        <f>"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B537" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C537" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D537" t="str">
+        <f>"17.270"</f>
+        <v>17.270</v>
+      </c>
+      <c r="E537" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F537" t="str">
+        <f>"-8640.17"</f>
+        <v>-8640.17</v>
+      </c>
+      <c r="G537" t="str">
+        <f>"21188.49"</f>
+        <v>21188.49</v>
+      </c>
+      <c r="H537" t="str">
+        <f>"3500.00"</f>
+        <v>3500.00</v>
+      </c>
+      <c r="I537" t="str">
+        <f>"508"</f>
+        <v>508</v>
+      </c>
+      <c r="J537" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K537" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L537" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M537" t="str">
+        <f>"0.17"</f>
+        <v>0.17</v>
+      </c>
+      <c r="N537" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O537" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P537" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P491"/>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/cal_profit/origin.xlsx
+++ b/cal_profit/origin.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>币种</t>
   </si>
@@ -82,6 +82,48 @@
   <si>
     <t>中国人保</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>我武生物</t>
+  </si>
+  <si>
+    <t>证券卖出(我武生物)</t>
+  </si>
+  <si>
+    <t>麦克奥迪</t>
+  </si>
+  <si>
+    <t>证券卖出(麦克奥迪)</t>
+  </si>
+  <si>
+    <t>香山股份</t>
+  </si>
+  <si>
+    <t>证券卖出(香山股份)</t>
+  </si>
+  <si>
+    <t>神州数码</t>
+  </si>
+  <si>
+    <t>证券买入(神州数码)</t>
+  </si>
+  <si>
+    <t>华培动力</t>
+  </si>
+  <si>
+    <t>证券买入(华培动力)</t>
+  </si>
+  <si>
+    <t>A400948245</t>
+  </si>
+  <si>
+    <t>四川金顶</t>
+  </si>
+  <si>
+    <t>证券买入(四川金顶)</t>
   </si>
 </sst>
 </file>
@@ -49028,10 +49070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P537"/>
+  <dimension ref="A1:P596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="C519" sqref="C519"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="D599" sqref="D599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -81290,7 +81332,7 @@
         <v>证券卖出(赛腾股份)</v>
       </c>
       <c r="K489" t="str">
-        <f>"5.00"</f>
+        <f t="shared" ref="K489:K495" si="162">"5.00"</f>
         <v>5.00</v>
       </c>
       <c r="L489" t="str">
@@ -81356,7 +81398,7 @@
         <v>证券卖出(赛腾股份)</v>
       </c>
       <c r="K490" t="str">
-        <f>"5.00"</f>
+        <f t="shared" si="162"/>
         <v>5.00</v>
       </c>
       <c r="L490" t="str">
@@ -81422,7 +81464,7 @@
         <v>证券卖出(赛腾股份)</v>
       </c>
       <c r="K491" t="str">
-        <f>"5.00"</f>
+        <f t="shared" si="162"/>
         <v>5.00</v>
       </c>
       <c r="L491" t="str">
@@ -81448,7 +81490,7 @@
     </row>
     <row r="492" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" t="str">
-        <f>"人民币"</f>
+        <f t="shared" ref="A492:A555" si="163">"人民币"</f>
         <v>人民币</v>
       </c>
       <c r="B492" t="str">
@@ -81488,19 +81530,19 @@
         <v>证券买入(东港股份)</v>
       </c>
       <c r="K492" t="str">
-        <f>"5.00"</f>
+        <f t="shared" si="162"/>
         <v>5.00</v>
       </c>
       <c r="L492" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="L492:N495" si="164">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="M492" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="N492" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="O492" t="str">
@@ -81514,7 +81556,7 @@
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B493" t="str">
@@ -81554,19 +81596,19 @@
         <v>证券买入(硕贝德)</v>
       </c>
       <c r="K493" t="str">
-        <f>"5.00"</f>
+        <f t="shared" si="162"/>
         <v>5.00</v>
       </c>
       <c r="L493" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="M493" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="N493" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="O493" t="str">
@@ -81580,7 +81622,7 @@
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B494" t="str">
@@ -81620,19 +81662,19 @@
         <v>证券买入(硕贝德)</v>
       </c>
       <c r="K494" t="str">
-        <f>"5.00"</f>
+        <f t="shared" si="162"/>
         <v>5.00</v>
       </c>
       <c r="L494" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="M494" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="N494" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="O494" t="str">
@@ -81646,7 +81688,7 @@
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B495" t="str">
@@ -81686,19 +81728,19 @@
         <v>证券买入(硕贝德)</v>
       </c>
       <c r="K495" t="str">
-        <f>"5.00"</f>
+        <f t="shared" si="162"/>
         <v>5.00</v>
       </c>
       <c r="L495" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="M495" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="N495" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="164"/>
         <v>0.00</v>
       </c>
       <c r="O495" t="str">
@@ -81712,7 +81754,7 @@
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B496" t="str">
@@ -81764,7 +81806,7 @@
         <v>0.51</v>
       </c>
       <c r="N496" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="N496:N502" si="165">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="O496" t="str">
@@ -81778,7 +81820,7 @@
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B497" t="str">
@@ -81786,7 +81828,7 @@
         <v>电声股份</v>
       </c>
       <c r="C497" t="str">
-        <f>"20191112"</f>
+        <f t="shared" ref="C497:C503" si="166">"20191112"</f>
         <v>20191112</v>
       </c>
       <c r="D497" t="str">
@@ -81830,7 +81872,7 @@
         <v>0.00</v>
       </c>
       <c r="N497" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="165"/>
         <v>0.00</v>
       </c>
       <c r="O497" t="str">
@@ -81844,7 +81886,7 @@
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B498" t="str">
@@ -81852,7 +81894,7 @@
         <v>锦鸡股份</v>
       </c>
       <c r="C498" t="str">
-        <f>"20191112"</f>
+        <f t="shared" si="166"/>
         <v>20191112</v>
       </c>
       <c r="D498" t="str">
@@ -81896,7 +81938,7 @@
         <v>0.00</v>
       </c>
       <c r="N498" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="165"/>
         <v>0.00</v>
       </c>
       <c r="O498" t="str">
@@ -81910,7 +81952,7 @@
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B499" t="str">
@@ -81918,7 +81960,7 @@
         <v>硕贝德</v>
       </c>
       <c r="C499" t="str">
-        <f>"20191112"</f>
+        <f t="shared" si="166"/>
         <v>20191112</v>
       </c>
       <c r="D499" t="str">
@@ -81962,7 +82004,7 @@
         <v>0.00</v>
       </c>
       <c r="N499" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="165"/>
         <v>0.00</v>
       </c>
       <c r="O499" t="str">
@@ -81976,7 +82018,7 @@
     </row>
     <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B500" t="str">
@@ -81984,7 +82026,7 @@
         <v>硕贝德</v>
       </c>
       <c r="C500" t="str">
-        <f>"20191112"</f>
+        <f t="shared" si="166"/>
         <v>20191112</v>
       </c>
       <c r="D500" t="str">
@@ -82028,7 +82070,7 @@
         <v>0.00</v>
       </c>
       <c r="N500" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="165"/>
         <v>0.00</v>
       </c>
       <c r="O500" t="str">
@@ -82042,7 +82084,7 @@
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B501" t="str">
@@ -82050,7 +82092,7 @@
         <v>硕贝德</v>
       </c>
       <c r="C501" t="str">
-        <f>"20191112"</f>
+        <f t="shared" si="166"/>
         <v>20191112</v>
       </c>
       <c r="D501" t="str">
@@ -82094,7 +82136,7 @@
         <v>0.00</v>
       </c>
       <c r="N501" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="165"/>
         <v>0.00</v>
       </c>
       <c r="O501" t="str">
@@ -82108,7 +82150,7 @@
     </row>
     <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B502" t="str">
@@ -82116,7 +82158,7 @@
         <v>威派格</v>
       </c>
       <c r="C502" t="str">
-        <f>"20191112"</f>
+        <f t="shared" si="166"/>
         <v>20191112</v>
       </c>
       <c r="D502" t="str">
@@ -82160,7 +82202,7 @@
         <v>0.53</v>
       </c>
       <c r="N502" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="165"/>
         <v>0.00</v>
       </c>
       <c r="O502" t="str">
@@ -82174,7 +82216,7 @@
     </row>
     <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B503" t="str">
@@ -82182,7 +82224,7 @@
         <v/>
       </c>
       <c r="C503" t="str">
-        <f>"20191112"</f>
+        <f t="shared" si="166"/>
         <v>20191112</v>
       </c>
       <c r="D503" t="str">
@@ -82214,33 +82256,33 @@
         <v>银行转取</v>
       </c>
       <c r="K503" t="str">
-        <f>"---"</f>
+        <f t="shared" ref="K503:P503" si="167">"---"</f>
         <v>---</v>
       </c>
       <c r="L503" t="str">
-        <f>"---"</f>
+        <f t="shared" si="167"/>
         <v>---</v>
       </c>
       <c r="M503" t="str">
-        <f>"---"</f>
+        <f t="shared" si="167"/>
         <v>---</v>
       </c>
       <c r="N503" t="str">
-        <f>"---"</f>
+        <f t="shared" si="167"/>
         <v>---</v>
       </c>
       <c r="O503" t="str">
-        <f>"---"</f>
+        <f t="shared" si="167"/>
         <v>---</v>
       </c>
       <c r="P503" t="str">
-        <f>"---"</f>
+        <f t="shared" si="167"/>
         <v>---</v>
       </c>
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B504" t="str">
@@ -82248,7 +82290,7 @@
         <v>斯迪克</v>
       </c>
       <c r="C504" t="str">
-        <f>"20191113"</f>
+        <f t="shared" ref="C504:C511" si="168">"20191113"</f>
         <v>20191113</v>
       </c>
       <c r="D504" t="str">
@@ -82306,7 +82348,7 @@
     </row>
     <row r="505" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B505" t="str">
@@ -82314,7 +82356,7 @@
         <v>东港股份</v>
       </c>
       <c r="C505" t="str">
-        <f>"20191113"</f>
+        <f t="shared" si="168"/>
         <v>20191113</v>
       </c>
       <c r="D505" t="str">
@@ -82350,15 +82392,15 @@
         <v>5.00</v>
       </c>
       <c r="L505" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="L505:N507" si="169">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="M505" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="N505" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="O505" t="str">
@@ -82372,7 +82414,7 @@
     </row>
     <row r="506" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B506" t="str">
@@ -82380,7 +82422,7 @@
         <v>东港股份</v>
       </c>
       <c r="C506" t="str">
-        <f>"20191113"</f>
+        <f t="shared" si="168"/>
         <v>20191113</v>
       </c>
       <c r="D506" t="str">
@@ -82416,15 +82458,15 @@
         <v>5.00</v>
       </c>
       <c r="L506" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="M506" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="N506" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="O506" t="str">
@@ -82438,7 +82480,7 @@
     </row>
     <row r="507" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B507" t="str">
@@ -82446,7 +82488,7 @@
         <v>东港股份</v>
       </c>
       <c r="C507" t="str">
-        <f>"20191113"</f>
+        <f t="shared" si="168"/>
         <v>20191113</v>
       </c>
       <c r="D507" t="str">
@@ -82482,15 +82524,15 @@
         <v>5.00</v>
       </c>
       <c r="L507" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="M507" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="N507" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="169"/>
         <v>0.00</v>
       </c>
       <c r="O507" t="str">
@@ -82504,7 +82546,7 @@
     </row>
     <row r="508" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B508" t="str">
@@ -82512,7 +82554,7 @@
         <v>硕贝德</v>
       </c>
       <c r="C508" t="str">
-        <f>"20191113"</f>
+        <f t="shared" si="168"/>
         <v>20191113</v>
       </c>
       <c r="D508" t="str">
@@ -82570,7 +82612,7 @@
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B509" t="str">
@@ -82578,7 +82620,7 @@
         <v>威派格</v>
       </c>
       <c r="C509" t="str">
-        <f>"20191113"</f>
+        <f t="shared" si="168"/>
         <v>20191113</v>
       </c>
       <c r="D509" t="str">
@@ -82622,7 +82664,7 @@
         <v>0.35</v>
       </c>
       <c r="N509" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="N509:N515" si="170">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="O509" t="str">
@@ -82636,7 +82678,7 @@
     </row>
     <row r="510" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B510" t="str">
@@ -82644,7 +82686,7 @@
         <v>中信建投</v>
       </c>
       <c r="C510" t="str">
-        <f>"20191113"</f>
+        <f t="shared" si="168"/>
         <v>20191113</v>
       </c>
       <c r="D510" t="str">
@@ -82688,7 +82730,7 @@
         <v>0.44</v>
       </c>
       <c r="N510" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="170"/>
         <v>0.00</v>
       </c>
       <c r="O510" t="str">
@@ -82702,7 +82744,7 @@
     </row>
     <row r="511" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B511" t="str">
@@ -82710,7 +82752,7 @@
         <v>通达配号</v>
       </c>
       <c r="C511" t="str">
-        <f>"20191113"</f>
+        <f t="shared" si="168"/>
         <v>20191113</v>
       </c>
       <c r="D511" t="str">
@@ -82754,7 +82796,7 @@
         <v>0.00</v>
       </c>
       <c r="N511" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="170"/>
         <v>0.00</v>
       </c>
       <c r="O511" t="str">
@@ -82768,7 +82810,7 @@
     </row>
     <row r="512" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B512" t="str">
@@ -82820,7 +82862,7 @@
         <v>0.00</v>
       </c>
       <c r="N512" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="170"/>
         <v>0.00</v>
       </c>
       <c r="O512" t="str">
@@ -82834,7 +82876,7 @@
     </row>
     <row r="513" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B513" t="str">
@@ -82886,7 +82928,7 @@
         <v>0.00</v>
       </c>
       <c r="N513" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="170"/>
         <v>0.00</v>
       </c>
       <c r="O513" t="str">
@@ -82900,7 +82942,7 @@
     </row>
     <row r="514" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B514" t="str">
@@ -82952,7 +82994,7 @@
         <v>0.45</v>
       </c>
       <c r="N514" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="170"/>
         <v>0.00</v>
       </c>
       <c r="O514" t="str">
@@ -82966,7 +83008,7 @@
     </row>
     <row r="515" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B515" t="str">
@@ -83018,7 +83060,7 @@
         <v>0.00</v>
       </c>
       <c r="N515" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="170"/>
         <v>0.00</v>
       </c>
       <c r="O515" t="str">
@@ -83032,7 +83074,7 @@
     </row>
     <row r="516" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B516" t="str">
@@ -83072,33 +83114,33 @@
         <v>银行转取</v>
       </c>
       <c r="K516" t="str">
-        <f>"---"</f>
+        <f t="shared" ref="K516:P517" si="171">"---"</f>
         <v>---</v>
       </c>
       <c r="L516" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="M516" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="N516" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="O516" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="P516" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
     </row>
     <row r="517" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B517" t="str">
@@ -83138,33 +83180,33 @@
         <v>银行转取</v>
       </c>
       <c r="K517" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="L517" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="M517" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="N517" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="O517" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
       <c r="P517" t="str">
-        <f>"---"</f>
+        <f t="shared" si="171"/>
         <v>---</v>
       </c>
     </row>
     <row r="518" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B518" t="str">
@@ -83204,19 +83246,19 @@
         <v>申购配号(泰和科技)</v>
       </c>
       <c r="K518" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="K518:N520" si="172">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="L518" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="M518" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="N518" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="O518" t="str">
@@ -83224,13 +83266,13 @@
         <v>300801</v>
       </c>
       <c r="P518" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" ref="P518:P528" si="173">"0153613480"</f>
         <v>0153613480</v>
       </c>
     </row>
     <row r="519" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B519" t="str">
@@ -83270,19 +83312,19 @@
         <v>申购配号(久量股份)</v>
       </c>
       <c r="K519" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="L519" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="M519" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="N519" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="O519" t="str">
@@ -83290,13 +83332,13 @@
         <v>300808</v>
       </c>
       <c r="P519" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="520" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B520" t="str">
@@ -83336,19 +83378,19 @@
         <v>申购配号(嘉美包装)</v>
       </c>
       <c r="K520" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="L520" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="M520" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="N520" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="172"/>
         <v>0.00</v>
       </c>
       <c r="O520" t="str">
@@ -83356,13 +83398,13 @@
         <v>002969</v>
       </c>
       <c r="P520" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="521" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B521" t="str">
@@ -83410,11 +83452,11 @@
         <v>33.45</v>
       </c>
       <c r="M521" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="M521:N528" si="174">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="N521" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O521" t="str">
@@ -83422,13 +83464,13 @@
         <v>002565</v>
       </c>
       <c r="P521" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="522" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B522" t="str">
@@ -83476,11 +83518,11 @@
         <v>0.00</v>
       </c>
       <c r="M522" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="N522" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O522" t="str">
@@ -83488,13 +83530,13 @@
         <v>300507</v>
       </c>
       <c r="P522" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B523" t="str">
@@ -83542,11 +83584,11 @@
         <v>0.00</v>
       </c>
       <c r="M523" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="N523" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O523" t="str">
@@ -83554,13 +83596,13 @@
         <v>002968</v>
       </c>
       <c r="P523" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="524" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B524" t="str">
@@ -83608,11 +83650,11 @@
         <v>0.00</v>
       </c>
       <c r="M524" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="N524" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O524" t="str">
@@ -83620,13 +83662,13 @@
         <v>300809</v>
       </c>
       <c r="P524" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B525" t="str">
@@ -83674,11 +83716,11 @@
         <v>0.00</v>
       </c>
       <c r="M525" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="N525" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O525" t="str">
@@ -83686,13 +83728,13 @@
         <v>300810</v>
       </c>
       <c r="P525" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="526" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B526" t="str">
@@ -83740,11 +83782,11 @@
         <v>0.00</v>
       </c>
       <c r="M526" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="N526" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O526" t="str">
@@ -83752,13 +83794,13 @@
         <v>002117</v>
       </c>
       <c r="P526" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="527" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B527" t="str">
@@ -83806,11 +83848,11 @@
         <v>16.65</v>
       </c>
       <c r="M527" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="N527" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O527" t="str">
@@ -83818,13 +83860,13 @@
         <v>300507</v>
       </c>
       <c r="P527" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B528" t="str">
@@ -83872,11 +83914,11 @@
         <v>17.04</v>
       </c>
       <c r="M528" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="N528" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="174"/>
         <v>0.00</v>
       </c>
       <c r="O528" t="str">
@@ -83884,13 +83926,13 @@
         <v>300507</v>
       </c>
       <c r="P528" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="173"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="529" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B529" t="str">
@@ -83930,33 +83972,33 @@
         <v>银行转取</v>
       </c>
       <c r="K529" t="str">
-        <f>"---"</f>
+        <f t="shared" ref="K529:P529" si="175">"---"</f>
         <v>---</v>
       </c>
       <c r="L529" t="str">
-        <f>"---"</f>
+        <f t="shared" si="175"/>
         <v>---</v>
       </c>
       <c r="M529" t="str">
-        <f>"---"</f>
+        <f t="shared" si="175"/>
         <v>---</v>
       </c>
       <c r="N529" t="str">
-        <f>"---"</f>
+        <f t="shared" si="175"/>
         <v>---</v>
       </c>
       <c r="O529" t="str">
-        <f>"---"</f>
+        <f t="shared" si="175"/>
         <v>---</v>
       </c>
       <c r="P529" t="str">
-        <f>"---"</f>
+        <f t="shared" si="175"/>
         <v>---</v>
       </c>
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B530" t="str">
@@ -84000,15 +84042,15 @@
         <v>5.50</v>
       </c>
       <c r="L530" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="L530:N532" si="176">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="M530" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="N530" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="O530" t="str">
@@ -84016,13 +84058,13 @@
         <v>002861</v>
       </c>
       <c r="P530" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" ref="P530:P536" si="177">"0153613480"</f>
         <v>0153613480</v>
       </c>
     </row>
     <row r="531" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B531" t="str">
@@ -84066,15 +84108,15 @@
         <v>5.00</v>
       </c>
       <c r="L531" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="M531" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="N531" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="O531" t="str">
@@ -84082,13 +84124,13 @@
         <v>002861</v>
       </c>
       <c r="P531" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="177"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B532" t="str">
@@ -84132,15 +84174,15 @@
         <v>5.00</v>
       </c>
       <c r="L532" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="M532" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="N532" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="176"/>
         <v>0.00</v>
       </c>
       <c r="O532" t="str">
@@ -84148,13 +84190,13 @@
         <v>002861</v>
       </c>
       <c r="P532" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="177"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B533" t="str">
@@ -84202,11 +84244,11 @@
         <v>33.78</v>
       </c>
       <c r="M533" t="str">
-        <f>"0.00"</f>
+        <f t="shared" ref="M533:N536" si="178">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="N533" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="178"/>
         <v>0.00</v>
       </c>
       <c r="O533" t="str">
@@ -84214,13 +84256,13 @@
         <v>002117</v>
       </c>
       <c r="P533" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="177"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B534" t="str">
@@ -84268,11 +84310,11 @@
         <v>0.00</v>
       </c>
       <c r="M534" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="178"/>
         <v>0.00</v>
       </c>
       <c r="N534" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="178"/>
         <v>0.00</v>
       </c>
       <c r="O534" t="str">
@@ -84280,13 +84322,13 @@
         <v>300639</v>
       </c>
       <c r="P534" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="177"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="535" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B535" t="str">
@@ -84334,11 +84376,11 @@
         <v>0.00</v>
       </c>
       <c r="M535" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="178"/>
         <v>0.00</v>
       </c>
       <c r="N535" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="178"/>
         <v>0.00</v>
       </c>
       <c r="O535" t="str">
@@ -84346,13 +84388,13 @@
         <v>002888</v>
       </c>
       <c r="P535" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="177"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="536" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B536" t="str">
@@ -84400,11 +84442,11 @@
         <v>92.68</v>
       </c>
       <c r="M536" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="178"/>
         <v>0.00</v>
       </c>
       <c r="N536" t="str">
-        <f>"0.00"</f>
+        <f t="shared" si="178"/>
         <v>0.00</v>
       </c>
       <c r="O536" t="str">
@@ -84412,13 +84454,13 @@
         <v>002565</v>
       </c>
       <c r="P536" t="str">
-        <f>"0153613480"</f>
+        <f t="shared" si="177"/>
         <v>0153613480</v>
       </c>
     </row>
     <row r="537" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
-        <f>"人民币"</f>
+        <f t="shared" si="163"/>
         <v>人民币</v>
       </c>
       <c r="B537" t="str">
@@ -84480,6 +84522,3772 @@
       <c r="P537" t="str">
         <f>"A400948245"</f>
         <v>A400948245</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A538" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B538" t="str">
+        <f>"恒铭达"</f>
+        <v>恒铭达</v>
+      </c>
+      <c r="C538" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D538" t="str">
+        <f>"53.820"</f>
+        <v>53.820</v>
+      </c>
+      <c r="E538" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F538" t="str">
+        <f>"-21534.46"</f>
+        <v>-21534.46</v>
+      </c>
+      <c r="G538" t="str">
+        <f>"78941.79"</f>
+        <v>78941.79</v>
+      </c>
+      <c r="H538" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I538" t="str">
+        <f>"541"</f>
+        <v>541</v>
+      </c>
+      <c r="J538" t="str">
+        <f>"证券买入(恒铭达)"</f>
+        <v>证券买入(恒铭达)</v>
+      </c>
+      <c r="K538" t="str">
+        <f>"6.46"</f>
+        <v>6.46</v>
+      </c>
+      <c r="L538" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M538" t="str">
+        <f t="shared" ref="M538:N553" si="179">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N538" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O538" t="str">
+        <f>"002947"</f>
+        <v>002947</v>
+      </c>
+      <c r="P538" t="str">
+        <f t="shared" ref="P538:P546" si="180">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A539" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B539" t="str">
+        <f>"惠威科技"</f>
+        <v>惠威科技</v>
+      </c>
+      <c r="C539" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D539" t="str">
+        <f>"22.510"</f>
+        <v>22.510</v>
+      </c>
+      <c r="E539" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F539" t="str">
+        <f>"17984.59"</f>
+        <v>17984.59</v>
+      </c>
+      <c r="G539" t="str">
+        <f>"100476.25"</f>
+        <v>100476.25</v>
+      </c>
+      <c r="H539" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I539" t="str">
+        <f>"535"</f>
+        <v>535</v>
+      </c>
+      <c r="J539" t="str">
+        <f>"证券卖出(惠威科技)"</f>
+        <v>证券卖出(惠威科技)</v>
+      </c>
+      <c r="K539" t="str">
+        <f>"5.40"</f>
+        <v>5.40</v>
+      </c>
+      <c r="L539" t="str">
+        <f>"18.01"</f>
+        <v>18.01</v>
+      </c>
+      <c r="M539" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N539" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O539" t="str">
+        <f>"002888"</f>
+        <v>002888</v>
+      </c>
+      <c r="P539" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A540" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B540" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C540" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D540" t="str">
+        <f>"38.350"</f>
+        <v>38.350</v>
+      </c>
+      <c r="E540" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F540" t="str">
+        <f>"19150.07"</f>
+        <v>19150.07</v>
+      </c>
+      <c r="G540" t="str">
+        <f>"82491.66"</f>
+        <v>82491.66</v>
+      </c>
+      <c r="H540" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I540" t="str">
+        <f>"537"</f>
+        <v>537</v>
+      </c>
+      <c r="J540" t="str">
+        <f>"证券卖出(瀛通通讯)"</f>
+        <v>证券卖出(瀛通通讯)</v>
+      </c>
+      <c r="K540" t="str">
+        <f>"5.75"</f>
+        <v>5.75</v>
+      </c>
+      <c r="L540" t="str">
+        <f>"19.18"</f>
+        <v>19.18</v>
+      </c>
+      <c r="M540" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N540" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O540" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P540" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A541" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B541" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C541" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D541" t="str">
+        <f>"37.850"</f>
+        <v>37.850</v>
+      </c>
+      <c r="E541" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F541" t="str">
+        <f>"18900.39"</f>
+        <v>18900.39</v>
+      </c>
+      <c r="G541" t="str">
+        <f>"63341.59"</f>
+        <v>63341.59</v>
+      </c>
+      <c r="H541" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I541" t="str">
+        <f>"531"</f>
+        <v>531</v>
+      </c>
+      <c r="J541" t="str">
+        <f>"证券卖出(瀛通通讯)"</f>
+        <v>证券卖出(瀛通通讯)</v>
+      </c>
+      <c r="K541" t="str">
+        <f>"5.68"</f>
+        <v>5.68</v>
+      </c>
+      <c r="L541" t="str">
+        <f>"18.93"</f>
+        <v>18.93</v>
+      </c>
+      <c r="M541" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N541" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O541" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P541" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A542" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B542" t="str">
+        <f>"凯普生物"</f>
+        <v>凯普生物</v>
+      </c>
+      <c r="C542" t="str">
+        <f t="shared" ref="C542:C547" si="181">"20191128"</f>
+        <v>20191128</v>
+      </c>
+      <c r="D542" t="str">
+        <f>"26.850"</f>
+        <v>26.850</v>
+      </c>
+      <c r="E542" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F542" t="str">
+        <f>"53630.18"</f>
+        <v>53630.18</v>
+      </c>
+      <c r="G542" t="str">
+        <f>"67415.80"</f>
+        <v>67415.80</v>
+      </c>
+      <c r="H542" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I542" t="str">
+        <f>"562"</f>
+        <v>562</v>
+      </c>
+      <c r="J542" t="str">
+        <f>"证券卖出(凯普生物)"</f>
+        <v>证券卖出(凯普生物)</v>
+      </c>
+      <c r="K542" t="str">
+        <f>"16.12"</f>
+        <v>16.12</v>
+      </c>
+      <c r="L542" t="str">
+        <f>"53.70"</f>
+        <v>53.70</v>
+      </c>
+      <c r="M542" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N542" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O542" t="str">
+        <f>"300639"</f>
+        <v>300639</v>
+      </c>
+      <c r="P542" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A543" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B543" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C543" t="str">
+        <f t="shared" si="181"/>
+        <v>20191128</v>
+      </c>
+      <c r="D543" t="str">
+        <f>"47.230"</f>
+        <v>47.230</v>
+      </c>
+      <c r="E543" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F543" t="str">
+        <f>"-28346.50"</f>
+        <v>-28346.50</v>
+      </c>
+      <c r="G543" t="str">
+        <f>"13785.62"</f>
+        <v>13785.62</v>
+      </c>
+      <c r="H543" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I543" t="str">
+        <f>"572"</f>
+        <v>572</v>
+      </c>
+      <c r="J543" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K543" t="str">
+        <f>"8.50"</f>
+        <v>8.50</v>
+      </c>
+      <c r="L543" t="str">
+        <f t="shared" ref="L543:L549" si="182">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M543" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N543" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O543" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P543" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A544" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B544" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C544" t="str">
+        <f t="shared" si="181"/>
+        <v>20191128</v>
+      </c>
+      <c r="D544" t="str">
+        <f>"47.220"</f>
+        <v>47.220</v>
+      </c>
+      <c r="E544" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F544" t="str">
+        <f>"-18893.67"</f>
+        <v>-18893.67</v>
+      </c>
+      <c r="G544" t="str">
+        <f>"42132.12"</f>
+        <v>42132.12</v>
+      </c>
+      <c r="H544" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I544" t="str">
+        <f>"565"</f>
+        <v>565</v>
+      </c>
+      <c r="J544" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K544" t="str">
+        <f>"5.67"</f>
+        <v>5.67</v>
+      </c>
+      <c r="L544" t="str">
+        <f t="shared" si="182"/>
+        <v>0.00</v>
+      </c>
+      <c r="M544" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N544" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O544" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P544" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A545" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B545" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C545" t="str">
+        <f t="shared" si="181"/>
+        <v>20191128</v>
+      </c>
+      <c r="D545" t="str">
+        <f>"29.487"</f>
+        <v>29.487</v>
+      </c>
+      <c r="E545" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F545" t="str">
+        <f>"-8851.00"</f>
+        <v>-8851.00</v>
+      </c>
+      <c r="G545" t="str">
+        <f>"61025.79"</f>
+        <v>61025.79</v>
+      </c>
+      <c r="H545" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="I545" t="str">
+        <f>"557"</f>
+        <v>557</v>
+      </c>
+      <c r="J545" t="str">
+        <f>"证券买入(四方精创)"</f>
+        <v>证券买入(四方精创)</v>
+      </c>
+      <c r="K545" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L545" t="str">
+        <f t="shared" si="182"/>
+        <v>0.00</v>
+      </c>
+      <c r="M545" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N545" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O545" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P545" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A546" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B546" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C546" t="str">
+        <f t="shared" si="181"/>
+        <v>20191128</v>
+      </c>
+      <c r="D546" t="str">
+        <f>"30.200"</f>
+        <v>30.200</v>
+      </c>
+      <c r="E546" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F546" t="str">
+        <f>"-9065.00"</f>
+        <v>-9065.00</v>
+      </c>
+      <c r="G546" t="str">
+        <f>"69876.79"</f>
+        <v>69876.79</v>
+      </c>
+      <c r="H546" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="I546" t="str">
+        <f>"550"</f>
+        <v>550</v>
+      </c>
+      <c r="J546" t="str">
+        <f>"证券买入(四方精创)"</f>
+        <v>证券买入(四方精创)</v>
+      </c>
+      <c r="K546" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L546" t="str">
+        <f t="shared" si="182"/>
+        <v>0.00</v>
+      </c>
+      <c r="M546" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N546" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O546" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P546" t="str">
+        <f t="shared" si="180"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A547" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B547" t="str">
+        <f>"邮储配号"</f>
+        <v>邮储配号</v>
+      </c>
+      <c r="C547" t="str">
+        <f t="shared" si="181"/>
+        <v>20191128</v>
+      </c>
+      <c r="D547" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E547" t="str">
+        <f>"7.00"</f>
+        <v>7.00</v>
+      </c>
+      <c r="F547" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G547" t="str">
+        <f>"78941.79"</f>
+        <v>78941.79</v>
+      </c>
+      <c r="H547" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I547" t="str">
+        <f>"548"</f>
+        <v>548</v>
+      </c>
+      <c r="J547" t="str">
+        <f>"申购配号(邮储配号)"</f>
+        <v>申购配号(邮储配号)</v>
+      </c>
+      <c r="K547" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L547" t="str">
+        <f t="shared" si="182"/>
+        <v>0.00</v>
+      </c>
+      <c r="M547" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N547" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O547" t="str">
+        <f>"791658"</f>
+        <v>791658</v>
+      </c>
+      <c r="P547" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A548" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B548" t="str">
+        <f>"精测电子"</f>
+        <v>精测电子</v>
+      </c>
+      <c r="C548" t="str">
+        <f>"20191129"</f>
+        <v>20191129</v>
+      </c>
+      <c r="D548" t="str">
+        <f>"39.710"</f>
+        <v>39.710</v>
+      </c>
+      <c r="E548" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F548" t="str">
+        <f>"-19860.96"</f>
+        <v>-19860.96</v>
+      </c>
+      <c r="G548" t="str">
+        <f>"86026.73"</f>
+        <v>86026.73</v>
+      </c>
+      <c r="H548" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I548" t="str">
+        <f>"603"</f>
+        <v>603</v>
+      </c>
+      <c r="J548" t="str">
+        <f>"证券买入(精测电子)"</f>
+        <v>证券买入(精测电子)</v>
+      </c>
+      <c r="K548" t="str">
+        <f>"5.96"</f>
+        <v>5.96</v>
+      </c>
+      <c r="L548" t="str">
+        <f t="shared" si="182"/>
+        <v>0.00</v>
+      </c>
+      <c r="M548" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N548" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O548" t="str">
+        <f>"300567"</f>
+        <v>300567</v>
+      </c>
+      <c r="P548" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A549" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B549" t="str">
+        <f>"精测电子"</f>
+        <v>精测电子</v>
+      </c>
+      <c r="C549" t="str">
+        <f>"20191129"</f>
+        <v>20191129</v>
+      </c>
+      <c r="D549" t="str">
+        <f>"39.790"</f>
+        <v>39.790</v>
+      </c>
+      <c r="E549" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F549" t="str">
+        <f>"-19900.97"</f>
+        <v>-19900.97</v>
+      </c>
+      <c r="G549" t="str">
+        <f>"105887.69"</f>
+        <v>105887.69</v>
+      </c>
+      <c r="H549" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I549" t="str">
+        <f>"590"</f>
+        <v>590</v>
+      </c>
+      <c r="J549" t="str">
+        <f>"证券买入(精测电子)"</f>
+        <v>证券买入(精测电子)</v>
+      </c>
+      <c r="K549" t="str">
+        <f>"5.97"</f>
+        <v>5.97</v>
+      </c>
+      <c r="L549" t="str">
+        <f t="shared" si="182"/>
+        <v>0.00</v>
+      </c>
+      <c r="M549" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="N549" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O549" t="str">
+        <f>"300567"</f>
+        <v>300567</v>
+      </c>
+      <c r="P549" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A550" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B550" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C550" t="str">
+        <f>"20191129"</f>
+        <v>20191129</v>
+      </c>
+      <c r="D550" t="str">
+        <f>"16.700"</f>
+        <v>16.700</v>
+      </c>
+      <c r="E550" t="str">
+        <f>"-3500.00"</f>
+        <v>-3500.00</v>
+      </c>
+      <c r="F550" t="str">
+        <f>"58372.86"</f>
+        <v>58372.86</v>
+      </c>
+      <c r="G550" t="str">
+        <f>"125788.66"</f>
+        <v>125788.66</v>
+      </c>
+      <c r="H550" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I550" t="str">
+        <f>"586"</f>
+        <v>586</v>
+      </c>
+      <c r="J550" t="str">
+        <f>"证券卖出(中通国脉)"</f>
+        <v>证券卖出(中通国脉)</v>
+      </c>
+      <c r="K550" t="str">
+        <f>"17.54"</f>
+        <v>17.54</v>
+      </c>
+      <c r="L550" t="str">
+        <f>"58.45"</f>
+        <v>58.45</v>
+      </c>
+      <c r="M550" t="str">
+        <f>"1.15"</f>
+        <v>1.15</v>
+      </c>
+      <c r="N550" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O550" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P550" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A551" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B551" t="str">
+        <f>"恒铭达"</f>
+        <v>恒铭达</v>
+      </c>
+      <c r="C551" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D551" t="str">
+        <f>"53.830"</f>
+        <v>53.830</v>
+      </c>
+      <c r="E551" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F551" t="str">
+        <f>"-32307.69"</f>
+        <v>-32307.69</v>
+      </c>
+      <c r="G551" t="str">
+        <f>"60234.94"</f>
+        <v>60234.94</v>
+      </c>
+      <c r="H551" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I551" t="str">
+        <f>"615"</f>
+        <v>615</v>
+      </c>
+      <c r="J551" t="str">
+        <f>"证券买入(恒铭达)"</f>
+        <v>证券买入(恒铭达)</v>
+      </c>
+      <c r="K551" t="str">
+        <f>"9.69"</f>
+        <v>9.69</v>
+      </c>
+      <c r="L551" t="str">
+        <f t="shared" ref="L551:N563" si="183">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M551" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N551" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O551" t="str">
+        <f>"002947"</f>
+        <v>002947</v>
+      </c>
+      <c r="P551" t="str">
+        <f t="shared" ref="P551:P556" si="184">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A552" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B552" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C552" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D552" t="str">
+        <f>"29.410"</f>
+        <v>29.410</v>
+      </c>
+      <c r="E552" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F552" t="str">
+        <f>"-11769.00"</f>
+        <v>-11769.00</v>
+      </c>
+      <c r="G552" t="str">
+        <f>"92542.63"</f>
+        <v>92542.63</v>
+      </c>
+      <c r="H552" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I552" t="str">
+        <f>"622"</f>
+        <v>622</v>
+      </c>
+      <c r="J552" t="str">
+        <f>"证券买入(四方精创)"</f>
+        <v>证券买入(四方精创)</v>
+      </c>
+      <c r="K552" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L552" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="M552" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N552" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O552" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P552" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A553" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B553" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C553" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D553" t="str">
+        <f>"45.310"</f>
+        <v>45.310</v>
+      </c>
+      <c r="E553" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F553" t="str">
+        <f>"-22661.80"</f>
+        <v>-22661.80</v>
+      </c>
+      <c r="G553" t="str">
+        <f>"104311.63"</f>
+        <v>104311.63</v>
+      </c>
+      <c r="H553" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I553" t="str">
+        <f>"609"</f>
+        <v>609</v>
+      </c>
+      <c r="J553" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K553" t="str">
+        <f>"6.80"</f>
+        <v>6.80</v>
+      </c>
+      <c r="L553" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="M553" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N553" t="str">
+        <f t="shared" si="179"/>
+        <v>0.00</v>
+      </c>
+      <c r="O553" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P553" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A554" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B554" t="str">
+        <f>"精测电子"</f>
+        <v>精测电子</v>
+      </c>
+      <c r="C554" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D554" t="str">
+        <f>"41.000"</f>
+        <v>41.000</v>
+      </c>
+      <c r="E554" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F554" t="str">
+        <f>"40946.70"</f>
+        <v>40946.70</v>
+      </c>
+      <c r="G554" t="str">
+        <f>"126973.43"</f>
+        <v>126973.43</v>
+      </c>
+      <c r="H554" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I554" t="str">
+        <f>"612"</f>
+        <v>612</v>
+      </c>
+      <c r="J554" t="str">
+        <f>"证券卖出(精测电子)"</f>
+        <v>证券卖出(精测电子)</v>
+      </c>
+      <c r="K554" t="str">
+        <f>"12.30"</f>
+        <v>12.30</v>
+      </c>
+      <c r="L554" t="str">
+        <f>"41.00"</f>
+        <v>41.00</v>
+      </c>
+      <c r="M554" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N554" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O554" t="str">
+        <f>"300567"</f>
+        <v>300567</v>
+      </c>
+      <c r="P554" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A555" t="str">
+        <f t="shared" si="163"/>
+        <v>人民币</v>
+      </c>
+      <c r="B555" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C555" t="str">
+        <f>"20191203"</f>
+        <v>20191203</v>
+      </c>
+      <c r="D555" t="str">
+        <f>"44.000"</f>
+        <v>44.000</v>
+      </c>
+      <c r="E555" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F555" t="str">
+        <f>"-22006.60"</f>
+        <v>-22006.60</v>
+      </c>
+      <c r="G555" t="str">
+        <f>"21143.21"</f>
+        <v>21143.21</v>
+      </c>
+      <c r="H555" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I555" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="J555" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K555" t="str">
+        <f>"6.60"</f>
+        <v>6.60</v>
+      </c>
+      <c r="L555" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M555" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N555" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O555" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P555" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A556" t="str">
+        <f t="shared" ref="A556:A588" si="185">"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B556" t="str">
+        <f>"奥飞娱乐"</f>
+        <v>奥飞娱乐</v>
+      </c>
+      <c r="C556" t="str">
+        <f>"20191203"</f>
+        <v>20191203</v>
+      </c>
+      <c r="D556" t="str">
+        <f>"8.540"</f>
+        <v>8.540</v>
+      </c>
+      <c r="E556" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F556" t="str">
+        <f>"-17085.13"</f>
+        <v>-17085.13</v>
+      </c>
+      <c r="G556" t="str">
+        <f>"43149.81"</f>
+        <v>43149.81</v>
+      </c>
+      <c r="H556" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I556" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="J556" t="str">
+        <f>"证券买入(奥飞娱乐)"</f>
+        <v>证券买入(奥飞娱乐)</v>
+      </c>
+      <c r="K556" t="str">
+        <f>"5.13"</f>
+        <v>5.13</v>
+      </c>
+      <c r="L556" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M556" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N556" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O556" t="str">
+        <f>"002292"</f>
+        <v>002292</v>
+      </c>
+      <c r="P556" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A557" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B557" t="str">
+        <f>"成燃配号"</f>
+        <v>成燃配号</v>
+      </c>
+      <c r="C557" t="str">
+        <f>"20191203"</f>
+        <v>20191203</v>
+      </c>
+      <c r="D557" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E557" t="str">
+        <f>"6.00"</f>
+        <v>6.00</v>
+      </c>
+      <c r="F557" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G557" t="str">
+        <f>"60234.94"</f>
+        <v>60234.94</v>
+      </c>
+      <c r="H557" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I557" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="J557" t="str">
+        <f>"申购配号(成燃配号)"</f>
+        <v>申购配号(成燃配号)</v>
+      </c>
+      <c r="K557" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L557" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M557" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N557" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O557" t="str">
+        <f>"736053"</f>
+        <v>736053</v>
+      </c>
+      <c r="P557" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A558" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B558" t="str">
+        <f>"锐明技术"</f>
+        <v>锐明技术</v>
+      </c>
+      <c r="C558" t="str">
+        <f t="shared" ref="C558:C564" si="186">"20191204"</f>
+        <v>20191204</v>
+      </c>
+      <c r="D558" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E558" t="str">
+        <f>"17.00"</f>
+        <v>17.00</v>
+      </c>
+      <c r="F558" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G558" t="str">
+        <f>"44820.78"</f>
+        <v>44820.78</v>
+      </c>
+      <c r="H558" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I558" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="J558" t="str">
+        <f>"申购配号(锐明技术)"</f>
+        <v>申购配号(锐明技术)</v>
+      </c>
+      <c r="K558" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L558" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M558" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N558" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O558" t="str">
+        <f>"002970"</f>
+        <v>002970</v>
+      </c>
+      <c r="P558" t="str">
+        <f t="shared" ref="P558:P563" si="187">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A559" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B559" t="str">
+        <f>"奥飞娱乐"</f>
+        <v>奥飞娱乐</v>
+      </c>
+      <c r="C559" t="str">
+        <f t="shared" si="186"/>
+        <v>20191204</v>
+      </c>
+      <c r="D559" t="str">
+        <f>"8.910"</f>
+        <v>8.910</v>
+      </c>
+      <c r="E559" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F559" t="str">
+        <f>"17796.83"</f>
+        <v>17796.83</v>
+      </c>
+      <c r="G559" t="str">
+        <f>"44820.78"</f>
+        <v>44820.78</v>
+      </c>
+      <c r="H559" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I559" t="str">
+        <f>"32"</f>
+        <v>32</v>
+      </c>
+      <c r="J559" t="str">
+        <f>"证券卖出(奥飞娱乐)"</f>
+        <v>证券卖出(奥飞娱乐)</v>
+      </c>
+      <c r="K559" t="str">
+        <f>"5.35"</f>
+        <v>5.35</v>
+      </c>
+      <c r="L559" t="str">
+        <f>"17.82"</f>
+        <v>17.82</v>
+      </c>
+      <c r="M559" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N559" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O559" t="str">
+        <f>"002292"</f>
+        <v>002292</v>
+      </c>
+      <c r="P559" t="str">
+        <f t="shared" si="187"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A560" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B560" t="str">
+        <f>"光弘科技"</f>
+        <v>光弘科技</v>
+      </c>
+      <c r="C560" t="str">
+        <f t="shared" si="186"/>
+        <v>20191204</v>
+      </c>
+      <c r="D560" t="str">
+        <f>"27.220"</f>
+        <v>27.220</v>
+      </c>
+      <c r="E560" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F560" t="str">
+        <f>"-8171.00"</f>
+        <v>-8171.00</v>
+      </c>
+      <c r="G560" t="str">
+        <f>"27023.95"</f>
+        <v>27023.95</v>
+      </c>
+      <c r="H560" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I560" t="str">
+        <f>"25"</f>
+        <v>25</v>
+      </c>
+      <c r="J560" t="str">
+        <f>"证券买入(光弘科技)"</f>
+        <v>证券买入(光弘科技)</v>
+      </c>
+      <c r="K560" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L560" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M560" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N560" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O560" t="str">
+        <f>"300735"</f>
+        <v>300735</v>
+      </c>
+      <c r="P560" t="str">
+        <f t="shared" si="187"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A561" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B561" t="str">
+        <f>"光弘科技"</f>
+        <v>光弘科技</v>
+      </c>
+      <c r="C561" t="str">
+        <f t="shared" si="186"/>
+        <v>20191204</v>
+      </c>
+      <c r="D561" t="str">
+        <f>"27.390"</f>
+        <v>27.390</v>
+      </c>
+      <c r="E561" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="F561" t="str">
+        <f>"-19178.75"</f>
+        <v>-19178.75</v>
+      </c>
+      <c r="G561" t="str">
+        <f>"35194.95"</f>
+        <v>35194.95</v>
+      </c>
+      <c r="H561" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="I561" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="J561" t="str">
+        <f>"证券买入(光弘科技)"</f>
+        <v>证券买入(光弘科技)</v>
+      </c>
+      <c r="K561" t="str">
+        <f>"5.75"</f>
+        <v>5.75</v>
+      </c>
+      <c r="L561" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M561" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N561" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O561" t="str">
+        <f>"300735"</f>
+        <v>300735</v>
+      </c>
+      <c r="P561" t="str">
+        <f t="shared" si="187"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A562" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B562" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C562" t="str">
+        <f t="shared" si="186"/>
+        <v>20191204</v>
+      </c>
+      <c r="D562" t="str">
+        <f>"18.870"</f>
+        <v>18.870</v>
+      </c>
+      <c r="E562" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F562" t="str">
+        <f>"-9440.00"</f>
+        <v>-9440.00</v>
+      </c>
+      <c r="G562" t="str">
+        <f>"54373.70"</f>
+        <v>54373.70</v>
+      </c>
+      <c r="H562" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I562" t="str">
+        <f>"38"</f>
+        <v>38</v>
+      </c>
+      <c r="J562" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K562" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L562" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M562" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N562" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O562" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P562" t="str">
+        <f t="shared" si="187"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A563" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B563" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C563" t="str">
+        <f t="shared" si="186"/>
+        <v>20191204</v>
+      </c>
+      <c r="D563" t="str">
+        <f>"45.400"</f>
+        <v>45.400</v>
+      </c>
+      <c r="E563" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F563" t="str">
+        <f>"22670.49"</f>
+        <v>22670.49</v>
+      </c>
+      <c r="G563" t="str">
+        <f>"63813.70"</f>
+        <v>63813.70</v>
+      </c>
+      <c r="H563" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I563" t="str">
+        <f>"35"</f>
+        <v>35</v>
+      </c>
+      <c r="J563" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K563" t="str">
+        <f>"6.81"</f>
+        <v>6.81</v>
+      </c>
+      <c r="L563" t="str">
+        <f>"22.70"</f>
+        <v>22.70</v>
+      </c>
+      <c r="M563" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N563" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O563" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P563" t="str">
+        <f t="shared" si="187"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A564" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B564" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C564" t="str">
+        <f t="shared" si="186"/>
+        <v>20191204</v>
+      </c>
+      <c r="D564" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E564" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F564" t="str">
+        <f>"20000.00"</f>
+        <v>20000.00</v>
+      </c>
+      <c r="G564" t="str">
+        <f>"41143.21"</f>
+        <v>41143.21</v>
+      </c>
+      <c r="H564" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I564" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J564" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K564" t="str">
+        <f t="shared" ref="K564:P564" si="188">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L564" t="str">
+        <f t="shared" si="188"/>
+        <v>---</v>
+      </c>
+      <c r="M564" t="str">
+        <f t="shared" si="188"/>
+        <v>---</v>
+      </c>
+      <c r="N564" t="str">
+        <f t="shared" si="188"/>
+        <v>---</v>
+      </c>
+      <c r="O564" t="str">
+        <f t="shared" si="188"/>
+        <v>---</v>
+      </c>
+      <c r="P564" t="str">
+        <f t="shared" si="188"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B565" t="str">
+        <f>"天迈科技"</f>
+        <v>天迈科技</v>
+      </c>
+      <c r="C565" t="str">
+        <f t="shared" ref="C565:C571" si="189">"20191205"</f>
+        <v>20191205</v>
+      </c>
+      <c r="D565" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E565" t="str">
+        <f>"29.00"</f>
+        <v>29.00</v>
+      </c>
+      <c r="F565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G565" t="str">
+        <f>"98100.68"</f>
+        <v>98100.68</v>
+      </c>
+      <c r="H565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I565" t="str">
+        <f>"51"</f>
+        <v>51</v>
+      </c>
+      <c r="J565" t="str">
+        <f>"申购配号(天迈科技)"</f>
+        <v>申购配号(天迈科技)</v>
+      </c>
+      <c r="K565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O565" t="str">
+        <f>"300807"</f>
+        <v>300807</v>
+      </c>
+      <c r="P565" t="str">
+        <f t="shared" ref="P565:P578" si="190">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A566" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B566" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C566" t="str">
+        <f t="shared" si="189"/>
+        <v>20191205</v>
+      </c>
+      <c r="D566" t="str">
+        <f>"31.250"</f>
+        <v>31.250</v>
+      </c>
+      <c r="E566" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F566" t="str">
+        <f>"31209.36"</f>
+        <v>31209.36</v>
+      </c>
+      <c r="G566" t="str">
+        <f>"98100.68"</f>
+        <v>98100.68</v>
+      </c>
+      <c r="H566" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I566" t="str">
+        <f>"72"</f>
+        <v>72</v>
+      </c>
+      <c r="J566" t="str">
+        <f>"证券卖出(四方精创)"</f>
+        <v>证券卖出(四方精创)</v>
+      </c>
+      <c r="K566" t="str">
+        <f>"9.38"</f>
+        <v>9.38</v>
+      </c>
+      <c r="L566" t="str">
+        <f>"31.26"</f>
+        <v>31.26</v>
+      </c>
+      <c r="M566" t="str">
+        <f t="shared" ref="M566:N578" si="191">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N566" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O566" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P566" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A567" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B567" t="str">
+        <f>"科瑞技术"</f>
+        <v>科瑞技术</v>
+      </c>
+      <c r="C567" t="str">
+        <f t="shared" si="189"/>
+        <v>20191205</v>
+      </c>
+      <c r="D567" t="str">
+        <f>"32.080"</f>
+        <v>32.080</v>
+      </c>
+      <c r="E567" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F567" t="str">
+        <f>"-19253.78"</f>
+        <v>-19253.78</v>
+      </c>
+      <c r="G567" t="str">
+        <f>"66891.32"</f>
+        <v>66891.32</v>
+      </c>
+      <c r="H567" t="str">
+        <f>"1200.00"</f>
+        <v>1200.00</v>
+      </c>
+      <c r="I567" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="J567" t="str">
+        <f>"证券买入(科瑞技术)"</f>
+        <v>证券买入(科瑞技术)</v>
+      </c>
+      <c r="K567" t="str">
+        <f>"5.78"</f>
+        <v>5.78</v>
+      </c>
+      <c r="L567" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M567" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N567" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O567" t="str">
+        <f>"002957"</f>
+        <v>002957</v>
+      </c>
+      <c r="P567" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A568" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B568" t="str">
+        <f>"科瑞技术"</f>
+        <v>科瑞技术</v>
+      </c>
+      <c r="C568" t="str">
+        <f t="shared" si="189"/>
+        <v>20191205</v>
+      </c>
+      <c r="D568" t="str">
+        <f>"31.990"</f>
+        <v>31.990</v>
+      </c>
+      <c r="E568" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F568" t="str">
+        <f>"-19199.76"</f>
+        <v>-19199.76</v>
+      </c>
+      <c r="G568" t="str">
+        <f>"86145.10"</f>
+        <v>86145.10</v>
+      </c>
+      <c r="H568" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="I568" t="str">
+        <f>"69"</f>
+        <v>69</v>
+      </c>
+      <c r="J568" t="str">
+        <f>"证券买入(科瑞技术)"</f>
+        <v>证券买入(科瑞技术)</v>
+      </c>
+      <c r="K568" t="str">
+        <f>"5.76"</f>
+        <v>5.76</v>
+      </c>
+      <c r="L568" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M568" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N568" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O568" t="str">
+        <f>"002957"</f>
+        <v>002957</v>
+      </c>
+      <c r="P568" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A569" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B569" t="str">
+        <f>"光弘科技"</f>
+        <v>光弘科技</v>
+      </c>
+      <c r="C569" t="str">
+        <f t="shared" si="189"/>
+        <v>20191205</v>
+      </c>
+      <c r="D569" t="str">
+        <f>"27.840"</f>
+        <v>27.840</v>
+      </c>
+      <c r="E569" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F569" t="str">
+        <f>"27803.81"</f>
+        <v>27803.81</v>
+      </c>
+      <c r="G569" t="str">
+        <f>"105344.86"</f>
+        <v>105344.86</v>
+      </c>
+      <c r="H569" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I569" t="str">
+        <f>"56"</f>
+        <v>56</v>
+      </c>
+      <c r="J569" t="str">
+        <f>"证券卖出(光弘科技)"</f>
+        <v>证券卖出(光弘科技)</v>
+      </c>
+      <c r="K569" t="str">
+        <f>"8.35"</f>
+        <v>8.35</v>
+      </c>
+      <c r="L569" t="str">
+        <f>"27.84"</f>
+        <v>27.84</v>
+      </c>
+      <c r="M569" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N569" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O569" t="str">
+        <f>"300735"</f>
+        <v>300735</v>
+      </c>
+      <c r="P569" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A570" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B570" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C570" t="str">
+        <f t="shared" si="189"/>
+        <v>20191205</v>
+      </c>
+      <c r="D570" t="str">
+        <f>"46.410"</f>
+        <v>46.410</v>
+      </c>
+      <c r="E570" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F570" t="str">
+        <f>"23174.83"</f>
+        <v>23174.83</v>
+      </c>
+      <c r="G570" t="str">
+        <f>"77541.05"</f>
+        <v>77541.05</v>
+      </c>
+      <c r="H570" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I570" t="str">
+        <f>"53"</f>
+        <v>53</v>
+      </c>
+      <c r="J570" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K570" t="str">
+        <f>"6.96"</f>
+        <v>6.96</v>
+      </c>
+      <c r="L570" t="str">
+        <f>"23.21"</f>
+        <v>23.21</v>
+      </c>
+      <c r="M570" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N570" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O570" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P570" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A571" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B571" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C571" t="str">
+        <f t="shared" si="189"/>
+        <v>20191205</v>
+      </c>
+      <c r="D571" t="str">
+        <f>"19.120"</f>
+        <v>19.120</v>
+      </c>
+      <c r="E571" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F571" t="str">
+        <f>"9545.44"</f>
+        <v>9545.44</v>
+      </c>
+      <c r="G571" t="str">
+        <f>"54366.22"</f>
+        <v>54366.22</v>
+      </c>
+      <c r="H571" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I571" t="str">
+        <f>"62"</f>
+        <v>62</v>
+      </c>
+      <c r="J571" t="str">
+        <f>"证券卖出(神州数码)"</f>
+        <v>证券卖出(神州数码)</v>
+      </c>
+      <c r="K571" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L571" t="str">
+        <f>"9.56"</f>
+        <v>9.56</v>
+      </c>
+      <c r="M571" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N571" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O571" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P571" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A572" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B572" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C572" t="str">
+        <f t="shared" ref="C572:C579" si="192">"20191206"</f>
+        <v>20191206</v>
+      </c>
+      <c r="D572" t="str">
+        <f>"47.048"</f>
+        <v>47.048</v>
+      </c>
+      <c r="E572" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F572" t="str">
+        <f>"-28237.47"</f>
+        <v>-28237.47</v>
+      </c>
+      <c r="G572" t="str">
+        <f>"54018.69"</f>
+        <v>54018.69</v>
+      </c>
+      <c r="H572" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I572" t="str">
+        <f>"106"</f>
+        <v>106</v>
+      </c>
+      <c r="J572" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K572" t="str">
+        <f>"8.47"</f>
+        <v>8.47</v>
+      </c>
+      <c r="L572" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M572" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N572" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O572" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P572" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A573" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B573" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C573" t="str">
+        <f t="shared" si="192"/>
+        <v>20191206</v>
+      </c>
+      <c r="D573" t="str">
+        <f>"48.080"</f>
+        <v>48.080</v>
+      </c>
+      <c r="E573" t="str">
+        <f>"-600.00"</f>
+        <v>-600.00</v>
+      </c>
+      <c r="F573" t="str">
+        <f>"28810.49"</f>
+        <v>28810.49</v>
+      </c>
+      <c r="G573" t="str">
+        <f>"82256.16"</f>
+        <v>82256.16</v>
+      </c>
+      <c r="H573" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I573" t="str">
+        <f>"85"</f>
+        <v>85</v>
+      </c>
+      <c r="J573" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K573" t="str">
+        <f>"8.66"</f>
+        <v>8.66</v>
+      </c>
+      <c r="L573" t="str">
+        <f>"28.85"</f>
+        <v>28.85</v>
+      </c>
+      <c r="M573" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N573" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O573" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P573" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A574" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B574" t="str">
+        <f>"恒铭达"</f>
+        <v>恒铭达</v>
+      </c>
+      <c r="C574" t="str">
+        <f t="shared" si="192"/>
+        <v>20191206</v>
+      </c>
+      <c r="D574" t="str">
+        <f>"55.230"</f>
+        <v>55.230</v>
+      </c>
+      <c r="E574" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F574" t="str">
+        <f>"55158.20"</f>
+        <v>55158.20</v>
+      </c>
+      <c r="G574" t="str">
+        <f>"53445.67"</f>
+        <v>53445.67</v>
+      </c>
+      <c r="H574" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I574" t="str">
+        <f>"110"</f>
+        <v>110</v>
+      </c>
+      <c r="J574" t="str">
+        <f>"证券卖出(恒铭达)"</f>
+        <v>证券卖出(恒铭达)</v>
+      </c>
+      <c r="K574" t="str">
+        <f>"16.57"</f>
+        <v>16.57</v>
+      </c>
+      <c r="L574" t="str">
+        <f>"55.23"</f>
+        <v>55.23</v>
+      </c>
+      <c r="M574" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N574" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O574" t="str">
+        <f>"002947"</f>
+        <v>002947</v>
+      </c>
+      <c r="P574" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A575" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B575" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C575" t="str">
+        <f t="shared" si="192"/>
+        <v>20191206</v>
+      </c>
+      <c r="D575" t="str">
+        <f>"23.650"</f>
+        <v>23.650</v>
+      </c>
+      <c r="E575" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F575" t="str">
+        <f>"-11830.00"</f>
+        <v>-11830.00</v>
+      </c>
+      <c r="G575" t="str">
+        <f>"-1712.53"</f>
+        <v>-1712.53</v>
+      </c>
+      <c r="H575" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="I575" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="J575" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K575" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L575" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M575" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N575" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O575" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P575" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B576" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C576" t="str">
+        <f t="shared" si="192"/>
+        <v>20191206</v>
+      </c>
+      <c r="D576" t="str">
+        <f>"23.900"</f>
+        <v>23.900</v>
+      </c>
+      <c r="E576" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F576" t="str">
+        <f>"-9565.00"</f>
+        <v>-9565.00</v>
+      </c>
+      <c r="G576" t="str">
+        <f>"10117.47"</f>
+        <v>10117.47</v>
+      </c>
+      <c r="H576" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I576" t="str">
+        <f>"96"</f>
+        <v>96</v>
+      </c>
+      <c r="J576" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K576" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L576" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M576" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N576" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O576" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P576" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A577" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B577" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C577" t="str">
+        <f t="shared" si="192"/>
+        <v>20191206</v>
+      </c>
+      <c r="D577" t="str">
+        <f>"23.960"</f>
+        <v>23.960</v>
+      </c>
+      <c r="E577" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F577" t="str">
+        <f>"-14381.00"</f>
+        <v>-14381.00</v>
+      </c>
+      <c r="G577" t="str">
+        <f>"19682.47"</f>
+        <v>19682.47</v>
+      </c>
+      <c r="H577" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I577" t="str">
+        <f>"92"</f>
+        <v>92</v>
+      </c>
+      <c r="J577" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K577" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L577" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M577" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N577" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O577" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P577" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A578" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B578" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C578" t="str">
+        <f t="shared" si="192"/>
+        <v>20191206</v>
+      </c>
+      <c r="D578" t="str">
+        <f>"24.030"</f>
+        <v>24.030</v>
+      </c>
+      <c r="E578" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F578" t="str">
+        <f>"-24037.21"</f>
+        <v>-24037.21</v>
+      </c>
+      <c r="G578" t="str">
+        <f>"34063.47"</f>
+        <v>34063.47</v>
+      </c>
+      <c r="H578" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I578" t="str">
+        <f>"89"</f>
+        <v>89</v>
+      </c>
+      <c r="J578" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K578" t="str">
+        <f>"7.21"</f>
+        <v>7.21</v>
+      </c>
+      <c r="L578" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M578" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="N578" t="str">
+        <f t="shared" si="191"/>
+        <v>0.00</v>
+      </c>
+      <c r="O578" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P578" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A579" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B579" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C579" t="str">
+        <f t="shared" si="192"/>
+        <v>20191206</v>
+      </c>
+      <c r="D579" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E579" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F579" t="str">
+        <f>"-40000.00"</f>
+        <v>-40000.00</v>
+      </c>
+      <c r="G579" t="str">
+        <f>"58100.68"</f>
+        <v>58100.68</v>
+      </c>
+      <c r="H579" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I579" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J579" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K579" t="str">
+        <f t="shared" ref="K579:P579" si="193">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L579" t="str">
+        <f t="shared" si="193"/>
+        <v>---</v>
+      </c>
+      <c r="M579" t="str">
+        <f t="shared" si="193"/>
+        <v>---</v>
+      </c>
+      <c r="N579" t="str">
+        <f t="shared" si="193"/>
+        <v>---</v>
+      </c>
+      <c r="O579" t="str">
+        <f t="shared" si="193"/>
+        <v>---</v>
+      </c>
+      <c r="P579" t="str">
+        <f t="shared" si="193"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A580" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B580" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C580" t="str">
+        <f>"20191209"</f>
+        <v>20191209</v>
+      </c>
+      <c r="D580" t="str">
+        <f>"45.690"</f>
+        <v>45.690</v>
+      </c>
+      <c r="E580" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F580" t="str">
+        <f>"-22851.86"</f>
+        <v>-22851.86</v>
+      </c>
+      <c r="G580" t="str">
+        <f>"42351.39"</f>
+        <v>42351.39</v>
+      </c>
+      <c r="H580" t="str">
+        <f>"2100.00"</f>
+        <v>2100.00</v>
+      </c>
+      <c r="I580" t="str">
+        <f>"127"</f>
+        <v>127</v>
+      </c>
+      <c r="J580" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K580" t="str">
+        <f>"6.86"</f>
+        <v>6.86</v>
+      </c>
+      <c r="L580" t="str">
+        <f t="shared" ref="L580:N587" si="194">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M580" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N580" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O580" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P580" t="str">
+        <f t="shared" ref="P580:P585" si="195">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A581" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B581" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C581" t="str">
+        <f>"20191209"</f>
+        <v>20191209</v>
+      </c>
+      <c r="D581" t="str">
+        <f>"46.680"</f>
+        <v>46.680</v>
+      </c>
+      <c r="E581" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F581" t="str">
+        <f>"-28016.41"</f>
+        <v>-28016.41</v>
+      </c>
+      <c r="G581" t="str">
+        <f>"65203.25"</f>
+        <v>65203.25</v>
+      </c>
+      <c r="H581" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I581" t="str">
+        <f>"122"</f>
+        <v>122</v>
+      </c>
+      <c r="J581" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K581" t="str">
+        <f>"8.41"</f>
+        <v>8.41</v>
+      </c>
+      <c r="L581" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="M581" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N581" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O581" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P581" t="str">
+        <f t="shared" si="195"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A582" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B582" t="str">
+        <f>"科瑞技术"</f>
+        <v>科瑞技术</v>
+      </c>
+      <c r="C582" t="str">
+        <f>"20191209"</f>
+        <v>20191209</v>
+      </c>
+      <c r="D582" t="str">
+        <f>"32.710"</f>
+        <v>32.710</v>
+      </c>
+      <c r="E582" t="str">
+        <f>"-1200.00"</f>
+        <v>-1200.00</v>
+      </c>
+      <c r="F582" t="str">
+        <f>"39200.97"</f>
+        <v>39200.97</v>
+      </c>
+      <c r="G582" t="str">
+        <f>"93219.66"</f>
+        <v>93219.66</v>
+      </c>
+      <c r="H582" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I582" t="str">
+        <f>"133"</f>
+        <v>133</v>
+      </c>
+      <c r="J582" t="str">
+        <f>"证券卖出(科瑞技术)"</f>
+        <v>证券卖出(科瑞技术)</v>
+      </c>
+      <c r="K582" t="str">
+        <f>"11.78"</f>
+        <v>11.78</v>
+      </c>
+      <c r="L582" t="str">
+        <f>"39.25"</f>
+        <v>39.25</v>
+      </c>
+      <c r="M582" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N582" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O582" t="str">
+        <f>"002957"</f>
+        <v>002957</v>
+      </c>
+      <c r="P582" t="str">
+        <f t="shared" si="195"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A583" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B583" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C583" t="str">
+        <f>"20191210"</f>
+        <v>20191210</v>
+      </c>
+      <c r="D583" t="str">
+        <f>"18.250"</f>
+        <v>18.250</v>
+      </c>
+      <c r="E583" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F583" t="str">
+        <f>"-14605.00"</f>
+        <v>-14605.00</v>
+      </c>
+      <c r="G583" t="str">
+        <f>"18616.39"</f>
+        <v>18616.39</v>
+      </c>
+      <c r="H583" t="str">
+        <f>"1300.00"</f>
+        <v>1300.00</v>
+      </c>
+      <c r="I583" t="str">
+        <f>"143"</f>
+        <v>143</v>
+      </c>
+      <c r="J583" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K583" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L583" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M583" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N583" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O583" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P583" t="str">
+        <f t="shared" si="195"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A584" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B584" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C584" t="str">
+        <f>"20191210"</f>
+        <v>20191210</v>
+      </c>
+      <c r="D584" t="str">
+        <f>"18.250"</f>
+        <v>18.250</v>
+      </c>
+      <c r="E584" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F584" t="str">
+        <f>"-9130.00"</f>
+        <v>-9130.00</v>
+      </c>
+      <c r="G584" t="str">
+        <f>"33221.39"</f>
+        <v>33221.39</v>
+      </c>
+      <c r="H584" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I584" t="str">
+        <f>"139"</f>
+        <v>139</v>
+      </c>
+      <c r="J584" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K584" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L584" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M584" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N584" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O584" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P584" t="str">
+        <f t="shared" si="195"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A585" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B585" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C585" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D585" t="str">
+        <f>"19.055"</f>
+        <v>19.055</v>
+      </c>
+      <c r="E585" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F585" t="str">
+        <f>"-15249.00"</f>
+        <v>-15249.00</v>
+      </c>
+      <c r="G585" t="str">
+        <f>"23367.39"</f>
+        <v>23367.39</v>
+      </c>
+      <c r="H585" t="str">
+        <f>"2100.00"</f>
+        <v>2100.00</v>
+      </c>
+      <c r="I585" t="str">
+        <f>"156"</f>
+        <v>156</v>
+      </c>
+      <c r="J585" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K585" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L585" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M585" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N585" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O585" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P585" t="str">
+        <f t="shared" si="195"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A586" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B586" t="str">
+        <f>"中新配号"</f>
+        <v>中新配号</v>
+      </c>
+      <c r="C586" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D586" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E586" t="str">
+        <f>"3.00"</f>
+        <v>3.00</v>
+      </c>
+      <c r="F586" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G586" t="str">
+        <f>"38616.39"</f>
+        <v>38616.39</v>
+      </c>
+      <c r="H586" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I586" t="str">
+        <f>"152"</f>
+        <v>152</v>
+      </c>
+      <c r="J586" t="str">
+        <f>"申购配号(中新配号)"</f>
+        <v>申购配号(中新配号)</v>
+      </c>
+      <c r="K586" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L586" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M586" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N586" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O586" t="str">
+        <f>"791512"</f>
+        <v>791512</v>
+      </c>
+      <c r="P586" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A587" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B587" t="str">
+        <f>"甬金配号"</f>
+        <v>甬金配号</v>
+      </c>
+      <c r="C587" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D587" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E587" t="str">
+        <f>"3.00"</f>
+        <v>3.00</v>
+      </c>
+      <c r="F587" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G587" t="str">
+        <f>"38616.39"</f>
+        <v>38616.39</v>
+      </c>
+      <c r="H587" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I587" t="str">
+        <f>"154"</f>
+        <v>154</v>
+      </c>
+      <c r="J587" t="str">
+        <f>"申购配号(甬金配号)"</f>
+        <v>申购配号(甬金配号)</v>
+      </c>
+      <c r="K587" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L587" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M587" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="N587" t="str">
+        <f t="shared" si="194"/>
+        <v>0.00</v>
+      </c>
+      <c r="O587" t="str">
+        <f>"736995"</f>
+        <v>736995</v>
+      </c>
+      <c r="P587" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A588" t="str">
+        <f t="shared" si="185"/>
+        <v>人民币</v>
+      </c>
+      <c r="B588" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C588" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D588" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E588" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F588" t="str">
+        <f>"20000.00"</f>
+        <v>20000.00</v>
+      </c>
+      <c r="G588" t="str">
+        <f>"38616.39"</f>
+        <v>38616.39</v>
+      </c>
+      <c r="H588" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I588" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J588" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K588" t="str">
+        <f t="shared" ref="K588:P588" si="196">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L588" t="str">
+        <f t="shared" si="196"/>
+        <v>---</v>
+      </c>
+      <c r="M588" t="str">
+        <f t="shared" si="196"/>
+        <v>---</v>
+      </c>
+      <c r="N588" t="str">
+        <f t="shared" si="196"/>
+        <v>---</v>
+      </c>
+      <c r="O588" t="str">
+        <f t="shared" si="196"/>
+        <v>---</v>
+      </c>
+      <c r="P588" t="str">
+        <f t="shared" si="196"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>18</v>
+      </c>
+      <c r="B589" t="s">
+        <v>19</v>
+      </c>
+      <c r="C589">
+        <v>20191212</v>
+      </c>
+      <c r="D589">
+        <v>46.48</v>
+      </c>
+      <c r="E589">
+        <v>-500</v>
+      </c>
+      <c r="F589">
+        <v>23209.79</v>
+      </c>
+      <c r="G589">
+        <v>77202.899999999994</v>
+      </c>
+      <c r="H589">
+        <v>1600</v>
+      </c>
+      <c r="I589">
+        <v>194</v>
+      </c>
+      <c r="J589" t="s">
+        <v>20</v>
+      </c>
+      <c r="K589">
+        <v>6.97</v>
+      </c>
+      <c r="L589">
+        <v>23.24</v>
+      </c>
+      <c r="M589">
+        <v>0</v>
+      </c>
+      <c r="N589">
+        <v>0</v>
+      </c>
+      <c r="O589">
+        <v>300357</v>
+      </c>
+      <c r="P589">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>18</v>
+      </c>
+      <c r="B590" t="s">
+        <v>21</v>
+      </c>
+      <c r="C590">
+        <v>20191212</v>
+      </c>
+      <c r="D590">
+        <v>19.54</v>
+      </c>
+      <c r="E590">
+        <v>-1300</v>
+      </c>
+      <c r="F590">
+        <v>25368.98</v>
+      </c>
+      <c r="G590">
+        <v>53993.11</v>
+      </c>
+      <c r="H590">
+        <v>800</v>
+      </c>
+      <c r="I590">
+        <v>180</v>
+      </c>
+      <c r="J590" t="s">
+        <v>22</v>
+      </c>
+      <c r="K590">
+        <v>7.62</v>
+      </c>
+      <c r="L590">
+        <v>25.4</v>
+      </c>
+      <c r="M590">
+        <v>0</v>
+      </c>
+      <c r="N590">
+        <v>0</v>
+      </c>
+      <c r="O590">
+        <v>300341</v>
+      </c>
+      <c r="P590">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>18</v>
+      </c>
+      <c r="B591" t="s">
+        <v>23</v>
+      </c>
+      <c r="C591">
+        <v>20191212</v>
+      </c>
+      <c r="D591">
+        <v>25.81</v>
+      </c>
+      <c r="E591">
+        <v>-1000</v>
+      </c>
+      <c r="F591">
+        <v>25776.44</v>
+      </c>
+      <c r="G591">
+        <v>28624.13</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+      <c r="I591">
+        <v>176</v>
+      </c>
+      <c r="J591" t="s">
+        <v>24</v>
+      </c>
+      <c r="K591">
+        <v>7.75</v>
+      </c>
+      <c r="L591">
+        <v>25.81</v>
+      </c>
+      <c r="M591">
+        <v>0</v>
+      </c>
+      <c r="N591">
+        <v>0</v>
+      </c>
+      <c r="O591">
+        <v>2870</v>
+      </c>
+      <c r="P591">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>18</v>
+      </c>
+      <c r="B592" t="s">
+        <v>25</v>
+      </c>
+      <c r="C592">
+        <v>20191212</v>
+      </c>
+      <c r="D592">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="E592">
+        <v>1000</v>
+      </c>
+      <c r="F592">
+        <v>-19945.98</v>
+      </c>
+      <c r="G592">
+        <v>2847.69</v>
+      </c>
+      <c r="H592">
+        <v>1000</v>
+      </c>
+      <c r="I592">
+        <v>172</v>
+      </c>
+      <c r="J592" t="s">
+        <v>26</v>
+      </c>
+      <c r="K592">
+        <v>5.98</v>
+      </c>
+      <c r="L592">
+        <v>0</v>
+      </c>
+      <c r="M592">
+        <v>0</v>
+      </c>
+      <c r="N592">
+        <v>0</v>
+      </c>
+      <c r="O592">
+        <v>34</v>
+      </c>
+      <c r="P592">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>18</v>
+      </c>
+      <c r="B593" t="s">
+        <v>23</v>
+      </c>
+      <c r="C593">
+        <v>20191212</v>
+      </c>
+      <c r="D593">
+        <v>24.6</v>
+      </c>
+      <c r="E593">
+        <v>-1500</v>
+      </c>
+      <c r="F593">
+        <v>36852.03</v>
+      </c>
+      <c r="G593">
+        <v>22793.67</v>
+      </c>
+      <c r="H593">
+        <v>1000</v>
+      </c>
+      <c r="I593">
+        <v>166</v>
+      </c>
+      <c r="J593" t="s">
+        <v>24</v>
+      </c>
+      <c r="K593">
+        <v>11.07</v>
+      </c>
+      <c r="L593">
+        <v>36.9</v>
+      </c>
+      <c r="M593">
+        <v>0</v>
+      </c>
+      <c r="N593">
+        <v>0</v>
+      </c>
+      <c r="O593">
+        <v>2870</v>
+      </c>
+      <c r="P593">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>18</v>
+      </c>
+      <c r="B594" t="s">
+        <v>27</v>
+      </c>
+      <c r="C594">
+        <v>20191212</v>
+      </c>
+      <c r="D594">
+        <v>26.25</v>
+      </c>
+      <c r="E594">
+        <v>600</v>
+      </c>
+      <c r="F594">
+        <v>-15755.32</v>
+      </c>
+      <c r="G594">
+        <v>-14058.36</v>
+      </c>
+      <c r="H594">
+        <v>600</v>
+      </c>
+      <c r="I594">
+        <v>191</v>
+      </c>
+      <c r="J594" t="s">
+        <v>28</v>
+      </c>
+      <c r="K594">
+        <v>5</v>
+      </c>
+      <c r="L594">
+        <v>0</v>
+      </c>
+      <c r="M594">
+        <v>0.32</v>
+      </c>
+      <c r="N594">
+        <v>0</v>
+      </c>
+      <c r="O594">
+        <v>603121</v>
+      </c>
+      <c r="P594" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>18</v>
+      </c>
+      <c r="B595" t="s">
+        <v>30</v>
+      </c>
+      <c r="C595">
+        <v>20191212</v>
+      </c>
+      <c r="D595">
+        <v>7.29</v>
+      </c>
+      <c r="E595">
+        <v>1500</v>
+      </c>
+      <c r="F595">
+        <v>-10940.22</v>
+      </c>
+      <c r="G595">
+        <v>1696.96</v>
+      </c>
+      <c r="H595">
+        <v>3000</v>
+      </c>
+      <c r="I595">
+        <v>188</v>
+      </c>
+      <c r="J595" t="s">
+        <v>31</v>
+      </c>
+      <c r="K595">
+        <v>5</v>
+      </c>
+      <c r="L595">
+        <v>0</v>
+      </c>
+      <c r="M595">
+        <v>0.22</v>
+      </c>
+      <c r="N595">
+        <v>0</v>
+      </c>
+      <c r="O595">
+        <v>600678</v>
+      </c>
+      <c r="P595" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>18</v>
+      </c>
+      <c r="B596" t="s">
+        <v>30</v>
+      </c>
+      <c r="C596">
+        <v>20191212</v>
+      </c>
+      <c r="D596">
+        <v>7.15</v>
+      </c>
+      <c r="E596">
+        <v>1500</v>
+      </c>
+      <c r="F596">
+        <v>-10730.21</v>
+      </c>
+      <c r="G596">
+        <v>12637.18</v>
+      </c>
+      <c r="H596">
+        <v>1500</v>
+      </c>
+      <c r="I596">
+        <v>184</v>
+      </c>
+      <c r="J596" t="s">
+        <v>31</v>
+      </c>
+      <c r="K596">
+        <v>5</v>
+      </c>
+      <c r="L596">
+        <v>0</v>
+      </c>
+      <c r="M596">
+        <v>0.21</v>
+      </c>
+      <c r="N596">
+        <v>0</v>
+      </c>
+      <c r="O596">
+        <v>600678</v>
+      </c>
+      <c r="P596" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/origin.xlsx
+++ b/cal_profit/origin.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
   <si>
     <t>币种</t>
   </si>
@@ -124,6 +124,75 @@
   </si>
   <si>
     <t>证券买入(四川金顶)</t>
+  </si>
+  <si>
+    <t>证券卖出(神州数码)</t>
+  </si>
+  <si>
+    <t>苏奥传感</t>
+  </si>
+  <si>
+    <t>证券买入(苏奥传感)</t>
+  </si>
+  <si>
+    <t>证券买入(麦克奥迪)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>银行转取</t>
+  </si>
+  <si>
+    <t>证券卖出(苏奥传感)</t>
+  </si>
+  <si>
+    <t>上海新阳</t>
+  </si>
+  <si>
+    <t>证券买入(上海新阳)</t>
+  </si>
+  <si>
+    <t>科蓝软件</t>
+  </si>
+  <si>
+    <t>证券买入(科蓝软件)</t>
+  </si>
+  <si>
+    <t>易尚展示</t>
+  </si>
+  <si>
+    <t>证券买入(易尚展示)</t>
+  </si>
+  <si>
+    <t>证券卖出(华培动力)</t>
+  </si>
+  <si>
+    <t>科安达</t>
+  </si>
+  <si>
+    <t>申购配号(科安达)</t>
+  </si>
+  <si>
+    <t>证券卖出(易尚展示)</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>证券买入(隆基股份)</t>
+  </si>
+  <si>
+    <t>神驰配号</t>
+  </si>
+  <si>
+    <t>申购配号(神驰配号)</t>
+  </si>
+  <si>
+    <t>铂科新材</t>
+  </si>
+  <si>
+    <t>申购配号(铂科新材)</t>
   </si>
 </sst>
 </file>
@@ -49070,10 +49139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P596"/>
+  <dimension ref="A1:P624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="D599" sqref="D599"/>
+    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="A625" sqref="A625:XFD625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -88290,6 +88359,1403 @@
         <v>29</v>
       </c>
     </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>18</v>
+      </c>
+      <c r="B597" t="s">
+        <v>25</v>
+      </c>
+      <c r="C597">
+        <v>20191213</v>
+      </c>
+      <c r="D597">
+        <v>20.81</v>
+      </c>
+      <c r="E597">
+        <v>-1000</v>
+      </c>
+      <c r="F597">
+        <v>20782.939999999999</v>
+      </c>
+      <c r="G597">
+        <v>34683.839999999997</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+      <c r="I597">
+        <v>214</v>
+      </c>
+      <c r="J597" t="s">
+        <v>32</v>
+      </c>
+      <c r="K597">
+        <v>6.25</v>
+      </c>
+      <c r="L597">
+        <v>20.81</v>
+      </c>
+      <c r="M597">
+        <v>0</v>
+      </c>
+      <c r="N597">
+        <v>0</v>
+      </c>
+      <c r="O597">
+        <v>34</v>
+      </c>
+      <c r="P597">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>18</v>
+      </c>
+      <c r="B598" t="s">
+        <v>33</v>
+      </c>
+      <c r="C598">
+        <v>20191213</v>
+      </c>
+      <c r="D598">
+        <v>14.68</v>
+      </c>
+      <c r="E598">
+        <v>1000</v>
+      </c>
+      <c r="F598">
+        <v>-14685</v>
+      </c>
+      <c r="G598">
+        <v>13900.9</v>
+      </c>
+      <c r="H598">
+        <v>1000</v>
+      </c>
+      <c r="I598">
+        <v>205</v>
+      </c>
+      <c r="J598" t="s">
+        <v>34</v>
+      </c>
+      <c r="K598">
+        <v>5</v>
+      </c>
+      <c r="L598">
+        <v>0</v>
+      </c>
+      <c r="M598">
+        <v>0</v>
+      </c>
+      <c r="N598">
+        <v>0</v>
+      </c>
+      <c r="O598">
+        <v>300507</v>
+      </c>
+      <c r="P598">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>18</v>
+      </c>
+      <c r="B599" t="s">
+        <v>21</v>
+      </c>
+      <c r="C599">
+        <v>20191213</v>
+      </c>
+      <c r="D599">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="E599">
+        <v>800</v>
+      </c>
+      <c r="F599">
+        <v>-14213</v>
+      </c>
+      <c r="G599">
+        <v>28585.9</v>
+      </c>
+      <c r="H599">
+        <v>2400</v>
+      </c>
+      <c r="I599">
+        <v>219</v>
+      </c>
+      <c r="J599" t="s">
+        <v>35</v>
+      </c>
+      <c r="K599">
+        <v>5</v>
+      </c>
+      <c r="L599">
+        <v>0</v>
+      </c>
+      <c r="M599">
+        <v>0</v>
+      </c>
+      <c r="N599">
+        <v>0</v>
+      </c>
+      <c r="O599">
+        <v>300341</v>
+      </c>
+      <c r="P599">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>18</v>
+      </c>
+      <c r="B600" t="s">
+        <v>21</v>
+      </c>
+      <c r="C600">
+        <v>20191213</v>
+      </c>
+      <c r="D600">
+        <v>17.998999999999999</v>
+      </c>
+      <c r="E600">
+        <v>800</v>
+      </c>
+      <c r="F600">
+        <v>-14404</v>
+      </c>
+      <c r="G600">
+        <v>42798.9</v>
+      </c>
+      <c r="H600">
+        <v>1600</v>
+      </c>
+      <c r="I600">
+        <v>209</v>
+      </c>
+      <c r="J600" t="s">
+        <v>35</v>
+      </c>
+      <c r="K600">
+        <v>5</v>
+      </c>
+      <c r="L600">
+        <v>0</v>
+      </c>
+      <c r="M600">
+        <v>0</v>
+      </c>
+      <c r="N600">
+        <v>0</v>
+      </c>
+      <c r="O600">
+        <v>300341</v>
+      </c>
+      <c r="P600">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>18</v>
+      </c>
+      <c r="C601">
+        <v>20191213</v>
+      </c>
+      <c r="D601" t="s">
+        <v>36</v>
+      </c>
+      <c r="E601" t="s">
+        <v>36</v>
+      </c>
+      <c r="F601">
+        <v>-20000</v>
+      </c>
+      <c r="G601">
+        <v>57202.9</v>
+      </c>
+      <c r="H601" t="s">
+        <v>36</v>
+      </c>
+      <c r="I601" t="s">
+        <v>36</v>
+      </c>
+      <c r="J601" t="s">
+        <v>37</v>
+      </c>
+      <c r="K601" t="s">
+        <v>36</v>
+      </c>
+      <c r="L601" t="s">
+        <v>36</v>
+      </c>
+      <c r="M601" t="s">
+        <v>36</v>
+      </c>
+      <c r="N601" t="s">
+        <v>36</v>
+      </c>
+      <c r="O601" t="s">
+        <v>36</v>
+      </c>
+      <c r="P601" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>18</v>
+      </c>
+      <c r="B602" t="s">
+        <v>21</v>
+      </c>
+      <c r="C602">
+        <v>20191216</v>
+      </c>
+      <c r="D602">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="E602">
+        <v>-800</v>
+      </c>
+      <c r="F602">
+        <v>14732.25</v>
+      </c>
+      <c r="G602">
+        <v>58960.06</v>
+      </c>
+      <c r="H602">
+        <v>800</v>
+      </c>
+      <c r="I602">
+        <v>242</v>
+      </c>
+      <c r="J602" t="s">
+        <v>22</v>
+      </c>
+      <c r="K602">
+        <v>5</v>
+      </c>
+      <c r="L602">
+        <v>14.75</v>
+      </c>
+      <c r="M602">
+        <v>0</v>
+      </c>
+      <c r="N602">
+        <v>0</v>
+      </c>
+      <c r="O602">
+        <v>300341</v>
+      </c>
+      <c r="P602">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>18</v>
+      </c>
+      <c r="B603" t="s">
+        <v>21</v>
+      </c>
+      <c r="C603">
+        <v>20191216</v>
+      </c>
+      <c r="D603">
+        <v>18.45</v>
+      </c>
+      <c r="E603">
+        <v>-800</v>
+      </c>
+      <c r="F603">
+        <v>14740.24</v>
+      </c>
+      <c r="G603">
+        <v>44227.81</v>
+      </c>
+      <c r="H603">
+        <v>1600</v>
+      </c>
+      <c r="I603">
+        <v>239</v>
+      </c>
+      <c r="J603" t="s">
+        <v>22</v>
+      </c>
+      <c r="K603">
+        <v>5</v>
+      </c>
+      <c r="L603">
+        <v>14.76</v>
+      </c>
+      <c r="M603">
+        <v>0</v>
+      </c>
+      <c r="N603">
+        <v>0</v>
+      </c>
+      <c r="O603">
+        <v>300341</v>
+      </c>
+      <c r="P603">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>18</v>
+      </c>
+      <c r="B604" t="s">
+        <v>33</v>
+      </c>
+      <c r="C604">
+        <v>20191216</v>
+      </c>
+      <c r="D604">
+        <v>15.55</v>
+      </c>
+      <c r="E604">
+        <v>-1000</v>
+      </c>
+      <c r="F604">
+        <v>15529.45</v>
+      </c>
+      <c r="G604">
+        <v>29487.57</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+      <c r="I604">
+        <v>226</v>
+      </c>
+      <c r="J604" t="s">
+        <v>38</v>
+      </c>
+      <c r="K604">
+        <v>5</v>
+      </c>
+      <c r="L604">
+        <v>15.55</v>
+      </c>
+      <c r="M604">
+        <v>0</v>
+      </c>
+      <c r="N604">
+        <v>0</v>
+      </c>
+      <c r="O604">
+        <v>300507</v>
+      </c>
+      <c r="P604">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>18</v>
+      </c>
+      <c r="B605" t="s">
+        <v>39</v>
+      </c>
+      <c r="C605">
+        <v>20191216</v>
+      </c>
+      <c r="D605">
+        <v>25.899000000000001</v>
+      </c>
+      <c r="E605">
+        <v>800</v>
+      </c>
+      <c r="F605">
+        <v>-20725.72</v>
+      </c>
+      <c r="G605">
+        <v>13958.12</v>
+      </c>
+      <c r="H605">
+        <v>800</v>
+      </c>
+      <c r="I605">
+        <v>232</v>
+      </c>
+      <c r="J605" t="s">
+        <v>40</v>
+      </c>
+      <c r="K605">
+        <v>6.22</v>
+      </c>
+      <c r="L605">
+        <v>0</v>
+      </c>
+      <c r="M605">
+        <v>0</v>
+      </c>
+      <c r="N605">
+        <v>0</v>
+      </c>
+      <c r="O605">
+        <v>300236</v>
+      </c>
+      <c r="P605">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>18</v>
+      </c>
+      <c r="B606" t="s">
+        <v>21</v>
+      </c>
+      <c r="C606">
+        <v>20191217</v>
+      </c>
+      <c r="D606">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E606">
+        <v>-800</v>
+      </c>
+      <c r="F606">
+        <v>15099.88</v>
+      </c>
+      <c r="G606">
+        <v>89783.95</v>
+      </c>
+      <c r="H606">
+        <v>0</v>
+      </c>
+      <c r="I606">
+        <v>254</v>
+      </c>
+      <c r="J606" t="s">
+        <v>22</v>
+      </c>
+      <c r="K606">
+        <v>5</v>
+      </c>
+      <c r="L606">
+        <v>15.12</v>
+      </c>
+      <c r="M606">
+        <v>0</v>
+      </c>
+      <c r="N606">
+        <v>0</v>
+      </c>
+      <c r="O606">
+        <v>300341</v>
+      </c>
+      <c r="P606">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>18</v>
+      </c>
+      <c r="B607" t="s">
+        <v>41</v>
+      </c>
+      <c r="C607">
+        <v>20191217</v>
+      </c>
+      <c r="D607">
+        <v>28.78</v>
+      </c>
+      <c r="E607">
+        <v>600</v>
+      </c>
+      <c r="F607">
+        <v>-17273.18</v>
+      </c>
+      <c r="G607">
+        <v>74684.070000000007</v>
+      </c>
+      <c r="H607">
+        <v>1200</v>
+      </c>
+      <c r="I607">
+        <v>269</v>
+      </c>
+      <c r="J607" t="s">
+        <v>42</v>
+      </c>
+      <c r="K607">
+        <v>5.18</v>
+      </c>
+      <c r="L607">
+        <v>0</v>
+      </c>
+      <c r="M607">
+        <v>0</v>
+      </c>
+      <c r="N607">
+        <v>0</v>
+      </c>
+      <c r="O607">
+        <v>300663</v>
+      </c>
+      <c r="P607">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>18</v>
+      </c>
+      <c r="B608" t="s">
+        <v>41</v>
+      </c>
+      <c r="C608">
+        <v>20191217</v>
+      </c>
+      <c r="D608">
+        <v>29.01</v>
+      </c>
+      <c r="E608">
+        <v>600</v>
+      </c>
+      <c r="F608">
+        <v>-17411.22</v>
+      </c>
+      <c r="G608">
+        <v>91957.25</v>
+      </c>
+      <c r="H608">
+        <v>600</v>
+      </c>
+      <c r="I608">
+        <v>263</v>
+      </c>
+      <c r="J608" t="s">
+        <v>42</v>
+      </c>
+      <c r="K608">
+        <v>5.22</v>
+      </c>
+      <c r="L608">
+        <v>0</v>
+      </c>
+      <c r="M608">
+        <v>0</v>
+      </c>
+      <c r="N608">
+        <v>0</v>
+      </c>
+      <c r="O608">
+        <v>300663</v>
+      </c>
+      <c r="P608">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>18</v>
+      </c>
+      <c r="B609" t="s">
+        <v>19</v>
+      </c>
+      <c r="C609">
+        <v>20191217</v>
+      </c>
+      <c r="D609">
+        <v>47.1</v>
+      </c>
+      <c r="E609">
+        <v>-400</v>
+      </c>
+      <c r="F609">
+        <v>18815.509999999998</v>
+      </c>
+      <c r="G609">
+        <v>109368.47</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+      <c r="I609">
+        <v>292</v>
+      </c>
+      <c r="J609" t="s">
+        <v>20</v>
+      </c>
+      <c r="K609">
+        <v>5.65</v>
+      </c>
+      <c r="L609">
+        <v>18.84</v>
+      </c>
+      <c r="M609">
+        <v>0</v>
+      </c>
+      <c r="N609">
+        <v>0</v>
+      </c>
+      <c r="O609">
+        <v>300357</v>
+      </c>
+      <c r="P609">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>18</v>
+      </c>
+      <c r="B610" t="s">
+        <v>19</v>
+      </c>
+      <c r="C610">
+        <v>20191217</v>
+      </c>
+      <c r="D610">
+        <v>47.1</v>
+      </c>
+      <c r="E610">
+        <v>-1200</v>
+      </c>
+      <c r="F610">
+        <v>56446.52</v>
+      </c>
+      <c r="G610">
+        <v>90552.960000000006</v>
+      </c>
+      <c r="H610">
+        <v>400</v>
+      </c>
+      <c r="I610">
+        <v>285</v>
+      </c>
+      <c r="J610" t="s">
+        <v>20</v>
+      </c>
+      <c r="K610">
+        <v>16.96</v>
+      </c>
+      <c r="L610">
+        <v>56.52</v>
+      </c>
+      <c r="M610">
+        <v>0</v>
+      </c>
+      <c r="N610">
+        <v>0</v>
+      </c>
+      <c r="O610">
+        <v>300357</v>
+      </c>
+      <c r="P610">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>18</v>
+      </c>
+      <c r="B611" t="s">
+        <v>43</v>
+      </c>
+      <c r="C611">
+        <v>20191217</v>
+      </c>
+      <c r="D611">
+        <v>26</v>
+      </c>
+      <c r="E611">
+        <v>1000</v>
+      </c>
+      <c r="F611">
+        <v>-26007.8</v>
+      </c>
+      <c r="G611">
+        <v>34106.44</v>
+      </c>
+      <c r="H611">
+        <v>1000</v>
+      </c>
+      <c r="I611">
+        <v>250</v>
+      </c>
+      <c r="J611" t="s">
+        <v>44</v>
+      </c>
+      <c r="K611">
+        <v>7.8</v>
+      </c>
+      <c r="L611">
+        <v>0</v>
+      </c>
+      <c r="M611">
+        <v>0</v>
+      </c>
+      <c r="N611">
+        <v>0</v>
+      </c>
+      <c r="O611">
+        <v>2751</v>
+      </c>
+      <c r="P611">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>18</v>
+      </c>
+      <c r="B612" t="s">
+        <v>30</v>
+      </c>
+      <c r="C612">
+        <v>20191217</v>
+      </c>
+      <c r="D612">
+        <v>7.03</v>
+      </c>
+      <c r="E612">
+        <v>2000</v>
+      </c>
+      <c r="F612">
+        <v>-14065.28</v>
+      </c>
+      <c r="G612">
+        <v>60114.239999999998</v>
+      </c>
+      <c r="H612">
+        <v>5000</v>
+      </c>
+      <c r="I612">
+        <v>301</v>
+      </c>
+      <c r="J612" t="s">
+        <v>31</v>
+      </c>
+      <c r="K612">
+        <v>5</v>
+      </c>
+      <c r="L612">
+        <v>0</v>
+      </c>
+      <c r="M612">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N612">
+        <v>0</v>
+      </c>
+      <c r="O612">
+        <v>600678</v>
+      </c>
+      <c r="P612" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>18</v>
+      </c>
+      <c r="B613" t="s">
+        <v>27</v>
+      </c>
+      <c r="C613">
+        <v>20191217</v>
+      </c>
+      <c r="D613">
+        <v>25.4</v>
+      </c>
+      <c r="E613">
+        <v>-600</v>
+      </c>
+      <c r="F613">
+        <v>15219.46</v>
+      </c>
+      <c r="G613">
+        <v>74179.520000000004</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+      <c r="I613">
+        <v>266</v>
+      </c>
+      <c r="J613" t="s">
+        <v>45</v>
+      </c>
+      <c r="K613">
+        <v>5</v>
+      </c>
+      <c r="L613">
+        <v>15.24</v>
+      </c>
+      <c r="M613">
+        <v>0.3</v>
+      </c>
+      <c r="N613">
+        <v>0</v>
+      </c>
+      <c r="O613">
+        <v>603121</v>
+      </c>
+      <c r="P613" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>18</v>
+      </c>
+      <c r="B614" t="s">
+        <v>46</v>
+      </c>
+      <c r="C614">
+        <v>20191218</v>
+      </c>
+      <c r="D614">
+        <v>0</v>
+      </c>
+      <c r="E614">
+        <v>26</v>
+      </c>
+      <c r="F614">
+        <v>0</v>
+      </c>
+      <c r="G614">
+        <v>76580.210000000006</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+      <c r="I614">
+        <v>322</v>
+      </c>
+      <c r="J614" t="s">
+        <v>47</v>
+      </c>
+      <c r="K614">
+        <v>0</v>
+      </c>
+      <c r="L614">
+        <v>0</v>
+      </c>
+      <c r="M614">
+        <v>0</v>
+      </c>
+      <c r="N614">
+        <v>0</v>
+      </c>
+      <c r="O614">
+        <v>2972</v>
+      </c>
+      <c r="P614">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>18</v>
+      </c>
+      <c r="B615" t="s">
+        <v>43</v>
+      </c>
+      <c r="C615">
+        <v>20191218</v>
+      </c>
+      <c r="D615">
+        <v>28.88</v>
+      </c>
+      <c r="E615">
+        <v>-300</v>
+      </c>
+      <c r="F615">
+        <v>8650.34</v>
+      </c>
+      <c r="G615">
+        <v>76580.210000000006</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+      <c r="I615">
+        <v>329</v>
+      </c>
+      <c r="J615" t="s">
+        <v>48</v>
+      </c>
+      <c r="K615">
+        <v>5</v>
+      </c>
+      <c r="L615">
+        <v>8.66</v>
+      </c>
+      <c r="M615">
+        <v>0</v>
+      </c>
+      <c r="N615">
+        <v>0</v>
+      </c>
+      <c r="O615">
+        <v>2751</v>
+      </c>
+      <c r="P615">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>18</v>
+      </c>
+      <c r="B616" t="s">
+        <v>43</v>
+      </c>
+      <c r="C616">
+        <v>20191218</v>
+      </c>
+      <c r="D616">
+        <v>29.48</v>
+      </c>
+      <c r="E616">
+        <v>-700</v>
+      </c>
+      <c r="F616">
+        <v>20609.169999999998</v>
+      </c>
+      <c r="G616">
+        <v>67929.87</v>
+      </c>
+      <c r="H616">
+        <v>300</v>
+      </c>
+      <c r="I616">
+        <v>326</v>
+      </c>
+      <c r="J616" t="s">
+        <v>48</v>
+      </c>
+      <c r="K616">
+        <v>6.19</v>
+      </c>
+      <c r="L616">
+        <v>20.64</v>
+      </c>
+      <c r="M616">
+        <v>0</v>
+      </c>
+      <c r="N616">
+        <v>0</v>
+      </c>
+      <c r="O616">
+        <v>2751</v>
+      </c>
+      <c r="P616">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>18</v>
+      </c>
+      <c r="B617" t="s">
+        <v>41</v>
+      </c>
+      <c r="C617">
+        <v>20191218</v>
+      </c>
+      <c r="D617">
+        <v>28.2</v>
+      </c>
+      <c r="E617">
+        <v>600</v>
+      </c>
+      <c r="F617">
+        <v>-16925.080000000002</v>
+      </c>
+      <c r="G617">
+        <v>47320.7</v>
+      </c>
+      <c r="H617">
+        <v>1800</v>
+      </c>
+      <c r="I617">
+        <v>318</v>
+      </c>
+      <c r="J617" t="s">
+        <v>42</v>
+      </c>
+      <c r="K617">
+        <v>5.08</v>
+      </c>
+      <c r="L617">
+        <v>0</v>
+      </c>
+      <c r="M617">
+        <v>0</v>
+      </c>
+      <c r="N617">
+        <v>0</v>
+      </c>
+      <c r="O617">
+        <v>300663</v>
+      </c>
+      <c r="P617">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>18</v>
+      </c>
+      <c r="B618" t="s">
+        <v>49</v>
+      </c>
+      <c r="C618">
+        <v>20191218</v>
+      </c>
+      <c r="D618">
+        <v>25.53</v>
+      </c>
+      <c r="E618">
+        <v>1000</v>
+      </c>
+      <c r="F618">
+        <v>-25538.17</v>
+      </c>
+      <c r="G618">
+        <v>64245.78</v>
+      </c>
+      <c r="H618">
+        <v>1000</v>
+      </c>
+      <c r="I618">
+        <v>332</v>
+      </c>
+      <c r="J618" t="s">
+        <v>50</v>
+      </c>
+      <c r="K618">
+        <v>7.66</v>
+      </c>
+      <c r="L618">
+        <v>0</v>
+      </c>
+      <c r="M618">
+        <v>0.51</v>
+      </c>
+      <c r="N618">
+        <v>0</v>
+      </c>
+      <c r="O618">
+        <v>601012</v>
+      </c>
+      <c r="P618" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>18</v>
+      </c>
+      <c r="B619" t="s">
+        <v>51</v>
+      </c>
+      <c r="C619">
+        <v>20191218</v>
+      </c>
+      <c r="D619">
+        <v>0</v>
+      </c>
+      <c r="E619">
+        <v>2</v>
+      </c>
+      <c r="F619">
+        <v>0</v>
+      </c>
+      <c r="G619">
+        <v>89783.95</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+      <c r="I619">
+        <v>324</v>
+      </c>
+      <c r="J619" t="s">
+        <v>52</v>
+      </c>
+      <c r="K619">
+        <v>0</v>
+      </c>
+      <c r="L619">
+        <v>0</v>
+      </c>
+      <c r="M619">
+        <v>0</v>
+      </c>
+      <c r="N619">
+        <v>0</v>
+      </c>
+      <c r="O619">
+        <v>736109</v>
+      </c>
+      <c r="P619" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>18</v>
+      </c>
+      <c r="B620" t="s">
+        <v>53</v>
+      </c>
+      <c r="C620">
+        <v>20191219</v>
+      </c>
+      <c r="D620">
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>27</v>
+      </c>
+      <c r="F620">
+        <v>0</v>
+      </c>
+      <c r="G620">
+        <v>37032.51</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+      <c r="I620">
+        <v>341</v>
+      </c>
+      <c r="J620" t="s">
+        <v>54</v>
+      </c>
+      <c r="K620">
+        <v>0</v>
+      </c>
+      <c r="L620">
+        <v>0</v>
+      </c>
+      <c r="M620">
+        <v>0</v>
+      </c>
+      <c r="N620">
+        <v>0</v>
+      </c>
+      <c r="O620">
+        <v>300811</v>
+      </c>
+      <c r="P620">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>18</v>
+      </c>
+      <c r="B621" t="s">
+        <v>39</v>
+      </c>
+      <c r="C621">
+        <v>20191219</v>
+      </c>
+      <c r="D621">
+        <v>25.65</v>
+      </c>
+      <c r="E621">
+        <v>1000</v>
+      </c>
+      <c r="F621">
+        <v>-25657.7</v>
+      </c>
+      <c r="G621">
+        <v>37032.51</v>
+      </c>
+      <c r="H621">
+        <v>1800</v>
+      </c>
+      <c r="I621">
+        <v>343</v>
+      </c>
+      <c r="J621" t="s">
+        <v>40</v>
+      </c>
+      <c r="K621">
+        <v>7.7</v>
+      </c>
+      <c r="L621">
+        <v>0</v>
+      </c>
+      <c r="M621">
+        <v>0</v>
+      </c>
+      <c r="N621">
+        <v>0</v>
+      </c>
+      <c r="O621">
+        <v>300236</v>
+      </c>
+      <c r="P621">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>18</v>
+      </c>
+      <c r="B622" t="s">
+        <v>41</v>
+      </c>
+      <c r="C622">
+        <v>20191219</v>
+      </c>
+      <c r="D622">
+        <v>27.77</v>
+      </c>
+      <c r="E622">
+        <v>500</v>
+      </c>
+      <c r="F622">
+        <v>-13890</v>
+      </c>
+      <c r="G622">
+        <v>62690.21</v>
+      </c>
+      <c r="H622">
+        <v>2300</v>
+      </c>
+      <c r="I622">
+        <v>347</v>
+      </c>
+      <c r="J622" t="s">
+        <v>42</v>
+      </c>
+      <c r="K622">
+        <v>5</v>
+      </c>
+      <c r="L622">
+        <v>0</v>
+      </c>
+      <c r="M622">
+        <v>0</v>
+      </c>
+      <c r="N622">
+        <v>0</v>
+      </c>
+      <c r="O622">
+        <v>300663</v>
+      </c>
+      <c r="P622">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>18</v>
+      </c>
+      <c r="B623" t="s">
+        <v>39</v>
+      </c>
+      <c r="C623">
+        <v>20191220</v>
+      </c>
+      <c r="D623">
+        <v>25.09</v>
+      </c>
+      <c r="E623">
+        <v>900</v>
+      </c>
+      <c r="F623">
+        <v>-22587.78</v>
+      </c>
+      <c r="G623">
+        <v>1926.61</v>
+      </c>
+      <c r="H623">
+        <v>3200</v>
+      </c>
+      <c r="I623">
+        <v>357</v>
+      </c>
+      <c r="J623" t="s">
+        <v>40</v>
+      </c>
+      <c r="K623">
+        <v>6.78</v>
+      </c>
+      <c r="L623">
+        <v>0</v>
+      </c>
+      <c r="M623">
+        <v>0</v>
+      </c>
+      <c r="N623">
+        <v>0</v>
+      </c>
+      <c r="O623">
+        <v>300236</v>
+      </c>
+      <c r="P623">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>18</v>
+      </c>
+      <c r="B624" t="s">
+        <v>39</v>
+      </c>
+      <c r="C624">
+        <v>20191220</v>
+      </c>
+      <c r="D624">
+        <v>25.09</v>
+      </c>
+      <c r="E624">
+        <v>500</v>
+      </c>
+      <c r="F624">
+        <v>-12550</v>
+      </c>
+      <c r="G624">
+        <v>24514.39</v>
+      </c>
+      <c r="H624">
+        <v>2300</v>
+      </c>
+      <c r="I624">
+        <v>353</v>
+      </c>
+      <c r="J624" t="s">
+        <v>40</v>
+      </c>
+      <c r="K624">
+        <v>5</v>
+      </c>
+      <c r="L624">
+        <v>0</v>
+      </c>
+      <c r="M624">
+        <v>0</v>
+      </c>
+      <c r="N624">
+        <v>0</v>
+      </c>
+      <c r="O624">
+        <v>300236</v>
+      </c>
+      <c r="P624">
+        <v>153613480</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P491"/>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/cal_profit/origin.xlsx
+++ b/cal_profit/origin.xlsx
@@ -49139,16 +49139,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P624"/>
+  <dimension ref="A1:P641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="A625" sqref="A625:XFD625"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="I621" sqref="I621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -89754,6 +89755,1128 @@
       </c>
       <c r="P624">
         <v>153613480</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A625" t="str">
+        <f t="shared" ref="A625:A641" si="197">"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B625" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C625" t="str">
+        <f>"20191224"</f>
+        <v>20191224</v>
+      </c>
+      <c r="D625" t="str">
+        <f>"20.530"</f>
+        <v>20.530</v>
+      </c>
+      <c r="E625" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="F625" t="str">
+        <f>"-18482.54"</f>
+        <v>-18482.54</v>
+      </c>
+      <c r="G625" t="str">
+        <f>"-16555.93"</f>
+        <v>-16555.93</v>
+      </c>
+      <c r="H625" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="I625" t="str">
+        <f>"366"</f>
+        <v>366</v>
+      </c>
+      <c r="J625" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K625" t="str">
+        <f>"5.54"</f>
+        <v>5.54</v>
+      </c>
+      <c r="L625" t="str">
+        <f t="shared" ref="L625:N634" si="198">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M625" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N625" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O625" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P625" t="str">
+        <f t="shared" ref="P625:P634" si="199">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A626" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B626" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C626" t="str">
+        <f>"20191224"</f>
+        <v>20191224</v>
+      </c>
+      <c r="D626" t="str">
+        <f>"26.748"</f>
+        <v>26.748</v>
+      </c>
+      <c r="E626" t="str">
+        <f>"-1400.00"</f>
+        <v>-1400.00</v>
+      </c>
+      <c r="F626" t="str">
+        <f>"37398.31"</f>
+        <v>37398.31</v>
+      </c>
+      <c r="G626" t="str">
+        <f>"20842.38"</f>
+        <v>20842.38</v>
+      </c>
+      <c r="H626" t="str">
+        <f>"1800.00"</f>
+        <v>1800.00</v>
+      </c>
+      <c r="I626" t="str">
+        <f>"363"</f>
+        <v>363</v>
+      </c>
+      <c r="J626" t="str">
+        <f>"证券卖出(上海新阳)"</f>
+        <v>证券卖出(上海新阳)</v>
+      </c>
+      <c r="K626" t="str">
+        <f>"11.24"</f>
+        <v>11.24</v>
+      </c>
+      <c r="L626" t="str">
+        <f>"37.45"</f>
+        <v>37.45</v>
+      </c>
+      <c r="M626" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N626" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O626" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P626" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A627" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B627" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C627" t="str">
+        <f>"20191224"</f>
+        <v>20191224</v>
+      </c>
+      <c r="D627" t="str">
+        <f>"26.770"</f>
+        <v>26.770</v>
+      </c>
+      <c r="E627" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F627" t="str">
+        <f>"26735.20"</f>
+        <v>26735.20</v>
+      </c>
+      <c r="G627" t="str">
+        <f>"47577.58"</f>
+        <v>47577.58</v>
+      </c>
+      <c r="H627" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I627" t="str">
+        <f>"371"</f>
+        <v>371</v>
+      </c>
+      <c r="J627" t="str">
+        <f>"证券卖出(上海新阳)"</f>
+        <v>证券卖出(上海新阳)</v>
+      </c>
+      <c r="K627" t="str">
+        <f>"8.03"</f>
+        <v>8.03</v>
+      </c>
+      <c r="L627" t="str">
+        <f>"26.77"</f>
+        <v>26.77</v>
+      </c>
+      <c r="M627" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N627" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O627" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P627" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A628" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B628" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C628" t="str">
+        <f t="shared" ref="C628:C633" si="200">"20191225"</f>
+        <v>20191225</v>
+      </c>
+      <c r="D628" t="str">
+        <f>"27.190"</f>
+        <v>27.190</v>
+      </c>
+      <c r="E628" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F628" t="str">
+        <f>"21723.72"</f>
+        <v>21723.72</v>
+      </c>
+      <c r="G628" t="str">
+        <f>"69301.30"</f>
+        <v>69301.30</v>
+      </c>
+      <c r="H628" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I628" t="str">
+        <f>"381"</f>
+        <v>381</v>
+      </c>
+      <c r="J628" t="str">
+        <f>"证券卖出(上海新阳)"</f>
+        <v>证券卖出(上海新阳)</v>
+      </c>
+      <c r="K628" t="str">
+        <f>"6.53"</f>
+        <v>6.53</v>
+      </c>
+      <c r="L628" t="str">
+        <f>"21.75"</f>
+        <v>21.75</v>
+      </c>
+      <c r="M628" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N628" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O628" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P628" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A629" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B629" t="str">
+        <f>"科蓝软件"</f>
+        <v>科蓝软件</v>
+      </c>
+      <c r="C629" t="str">
+        <f t="shared" si="200"/>
+        <v>20191225</v>
+      </c>
+      <c r="D629" t="str">
+        <f>"25.920"</f>
+        <v>25.920</v>
+      </c>
+      <c r="E629" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="F629" t="str">
+        <f>"-18149.45"</f>
+        <v>-18149.45</v>
+      </c>
+      <c r="G629" t="str">
+        <f>"51151.85"</f>
+        <v>51151.85</v>
+      </c>
+      <c r="H629" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I629" t="str">
+        <f>"384"</f>
+        <v>384</v>
+      </c>
+      <c r="J629" t="str">
+        <f>"证券买入(科蓝软件)"</f>
+        <v>证券买入(科蓝软件)</v>
+      </c>
+      <c r="K629" t="str">
+        <f>"5.45"</f>
+        <v>5.45</v>
+      </c>
+      <c r="L629" t="str">
+        <f t="shared" ref="L629:L634" si="201">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M629" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N629" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O629" t="str">
+        <f>"300663"</f>
+        <v>300663</v>
+      </c>
+      <c r="P629" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A630" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B630" t="str">
+        <f>"侨银环保"</f>
+        <v>侨银环保</v>
+      </c>
+      <c r="C630" t="str">
+        <f t="shared" si="200"/>
+        <v>20191225</v>
+      </c>
+      <c r="D630" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E630" t="str">
+        <f>"24.00"</f>
+        <v>24.00</v>
+      </c>
+      <c r="F630" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G630" t="str">
+        <f>"19689.17"</f>
+        <v>19689.17</v>
+      </c>
+      <c r="H630" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I630" t="str">
+        <f>"379"</f>
+        <v>379</v>
+      </c>
+      <c r="J630" t="str">
+        <f>"申购配号(侨银环保)"</f>
+        <v>申购配号(侨银环保)</v>
+      </c>
+      <c r="K630" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L630" t="str">
+        <f t="shared" si="201"/>
+        <v>0.00</v>
+      </c>
+      <c r="M630" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N630" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O630" t="str">
+        <f>"002973"</f>
+        <v>002973</v>
+      </c>
+      <c r="P630" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A631" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B631" t="str">
+        <f>"易天股份"</f>
+        <v>易天股份</v>
+      </c>
+      <c r="C631" t="str">
+        <f t="shared" si="200"/>
+        <v>20191225</v>
+      </c>
+      <c r="D631" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E631" t="str">
+        <f>"26.00"</f>
+        <v>26.00</v>
+      </c>
+      <c r="F631" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G631" t="str">
+        <f>"19689.17"</f>
+        <v>19689.17</v>
+      </c>
+      <c r="H631" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I631" t="str">
+        <f>"377"</f>
+        <v>377</v>
+      </c>
+      <c r="J631" t="str">
+        <f>"申购配号(易天股份)"</f>
+        <v>申购配号(易天股份)</v>
+      </c>
+      <c r="K631" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L631" t="str">
+        <f t="shared" si="201"/>
+        <v>0.00</v>
+      </c>
+      <c r="M631" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N631" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O631" t="str">
+        <f>"300812"</f>
+        <v>300812</v>
+      </c>
+      <c r="P631" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A632" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B632" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C632" t="str">
+        <f t="shared" si="200"/>
+        <v>20191225</v>
+      </c>
+      <c r="D632" t="str">
+        <f>"20.860"</f>
+        <v>20.860</v>
+      </c>
+      <c r="E632" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F632" t="str">
+        <f>"-12521.00"</f>
+        <v>-12521.00</v>
+      </c>
+      <c r="G632" t="str">
+        <f>"19689.17"</f>
+        <v>19689.17</v>
+      </c>
+      <c r="H632" t="str">
+        <f>"2400.00"</f>
+        <v>2400.00</v>
+      </c>
+      <c r="I632" t="str">
+        <f>"396"</f>
+        <v>396</v>
+      </c>
+      <c r="J632" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K632" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L632" t="str">
+        <f t="shared" si="201"/>
+        <v>0.00</v>
+      </c>
+      <c r="M632" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N632" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O632" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P632" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A633" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B633" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C633" t="str">
+        <f t="shared" si="200"/>
+        <v>20191225</v>
+      </c>
+      <c r="D633" t="str">
+        <f>"21.040"</f>
+        <v>21.040</v>
+      </c>
+      <c r="E633" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="F633" t="str">
+        <f>"-18941.68"</f>
+        <v>-18941.68</v>
+      </c>
+      <c r="G633" t="str">
+        <f>"32210.17"</f>
+        <v>32210.17</v>
+      </c>
+      <c r="H633" t="str">
+        <f>"1800.00"</f>
+        <v>1800.00</v>
+      </c>
+      <c r="I633" t="str">
+        <f>"390"</f>
+        <v>390</v>
+      </c>
+      <c r="J633" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K633" t="str">
+        <f>"5.68"</f>
+        <v>5.68</v>
+      </c>
+      <c r="L633" t="str">
+        <f t="shared" si="201"/>
+        <v>0.00</v>
+      </c>
+      <c r="M633" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N633" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O633" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P633" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A634" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B634" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C634" t="str">
+        <f>"20191226"</f>
+        <v>20191226</v>
+      </c>
+      <c r="D634" t="str">
+        <f>"20.620"</f>
+        <v>20.620</v>
+      </c>
+      <c r="E634" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="F634" t="str">
+        <f>"-18563.57"</f>
+        <v>-18563.57</v>
+      </c>
+      <c r="G634" t="str">
+        <f>"1125.60"</f>
+        <v>1125.60</v>
+      </c>
+      <c r="H634" t="str">
+        <f>"3300.00"</f>
+        <v>3300.00</v>
+      </c>
+      <c r="I634" t="str">
+        <f>"406"</f>
+        <v>406</v>
+      </c>
+      <c r="J634" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K634" t="str">
+        <f>"5.57"</f>
+        <v>5.57</v>
+      </c>
+      <c r="L634" t="str">
+        <f t="shared" si="201"/>
+        <v>0.00</v>
+      </c>
+      <c r="M634" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="N634" t="str">
+        <f t="shared" si="198"/>
+        <v>0.00</v>
+      </c>
+      <c r="O634" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P634" t="str">
+        <f t="shared" si="199"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A635" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B635" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C635" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D635" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E635" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F635" t="str">
+        <f>"30000.00"</f>
+        <v>30000.00</v>
+      </c>
+      <c r="G635" t="str">
+        <f>"31125.60"</f>
+        <v>31125.60</v>
+      </c>
+      <c r="H635" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I635" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J635" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K635" t="str">
+        <f t="shared" ref="K635:P635" si="202">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L635" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="M635" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="N635" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="O635" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="P635" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A636" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B636" t="str">
+        <f>"隆基股份"</f>
+        <v>隆基股份</v>
+      </c>
+      <c r="C636" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D636" t="str">
+        <f>"24.690"</f>
+        <v>24.690</v>
+      </c>
+      <c r="E636" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F636" t="str">
+        <f>"-12350.25"</f>
+        <v>-12350.25</v>
+      </c>
+      <c r="G636" t="str">
+        <f>"18775.35"</f>
+        <v>18775.35</v>
+      </c>
+      <c r="H636" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I636" t="str">
+        <f>"419"</f>
+        <v>419</v>
+      </c>
+      <c r="J636" t="str">
+        <f>"证券买入(隆基股份)"</f>
+        <v>证券买入(隆基股份)</v>
+      </c>
+      <c r="K636" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L636" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M636" t="str">
+        <f>"0.25"</f>
+        <v>0.25</v>
+      </c>
+      <c r="N636" t="str">
+        <f t="shared" ref="N636:N641" si="203">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O636" t="str">
+        <f>"601012"</f>
+        <v>601012</v>
+      </c>
+      <c r="P636" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A637" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B637" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C637" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D637" t="str">
+        <f>"19.510"</f>
+        <v>19.510</v>
+      </c>
+      <c r="E637" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F637" t="str">
+        <f>"-15613.00"</f>
+        <v>-15613.00</v>
+      </c>
+      <c r="G637" t="str">
+        <f>"3162.35"</f>
+        <v>3162.35</v>
+      </c>
+      <c r="H637" t="str">
+        <f>"4100.00"</f>
+        <v>4100.00</v>
+      </c>
+      <c r="I637" t="str">
+        <f>"413"</f>
+        <v>413</v>
+      </c>
+      <c r="J637" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K637" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L637" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M637" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N637" t="str">
+        <f t="shared" si="203"/>
+        <v>0.00</v>
+      </c>
+      <c r="O637" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P637" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A638" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B638" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C638" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D638" t="str">
+        <f>"19.940"</f>
+        <v>19.940</v>
+      </c>
+      <c r="E638" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F638" t="str">
+        <f>"15931.05"</f>
+        <v>15931.05</v>
+      </c>
+      <c r="G638" t="str">
+        <f>"19093.40"</f>
+        <v>19093.40</v>
+      </c>
+      <c r="H638" t="str">
+        <f>"3300.00"</f>
+        <v>3300.00</v>
+      </c>
+      <c r="I638" t="str">
+        <f>"416"</f>
+        <v>416</v>
+      </c>
+      <c r="J638" t="str">
+        <f>"证券卖出(神州数码)"</f>
+        <v>证券卖出(神州数码)</v>
+      </c>
+      <c r="K638" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L638" t="str">
+        <f>"15.95"</f>
+        <v>15.95</v>
+      </c>
+      <c r="M638" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N638" t="str">
+        <f t="shared" si="203"/>
+        <v>0.00</v>
+      </c>
+      <c r="O638" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P638" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A639" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B639" t="str">
+        <f>"四川金顶"</f>
+        <v>四川金顶</v>
+      </c>
+      <c r="C639" t="str">
+        <f>"20191231"</f>
+        <v>20191231</v>
+      </c>
+      <c r="D639" t="str">
+        <f>"7.630"</f>
+        <v>7.630</v>
+      </c>
+      <c r="E639" t="str">
+        <f>"-2500.00"</f>
+        <v>-2500.00</v>
+      </c>
+      <c r="F639" t="str">
+        <f>"19049.82"</f>
+        <v>19049.82</v>
+      </c>
+      <c r="G639" t="str">
+        <f>"38143.22"</f>
+        <v>38143.22</v>
+      </c>
+      <c r="H639" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="I639" t="str">
+        <f>"430"</f>
+        <v>430</v>
+      </c>
+      <c r="J639" t="str">
+        <f>"证券卖出(四川金顶)"</f>
+        <v>证券卖出(四川金顶)</v>
+      </c>
+      <c r="K639" t="str">
+        <f>"5.72"</f>
+        <v>5.72</v>
+      </c>
+      <c r="L639" t="str">
+        <f>"19.08"</f>
+        <v>19.08</v>
+      </c>
+      <c r="M639" t="str">
+        <f>"0.38"</f>
+        <v>0.38</v>
+      </c>
+      <c r="N639" t="str">
+        <f t="shared" si="203"/>
+        <v>0.00</v>
+      </c>
+      <c r="O639" t="str">
+        <f>"600678"</f>
+        <v>600678</v>
+      </c>
+      <c r="P639" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A640" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B640" t="str">
+        <f>"四川金顶"</f>
+        <v>四川金顶</v>
+      </c>
+      <c r="C640" t="str">
+        <f>"20191231"</f>
+        <v>20191231</v>
+      </c>
+      <c r="D640" t="str">
+        <f>"7.620"</f>
+        <v>7.620</v>
+      </c>
+      <c r="E640" t="str">
+        <f>"-2500.00"</f>
+        <v>-2500.00</v>
+      </c>
+      <c r="F640" t="str">
+        <f>"19024.84"</f>
+        <v>19024.84</v>
+      </c>
+      <c r="G640" t="str">
+        <f>"57168.06"</f>
+        <v>57168.06</v>
+      </c>
+      <c r="H640" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I640" t="str">
+        <f>"433"</f>
+        <v>433</v>
+      </c>
+      <c r="J640" t="str">
+        <f>"证券卖出(四川金顶)"</f>
+        <v>证券卖出(四川金顶)</v>
+      </c>
+      <c r="K640" t="str">
+        <f>"5.72"</f>
+        <v>5.72</v>
+      </c>
+      <c r="L640" t="str">
+        <f>"19.05"</f>
+        <v>19.05</v>
+      </c>
+      <c r="M640" t="str">
+        <f>"0.39"</f>
+        <v>0.39</v>
+      </c>
+      <c r="N640" t="str">
+        <f t="shared" si="203"/>
+        <v>0.00</v>
+      </c>
+      <c r="O640" t="str">
+        <f>"600678"</f>
+        <v>600678</v>
+      </c>
+      <c r="P640" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A641" t="str">
+        <f t="shared" si="197"/>
+        <v>人民币</v>
+      </c>
+      <c r="B641" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C641" t="str">
+        <f>"20191231"</f>
+        <v>20191231</v>
+      </c>
+      <c r="D641" t="str">
+        <f>"19.710"</f>
+        <v>19.710</v>
+      </c>
+      <c r="E641" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F641" t="str">
+        <f>"-9860.00"</f>
+        <v>-9860.00</v>
+      </c>
+      <c r="G641" t="str">
+        <f>"47308.06"</f>
+        <v>47308.06</v>
+      </c>
+      <c r="H641" t="str">
+        <f>"3800.00"</f>
+        <v>3800.00</v>
+      </c>
+      <c r="I641" t="str">
+        <f>"427"</f>
+        <v>427</v>
+      </c>
+      <c r="J641" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K641" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L641" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M641" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N641" t="str">
+        <f t="shared" si="203"/>
+        <v>0.00</v>
+      </c>
+      <c r="O641" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P641" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
       </c>
     </row>
   </sheetData>
